--- a/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
+++ b/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2372" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B35DB9-D8D9-4985-A4C4-EC974CDD4202}"/>
+  <xr:revisionPtr revIDLastSave="2558" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD89F5DA-8505-483C-BBB9-57238583FDF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
   <si>
     <t>画面設計書</t>
     <phoneticPr fontId="2"/>
@@ -859,116 +859,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜1. ⑨⑪⑬のボタン押下＞
-◆カレンダーが表示され、カレンダーから日付を選択する。
-＜2.選択 or 戻るボタン押下 ＞
-◆カレンダーから日付を選択後、選択ボタンを押下することで、対応するテキストボックス（⑨→⑧,⑪→⑩,⑬→⑫）にカレンダーで選択した日付が入力される。
-◆戻るボタン押下で、カレンダーから日付を入力するフォームが閉じる。</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>センタクゴ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜1. 入力値チェック＞
-◆「ユーザー名」または「パスワード」が未入力の場合、本画面を再表示し、エラーメッセージのダイアログ「ユーザー名、またはパスワードが未入力です」を表示する。
-　「ユーザー名」と「パスワード」が入力されている場合、以降の処理を実施する。
-＜2. ログインチェック＞
-◆入力値がユーザーテーブルの「ユーザー名」、「パスワード」と一致した場合、一覧画面へ遷移する。
-　入力値がユーザーテーブルの「ユーザー名」、「パスワード」と一致しない場合、本画面を再表示し、エラーメッセージのダイアログ「ユーザー名、またはパスワードが間違っています」を表示する。</t>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ホンガメン</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="270" eb="272">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プルダウンに表示される値は、「全て」,「仕事」,「家事」,「趣味」
 ※タスク分類テーブルから、タスク分類名（仕事、家事、趣味）を取得する。
 例）</t>
@@ -1041,81 +931,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜1. ⑮検索ボタン押下＞
-◆タスクテーブルから、⑥タスク名検索欄, ⑦タスク分類検索欄, ⑧⑩タスク完了期限検索欄（開始日～終了日）, ⑫タスク完了日検索欄, ⑭タスク状況検索欄で指定された検索条件、全てに合致するタスクを⑱に表示する。
-※⑥, ⑧⑩, ⑫の検索欄が空白の場合や、⑦, ⑭の値が「全て」の場合は検索条件に加えない。</t>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="87" eb="90">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ガッチ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="130" eb="133">
-      <t>ケンサクラン</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="156" eb="160">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑯新規作成ボタン押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
@@ -1166,38 +981,6 @@
     <t>⑲ページング処理</t>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示時はタスクテーブルのデータの内、タスク状況が「未完了」のデータのみを表示する。
-また、タスク完了期限がシステム日付に近い順にソートする。</t>
-    <rPh sb="0" eb="5">
-      <t>ショキヒョウジジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1296,6 +1079,539 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>削除/完了選択</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+  </si>
+  <si>
+    <t>⑳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>㉑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜1. ⑨⑪⑬のボタン押下＞
+◆カレンダーが表示され、カレンダーから日付を選択する。　※⑬のボタン押下時に表示されるカレンダーは未来の日付を選択できない。
+＜2.選択 or 戻るボタン押下 ＞
+◆カレンダーから日付を選択後、選択ボタンを押下することで、対応するテキストボックス（⑨→⑧,⑪→⑩,⑬→⑫）にカレンダーで選択した日付が入力される。
+◆戻るボタン押下で、カレンダーから日付を入力するフォームが閉じる。</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑳削除ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>㉑完了ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜1. 入力値チェック＞
+◆「ユーザー名」または「パスワード」が未入力の場合、エラーメッセージのダイアログ「ユーザー名、またはパスワードが未入力です」を表示する。
+　「ユーザー名」と「パスワード」が入力されている場合、以降の処理を実施する。
+＜2. ログインチェック＞
+◆入力値がユーザーテーブルの「ユーザー名」、「パスワード」と一致した場合、一覧画面へ遷移する。
+　入力値がユーザーテーブルの「ユーザー名」、「パスワード」と一致しない場合、エラーメッセージのダイアログ「ユーザー名、またはパスワードが間違っています」を表示する。</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザーに応じた、タスクテーブルのデータ。
+初期表示時はタスクテーブルのデータの内、タスク状況が「未完了」のデータのみを表示する。
+また、タスク完了期限がシステム日付に近い順にソートする。</t>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>ショキヒョウジジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>カンリョウキゲン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜1. タスク削除時の確認ダイアログ表示＞
+◆「いいえ」を選択で、ダイアログを閉じる。
+　「はい」を選択で、以降の処理を実施する。
+＜2. タスクの削除＞
+◆⑱の削除/完了選択のチェックボックスが選択されているタスクを削除し、設定されている検索条件で検索した結果を再表示する。
+※チェックボックスが選択されていない状態で、⑳削除ボタンを押下した場合、何も処理は動かない。</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜1. 入力値チェック＞
+◆完了済みのタスクの⑱の削除/完了選択のチェックボックスを選択していた場合、エラーメッセージのダイアログ「選択したタスクは既に完了済みです。」を表示する。
+＜2. タスク完了時の確認ダイアログ表示＞
+◆「いいえ」を選択で、ダイアログを閉じる。
+　「はい」を選択で、以降の処理を実施する。
+＜3. タスクの削除＞
+◆⑱の削除/完了選択のチェックボックスが選択されているタスクのタスク状況を「完了」に更新し、設定されている検索条件で検索した結果を再表示する。
+※チェックボックスが選択されていない状態で、㉑完了ボタンを押下した場合、何も処理は動かない。</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜1. 入力値チェック＞
+◆ ⑧タスク完了期限検索欄（開始日）に入力された日付が、⑩タスク完了期限検索欄（終了日）の日付より後だった場合、エラーメッセージのダイアログ「タスク完了期限(開始日)は、タスク完了期限(終了日)と同じか前の日付を設定してください」を表示する。
+　タスク完了期限（開始日）が、タスク完了期限（終了日）よりも前の日付である場合、以降の処理を実施する。
+＜2. 検索結果表示＞
+◆タスクテーブルから、⑥タスク名検索欄, ⑦タスク分類検索欄, ⑧⑩タスク完了期限検索欄（開始日～終了日）, ⑫タスク完了日検索欄, ⑭タスク状況検索欄で設定された検索条件、全てに合致するタスクを⑱に表示する。
+※1 ⑥, ⑧⑩, ⑫の検索欄が空白の場合や、⑦, ⑭の値が「全て」の場合は検索条件に加えない。
+※2 ⑧か⑩のどちらかの検索欄のみ入力されている場合、⑧のみの場合は、入力されたタスク完了期限（開始日）以降のタスク、⑩のみの場合は、入力されたタスク完了期限（終了日）以前のタスクを表示する。</t>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="216" eb="219">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="227" eb="230">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="237" eb="241">
+      <t>カンリョウキゲン</t>
+    </rPh>
+    <rPh sb="241" eb="244">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="245" eb="248">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="249" eb="252">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="259" eb="262">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="262" eb="265">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="273" eb="276">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="277" eb="279">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="282" eb="284">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="284" eb="286">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="318" eb="321">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="322" eb="324">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="325" eb="327">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="344" eb="348">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="367" eb="370">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="372" eb="374">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="379" eb="381">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="390" eb="392">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="407" eb="409">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="418" eb="420">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="446" eb="448">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの新規登録、既存のタスクの情報の変更を行う。</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1305,7 +1621,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,6 +2396,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,6 +2450,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2116,8 +2465,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2126,45 +2481,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4615,50 +4931,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>142680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>226444</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED77E09D-0173-504E-C605-93AD87EFA68E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9170139" y="3603812"/>
-          <a:ext cx="2645343" cy="1517361"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4753,7 +5025,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5045,22 +5317,70 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>18292</xdr:colOff>
+      <xdr:colOff>53702</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>162699</xdr:rowOff>
+      <xdr:rowOff>169759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="図 122">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A794E293-B676-11E4-89E5-B77953CC0347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE928985-62B6-196A-FA32-5927D175A62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="589"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044940" y="1607820"/>
+          <a:ext cx="2575922" cy="1533739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>63249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8545F38B-2315-26EB-120A-2D1B655AB9BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,12 +5396,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9179859" y="1649505"/>
-          <a:ext cx="2591162" cy="1543265"/>
+          <a:off x="9052560" y="3473903"/>
+          <a:ext cx="2577849" cy="1445022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5094,22 +5419,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60830</xdr:colOff>
+      <xdr:colOff>21771</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:rowOff>2765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>81074</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>87928</xdr:rowOff>
+      <xdr:rowOff>55879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="図 129">
+        <xdr:cNvPr id="27" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A37BC9-9D9D-2C7A-B780-E35FB665FB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A38D5C-AB60-9713-4FCA-D91725FF07EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,8 +5450,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60830" y="1405332"/>
-          <a:ext cx="9608192" cy="5176161"/>
+          <a:off x="21771" y="1374365"/>
+          <a:ext cx="9655630" cy="5082314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5137,14 +5462,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>36178</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>89518</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>98247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>65873</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>119213</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>58466</xdr:rowOff>
     </xdr:to>
@@ -5164,8 +5489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458474" y="1721638"/>
-          <a:ext cx="195347" cy="192132"/>
+          <a:off x="9431638" y="1698447"/>
+          <a:ext cx="197335" cy="188819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5207,15 +5532,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>62194</xdr:colOff>
+      <xdr:colOff>62195</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:colOff>30481</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5233,8 +5558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="232523" y="3182472"/>
-          <a:ext cx="9512112" cy="2689410"/>
+          <a:off x="229835" y="3124201"/>
+          <a:ext cx="9310406" cy="2606039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5372,13 +5697,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46055</xdr:colOff>
+      <xdr:colOff>23195</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>170327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>51098</xdr:colOff>
+      <xdr:colOff>28238</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>170331</xdr:rowOff>
     </xdr:to>
@@ -5398,7 +5723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2225375" y="2684927"/>
+          <a:off x="2202515" y="2684927"/>
           <a:ext cx="1346163" cy="228604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5537,15 +5862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1516668</xdr:colOff>
+      <xdr:colOff>1432848</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176857</xdr:rowOff>
+      <xdr:rowOff>184477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>34690</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>118510</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>201510</xdr:rowOff>
+      <xdr:rowOff>209130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5563,8 +5888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7314494" y="2727900"/>
-          <a:ext cx="651622" cy="256567"/>
+          <a:off x="7300248" y="2699077"/>
+          <a:ext cx="651622" cy="253253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5701,16 +6026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146126</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>170331</xdr:rowOff>
+      <xdr:rowOff>177951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>139147</xdr:colOff>
+      <xdr:colOff>108667</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:rowOff>177950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5728,8 +6053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3653314" y="2721374"/>
-          <a:ext cx="792790" cy="231913"/>
+          <a:off x="3666566" y="2692551"/>
+          <a:ext cx="800741" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5866,16 +6191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>104503</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>71622</xdr:rowOff>
+      <xdr:rowOff>109722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>33345</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>159028</xdr:rowOff>
+      <xdr:rowOff>197128</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5893,8 +6218,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8273143" y="2586222"/>
-          <a:ext cx="599402" cy="316006"/>
+          <a:off x="8082642" y="2624322"/>
+          <a:ext cx="680357" cy="316006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6031,16 +6356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>8229</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>15848</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>51182</xdr:rowOff>
+      <xdr:rowOff>89282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>102721</xdr:colOff>
+      <xdr:colOff>15239</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>148113</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6058,8 +6383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9015069" y="2565782"/>
-          <a:ext cx="597412" cy="325531"/>
+          <a:off x="8855048" y="2603882"/>
+          <a:ext cx="669951" cy="329818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6197,15 +6522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>123949</xdr:colOff>
+      <xdr:colOff>9648</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>204171</xdr:rowOff>
+      <xdr:rowOff>211791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>92765</xdr:colOff>
+      <xdr:colOff>22859</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>73062</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6223,8 +6548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8963149" y="2032971"/>
-          <a:ext cx="639376" cy="326091"/>
+          <a:off x="8848848" y="2040591"/>
+          <a:ext cx="683771" cy="321609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6361,16 +6686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>65873</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>119213</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>194313</xdr:rowOff>
+      <xdr:rowOff>192657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>126627</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>12327</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17393</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6397,8 +6722,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9653821" y="1817704"/>
-          <a:ext cx="557710" cy="54993"/>
+          <a:off x="9628973" y="1792857"/>
+          <a:ext cx="396034" cy="47373"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6423,16 +6748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>31377</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>126627</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>12327</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>163829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6450,8 +6775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10114430" y="1726826"/>
-          <a:ext cx="321609" cy="309282"/>
+          <a:off x="9708777" y="1687830"/>
+          <a:ext cx="316230" cy="304799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6500,16 +6825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>130548</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>225238</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>31488</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>105783</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:rowOff>133798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6527,8 +6852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10099301" y="2089897"/>
-          <a:ext cx="315894" cy="351865"/>
+          <a:off x="9708888" y="2076898"/>
+          <a:ext cx="310515" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6679,13 +7004,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>34714</xdr:colOff>
+      <xdr:colOff>25717</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>212668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>48577</xdr:colOff>
+      <xdr:colOff>34714</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>170327</xdr:rowOff>
     </xdr:to>
@@ -6713,9 +7038,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2884594" y="2498668"/>
-          <a:ext cx="13863" cy="186259"/>
+        <a:xfrm flipH="1">
+          <a:off x="2875597" y="2498668"/>
+          <a:ext cx="8997" cy="186259"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6741,15 +7066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:colOff>30481</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>164447</xdr:rowOff>
+      <xdr:rowOff>194927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>50651</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6776,8 +7101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9744635" y="4359929"/>
-          <a:ext cx="358589" cy="167248"/>
+          <a:off x="9540241" y="4309727"/>
+          <a:ext cx="187810" cy="117494"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6803,15 +7128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>102721</xdr:colOff>
+      <xdr:colOff>15239</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>172010</xdr:rowOff>
+      <xdr:rowOff>225350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>122705</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>213948</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>61745</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25591</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6838,8 +7163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9612481" y="2686610"/>
-          <a:ext cx="355264" cy="41938"/>
+          <a:off x="9524999" y="2739950"/>
+          <a:ext cx="214146" cy="28841"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6870,10 +7195,10 @@
       <xdr:rowOff>7016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>68924</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>86541</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>71622</xdr:rowOff>
+      <xdr:rowOff>109722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6901,7 +7226,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="8342666" y="2521616"/>
-          <a:ext cx="230178" cy="64606"/>
+          <a:ext cx="80155" cy="102706"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6927,15 +7252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>92765</xdr:colOff>
+      <xdr:colOff>22859</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>138617</xdr:rowOff>
+      <xdr:rowOff>143996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>130548</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>31488</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>190948</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6962,8 +7287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9602525" y="2196017"/>
-          <a:ext cx="373063" cy="29471"/>
+          <a:off x="9532619" y="2201396"/>
+          <a:ext cx="176269" cy="46952"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7166,16 +7491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>122705</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>61745</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:rowOff>63425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>94130</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>33170</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>105335</xdr:rowOff>
+      <xdr:rowOff>158675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7193,8 +7518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10091458" y="2573991"/>
-          <a:ext cx="312084" cy="328332"/>
+          <a:off x="9739145" y="2578025"/>
+          <a:ext cx="306705" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7344,16 +7669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>226359</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>50651</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>87965</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4145</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
+      <xdr:rowOff>133014</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7371,8 +7696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10103224" y="4188759"/>
-          <a:ext cx="294153" cy="342340"/>
+          <a:off x="9728051" y="4143039"/>
+          <a:ext cx="288774" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7878,9 +8203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1842479</xdr:colOff>
+      <xdr:colOff>1758659</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176857</xdr:rowOff>
+      <xdr:rowOff>184477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7907,8 +8232,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7506444" y="2534356"/>
-          <a:ext cx="133861" cy="193544"/>
+          <a:off x="7576018" y="2501226"/>
+          <a:ext cx="50041" cy="197851"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7934,13 +8259,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>142680</xdr:colOff>
+      <xdr:colOff>95292</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
+      <xdr:colOff>142679</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>185919</xdr:rowOff>
     </xdr:to>
@@ -7968,9 +8293,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5277897" y="2582688"/>
-          <a:ext cx="4958" cy="154274"/>
+        <a:xfrm flipH="1">
+          <a:off x="5292132" y="2546245"/>
+          <a:ext cx="47387" cy="154274"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8172,10 +8497,10 @@
       <xdr:rowOff>76736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>146126</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>54374</xdr:rowOff>
+      <xdr:rowOff>63651</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8202,8 +8527,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3475529" y="2395866"/>
-          <a:ext cx="177785" cy="441465"/>
+          <a:off x="3515286" y="2362736"/>
+          <a:ext cx="151280" cy="444115"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8229,15 +8554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>321609</xdr:colOff>
+      <xdr:colOff>214928</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:rowOff>191163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1113183</xdr:colOff>
+      <xdr:colOff>1059179</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>178904</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8255,8 +8580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6119435" y="2749826"/>
-          <a:ext cx="791574" cy="212035"/>
+          <a:off x="6082328" y="2705763"/>
+          <a:ext cx="844251" cy="220317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8750,15 +9075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>689174</xdr:colOff>
+      <xdr:colOff>637054</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>717396</xdr:colOff>
+      <xdr:colOff>689174</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:rowOff>191163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8784,9 +9109,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6487000" y="2552383"/>
-          <a:ext cx="28222" cy="197443"/>
+        <a:xfrm flipH="1">
+          <a:off x="6504454" y="2515940"/>
+          <a:ext cx="52120" cy="189823"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8812,15 +9137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>116587</xdr:colOff>
+      <xdr:colOff>40387</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>8722</xdr:rowOff>
+      <xdr:rowOff>16342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>116587</xdr:colOff>
+      <xdr:colOff>40387</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>74228</xdr:rowOff>
+      <xdr:rowOff>81848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8838,8 +9163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8379317" y="1400200"/>
-          <a:ext cx="331305" cy="297419"/>
+          <a:off x="8376667" y="1387942"/>
+          <a:ext cx="335280" cy="294106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8971,16 +9296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>73423</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>149623</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4995</xdr:rowOff>
+      <xdr:rowOff>12615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>54372</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>130572</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>60976</xdr:rowOff>
+      <xdr:rowOff>68596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8998,8 +9323,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8833110" y="1396473"/>
-          <a:ext cx="312253" cy="287894"/>
+          <a:off x="8821183" y="1384215"/>
+          <a:ext cx="316229" cy="284581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9131,14 +9456,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>40831</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>231450</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>109411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>50355</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>118935</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>56687</xdr:rowOff>
     </xdr:to>
@@ -9158,8 +9483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9297474" y="1391015"/>
-          <a:ext cx="340829" cy="289063"/>
+          <a:off x="9283891" y="1374450"/>
+          <a:ext cx="344804" cy="282437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9292,15 +9617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>169769</xdr:colOff>
+      <xdr:colOff>93569</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114859</xdr:rowOff>
+      <xdr:rowOff>69139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>150719</xdr:colOff>
+      <xdr:colOff>74519</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>224116</xdr:rowOff>
+      <xdr:rowOff>178396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9318,8 +9643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8264898" y="1047188"/>
-          <a:ext cx="321609" cy="342340"/>
+          <a:off x="8094569" y="983539"/>
+          <a:ext cx="316230" cy="337857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9460,15 +9785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>143997</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>26639</xdr:rowOff>
+      <xdr:colOff>98277</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>211176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>45593</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>231450</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114173</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9495,8 +9820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9234988" y="1186204"/>
-          <a:ext cx="232901" cy="204811"/>
+          <a:off x="9272757" y="1125576"/>
+          <a:ext cx="183536" cy="248874"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9527,10 +9852,10 @@
       <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>63898</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>140098</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4995</xdr:rowOff>
+      <xdr:rowOff>12615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9557,8 +9882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8872309" y="1323170"/>
-          <a:ext cx="116928" cy="73303"/>
+          <a:off x="8951822" y="1306605"/>
+          <a:ext cx="27476" cy="77610"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9584,15 +9909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>160244</xdr:colOff>
+      <xdr:colOff>84044</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>224116</xdr:rowOff>
+      <xdr:rowOff>178396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>116587</xdr:colOff>
+      <xdr:colOff>40387</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157432</xdr:rowOff>
+      <xdr:rowOff>163395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9619,8 +9944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8257322" y="1383681"/>
-          <a:ext cx="121995" cy="165229"/>
+          <a:off x="8252684" y="1321396"/>
+          <a:ext cx="123983" cy="213599"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9814,15 +10139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>143997</xdr:colOff>
+      <xdr:colOff>98277</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>87967</xdr:rowOff>
+      <xdr:rowOff>42247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>116543</xdr:colOff>
+      <xdr:colOff>70823</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:rowOff>151504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9840,8 +10165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9431432" y="1020296"/>
-          <a:ext cx="313205" cy="342340"/>
+          <a:off x="9272757" y="956647"/>
+          <a:ext cx="307826" cy="337857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9981,14 +10306,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>39365</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>115565</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>6625</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:to>
@@ -10008,8 +10333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8799052" y="1730968"/>
-          <a:ext cx="629869" cy="177345"/>
+          <a:off x="8787125" y="1707777"/>
+          <a:ext cx="637820" cy="174032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10312,13 +10637,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>40903</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>196250</xdr:rowOff>
+      <xdr:rowOff>194593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>39365</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>115565</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>41206</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10345,8 +10670,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8634938" y="1819641"/>
-          <a:ext cx="164114" cy="76869"/>
+          <a:off x="8712463" y="1794793"/>
+          <a:ext cx="74662" cy="76869"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10372,13 +10697,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
+      <xdr:colOff>66788</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>143434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>98612</xdr:colOff>
+      <xdr:colOff>75752</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
@@ -10398,8 +10723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="259977" y="2707340"/>
-          <a:ext cx="1882588" cy="268943"/>
+          <a:off x="234428" y="2658034"/>
+          <a:ext cx="1853004" cy="264461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10707,8 +11032,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155090</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>132790</xdr:rowOff>
     </xdr:from>
@@ -10743,8 +11068,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1201271" y="2463614"/>
-          <a:ext cx="425263" cy="243726"/>
+          <a:off x="1160930" y="2418790"/>
+          <a:ext cx="441399" cy="239244"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10827,21 +11152,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>〇初期表示時　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" kern="1200">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" kern="1200">
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>例</a:t>
+            <a:t>〇初期表示時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10851,13 +11162,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>56736</xdr:colOff>
+      <xdr:colOff>3396</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>185919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>72887</xdr:colOff>
+      <xdr:colOff>19547</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>172279</xdr:rowOff>
     </xdr:to>
@@ -10877,8 +11188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4860649" y="2736962"/>
-          <a:ext cx="844412" cy="218274"/>
+          <a:off x="4864956" y="2700519"/>
+          <a:ext cx="854351" cy="214960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11016,15 +11327,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>71156</xdr:colOff>
+      <xdr:colOff>40676</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>34735</xdr:rowOff>
+      <xdr:rowOff>11875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:rowOff>57822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11042,8 +11353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71156" y="6327959"/>
-          <a:ext cx="1784538" cy="279029"/>
+          <a:off x="40676" y="6184075"/>
+          <a:ext cx="1757644" cy="274547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11181,15 +11492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>29976</xdr:rowOff>
+      <xdr:rowOff>32218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>174250</xdr:rowOff>
+      <xdr:rowOff>149149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11216,8 +11527,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1855694" y="6323200"/>
-          <a:ext cx="340659" cy="144274"/>
+          <a:off x="1798320" y="6204418"/>
+          <a:ext cx="365760" cy="116931"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11421,15 +11732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>154740</xdr:colOff>
+      <xdr:colOff>93780</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>170331</xdr:rowOff>
+      <xdr:rowOff>177951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>139810</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>178904</xdr:rowOff>
+      <xdr:rowOff>186524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11447,8 +11758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4461697" y="2721374"/>
-          <a:ext cx="209694" cy="240487"/>
+          <a:off x="4452420" y="2692551"/>
+          <a:ext cx="213670" cy="237173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11757,7 +12068,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>93935</xdr:colOff>
+      <xdr:colOff>32975</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23946</xdr:rowOff>
     </xdr:from>
@@ -11765,7 +12076,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>50111</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>170331</xdr:rowOff>
+      <xdr:rowOff>177951</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11792,8 +12103,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4566544" y="2574989"/>
-          <a:ext cx="121828" cy="146385"/>
+          <a:off x="4559255" y="2538546"/>
+          <a:ext cx="184776" cy="154005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11819,13 +12130,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>68989</xdr:colOff>
+      <xdr:colOff>15649</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>176957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
@@ -11845,7 +12156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5768749" y="2691557"/>
+          <a:off x="5715409" y="2691557"/>
           <a:ext cx="197711" cy="234523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12162,13 +12473,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>163552</xdr:colOff>
+      <xdr:colOff>114505</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>18393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>205</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>163552</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>176957</xdr:rowOff>
     </xdr:to>
@@ -12196,9 +12507,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5863312" y="2532993"/>
-          <a:ext cx="4293" cy="158564"/>
+        <a:xfrm flipH="1">
+          <a:off x="5814265" y="2532993"/>
+          <a:ext cx="49047" cy="158564"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12224,15 +12535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1122150</xdr:colOff>
+      <xdr:colOff>1045950</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>196835</xdr:rowOff>
+      <xdr:rowOff>189215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1331844</xdr:colOff>
+      <xdr:colOff>1255644</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>192156</xdr:rowOff>
+      <xdr:rowOff>184536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12250,8 +12561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6919976" y="2747878"/>
-          <a:ext cx="209694" cy="227235"/>
+          <a:off x="6913350" y="2703815"/>
+          <a:ext cx="209694" cy="223921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12567,15 +12878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1222732</xdr:colOff>
+      <xdr:colOff>1150797</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>210549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1226997</xdr:colOff>
+      <xdr:colOff>1222732</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>196835</xdr:rowOff>
+      <xdr:rowOff>189215</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12601,9 +12912,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7020558" y="2529679"/>
-          <a:ext cx="4265" cy="218199"/>
+        <a:xfrm flipH="1">
+          <a:off x="7018197" y="2496549"/>
+          <a:ext cx="71935" cy="207266"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12630,13 +12941,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>2666999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>1851660</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>3086100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12717,13 +13028,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>124777</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>617221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>2057043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12761,13 +13072,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>132397</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>2651761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>4028389</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12783,7 +13094,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1976437" y="23500081"/>
+          <a:off x="1976437" y="24643081"/>
           <a:ext cx="1825944" cy="1376628"/>
           <a:chOff x="1999297" y="22258021"/>
           <a:chExt cx="1825944" cy="1376628"/>
@@ -13019,13 +13330,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1059180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1336973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13063,13 +13374,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1325880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1755177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13125,13 +13436,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1043940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>1755177</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13147,7 +13458,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1950720" y="29504640"/>
+          <a:off x="1950720" y="31882080"/>
           <a:ext cx="3356610" cy="711237"/>
           <a:chOff x="1272540" y="29260800"/>
           <a:chExt cx="3356610" cy="711237"/>
@@ -14897,6 +15208,1173 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>93617</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C290EA31-2411-438D-96E8-D19626F137C1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8084820" y="5806440"/>
+          <a:ext cx="680357" cy="316006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9797</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6DB33B-C544-4143-96F1-EFD8CF25EC40}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="5798820"/>
+          <a:ext cx="680357" cy="316006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>9797</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>52444</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8B93A9-D263-43CC-BE49-5F7E165A64F1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{56DCE116-703B-483A-B626-3C72C64FA4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{68FAF68E-6C66-4547-89A7-1C3EB9C9AA75}" end="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9519557" y="5956823"/>
+          <a:ext cx="210287" cy="52164"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89758</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D7E234-32BE-435E-8551-1527E7D20B07}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{56DCE116-703B-483A-B626-3C72C64FA4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{68FAF68E-6C66-4547-89A7-1C3EB9C9AA75}" end="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7923118" y="5964443"/>
+          <a:ext cx="161702" cy="29304"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1766944</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89758</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>216834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A12995-F1D9-40FA-A2A4-F435782CFDA4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7634344" y="5827059"/>
+          <a:ext cx="288774" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑳</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>52444</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>5938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B70C17-7191-4C50-9A55-23FF5B65AA82}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9729844" y="5842299"/>
+          <a:ext cx="288774" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>㉑</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95727</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>624840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1735183</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>2101305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6B6318-5D69-D498-1F51-914FBE371A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5484156" y="22613983"/>
+          <a:ext cx="1966027" cy="1476465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>878541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31705</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>2393227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EAF270-F0B2-C613-C0B6-4B999444DE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2097740" y="35769176"/>
+          <a:ext cx="2362530" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16B10C2-BA0E-4972-9742-4D31488CA57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10497671" y="2832847"/>
+          <a:ext cx="2142564" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" kern="1200">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・検索時のエラーメッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>101739</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E7DCF3-E8C8-F3CA-427F-E29B6DC2E47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10632141" y="4912659"/>
+          <a:ext cx="2333951" cy="1543265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA422A7-403C-4A13-BDF6-9910A6EE4457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10488706" y="4527177"/>
+          <a:ext cx="3074894" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" kern="1200">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・完了ボタン押下時のエラーメッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1604683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13776</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>3100317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9787ECA7-3D56-B15C-AD4D-398F2989D219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2079811" y="39758471"/>
+          <a:ext cx="2362530" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>58379</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>206422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA02FE86-5513-3477-0ADE-7BA73DE420F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10605248" y="3173826"/>
+          <a:ext cx="3509790" cy="1228078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20921,6 +22399,50 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>147572</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CDBBA9-1277-13D2-5186-F22AD920AA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="905436" y="1183340"/>
+          <a:ext cx="5544324" cy="5830114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21255,12 +22777,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -21295,7 +22817,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1">
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -21331,7 +22853,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -21367,7 +22889,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" ht="13.5" customHeight="1">
+    <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -21403,7 +22925,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" ht="13.5" customHeight="1">
+    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -21439,7 +22961,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="13.5" customHeight="1">
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -21475,7 +22997,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="13.5" customHeight="1">
+    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -21513,7 +23035,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="13.5" customHeight="1">
+    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -21549,7 +23071,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" ht="13.5" customHeight="1">
+    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -21585,7 +23107,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="13.5" customHeight="1">
+    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -21621,7 +23143,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="13.5" customHeight="1">
+    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -21657,7 +23179,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" ht="13.5" customHeight="1">
+    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -21693,7 +23215,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="13.5" customHeight="1">
+    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -21731,7 +23253,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" ht="13.5" customHeight="1">
+    <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -21767,7 +23289,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" ht="13.5" customHeight="1">
+    <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -21803,7 +23325,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" ht="13.5" customHeight="1">
+    <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -21839,7 +23361,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" ht="13.5" customHeight="1">
+    <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -21875,7 +23397,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" ht="13.5" customHeight="1">
+    <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -21911,7 +23433,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" ht="13.5" customHeight="1">
+    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -21947,7 +23469,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" ht="13.5" customHeight="1">
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -21983,7 +23505,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" ht="13.5" customHeight="1">
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -22019,7 +23541,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" ht="13.5" customHeight="1">
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -22055,7 +23577,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" ht="13.5" customHeight="1">
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -22091,7 +23613,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" ht="13.5" customHeight="1">
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -22123,7 +23645,7 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" ht="13.5" customHeight="1">
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -22153,7 +23675,7 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" ht="13.5" customHeight="1">
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -22172,7 +23694,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" ht="13.5" customHeight="1">
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -22190,7 +23712,7 @@
       <c r="O27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" ht="13.5" customHeight="1">
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -22208,7 +23730,7 @@
       <c r="O28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" ht="13.5" customHeight="1">
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -22226,7 +23748,7 @@
       <c r="O29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" ht="13.5" customHeight="1">
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -22250,7 +23772,7 @@
       <c r="U30" s="2"/>
       <c r="AH30" s="4"/>
     </row>
-    <row r="31" spans="1:34" ht="13.5" customHeight="1">
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -22274,7 +23796,7 @@
       <c r="U31" s="2"/>
       <c r="AH31" s="4"/>
     </row>
-    <row r="32" spans="1:34" ht="13.5" customHeight="1">
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -22335,7 +23857,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="1"/>
     <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
@@ -22346,7 +23868,7 @@
     <col min="7" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.8">
+    <row r="1" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
@@ -22357,7 +23879,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -22367,7 +23889,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
@@ -22387,7 +23909,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="1:28" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="23">
         <v>1</v>
@@ -22407,7 +23929,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -22417,7 +23939,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="66.75" customHeight="1">
+    <row r="6" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
@@ -22427,7 +23949,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="60.75" customHeight="1">
+    <row r="7" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -22437,7 +23959,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -22447,7 +23969,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -22457,7 +23979,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
@@ -22467,7 +23989,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
@@ -22477,7 +23999,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -22487,7 +24009,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -22497,7 +24019,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18.600000000000001" thickBot="1">
+    <row r="14" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
@@ -22507,7 +24029,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -22536,7 +24058,7 @@
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="20"/>
@@ -22559,7 +24081,7 @@
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -22584,10 +24106,10 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="6"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
@@ -22598,13 +24120,13 @@
     <col min="7" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.8">
+    <row r="1" spans="1:21" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1"/>
-    <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -22618,7 +24140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="1:21" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10">
         <f>ROW()-3</f>
         <v>1</v>
@@ -22631,7 +24153,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B5" s="35">
         <f>ROW()-3</f>
         <v>2</v>
@@ -22644,7 +24166,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="40">
         <f t="shared" ref="B6" si="0">ROW()-3</f>
         <v>3</v>
@@ -22652,10 +24174,12 @@
       <c r="C6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="42" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -22666,7 +24190,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -22698,14 +24222,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="73" width="2.44140625" style="6"/>
     <col min="74" max="74" width="2.44140625" style="6" customWidth="1"/>
     <col min="75" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="18">
+    <row r="1" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
@@ -22787,7 +24311,7 @@
       <c r="BR1" s="63"/>
       <c r="BS1" s="63"/>
     </row>
-    <row r="2" spans="1:71" ht="18">
+    <row r="2" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>18</v>
       </c>
@@ -22862,7 +24386,7 @@
       <c r="BR2" s="64"/>
       <c r="BS2" s="64"/>
     </row>
-    <row r="3" spans="1:71" ht="18">
+    <row r="3" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
         <v>54</v>
       </c>
@@ -22937,7 +24461,7 @@
       <c r="BR3" s="63"/>
       <c r="BS3" s="63"/>
     </row>
-    <row r="4" spans="1:71" ht="18">
+    <row r="4" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>19</v>
       </c>
@@ -23012,7 +24536,7 @@
       <c r="BR4" s="64"/>
       <c r="BS4" s="64"/>
     </row>
-    <row r="5" spans="1:71" ht="18">
+    <row r="5" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -23085,7 +24609,7 @@
       <c r="BR5" s="73"/>
       <c r="BS5" s="74"/>
     </row>
-    <row r="6" spans="1:71" ht="18">
+    <row r="6" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
@@ -23158,7 +24682,7 @@
       <c r="BR6" s="76"/>
       <c r="BS6" s="77"/>
     </row>
-    <row r="7" spans="1:71" ht="18">
+    <row r="7" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="75"/>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
@@ -23231,7 +24755,7 @@
       <c r="BR7" s="76"/>
       <c r="BS7" s="77"/>
     </row>
-    <row r="8" spans="1:71" ht="18">
+    <row r="8" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -23304,7 +24828,7 @@
       <c r="BR8" s="76"/>
       <c r="BS8" s="77"/>
     </row>
-    <row r="9" spans="1:71" ht="18">
+    <row r="9" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
@@ -23377,7 +24901,7 @@
       <c r="BR9" s="76"/>
       <c r="BS9" s="77"/>
     </row>
-    <row r="10" spans="1:71" ht="18">
+    <row r="10" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
@@ -23450,7 +24974,7 @@
       <c r="BR10" s="76"/>
       <c r="BS10" s="77"/>
     </row>
-    <row r="11" spans="1:71" ht="18">
+    <row r="11" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -23523,7 +25047,7 @@
       <c r="BR11" s="76"/>
       <c r="BS11" s="77"/>
     </row>
-    <row r="12" spans="1:71" ht="18">
+    <row r="12" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="75"/>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
@@ -23596,7 +25120,7 @@
       <c r="BR12" s="76"/>
       <c r="BS12" s="77"/>
     </row>
-    <row r="13" spans="1:71" ht="18">
+    <row r="13" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="75"/>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
@@ -23669,7 +25193,7 @@
       <c r="BR13" s="76"/>
       <c r="BS13" s="77"/>
     </row>
-    <row r="14" spans="1:71" ht="18">
+    <row r="14" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
@@ -23742,7 +25266,7 @@
       <c r="BR14" s="76"/>
       <c r="BS14" s="77"/>
     </row>
-    <row r="15" spans="1:71" ht="18">
+    <row r="15" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="75"/>
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
@@ -23815,7 +25339,7 @@
       <c r="BR15" s="76"/>
       <c r="BS15" s="77"/>
     </row>
-    <row r="16" spans="1:71" ht="18">
+    <row r="16" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="75"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
@@ -23888,7 +25412,7 @@
       <c r="BR16" s="76"/>
       <c r="BS16" s="77"/>
     </row>
-    <row r="17" spans="1:71" ht="18">
+    <row r="17" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -23961,7 +25485,7 @@
       <c r="BR17" s="76"/>
       <c r="BS17" s="77"/>
     </row>
-    <row r="18" spans="1:71" ht="18">
+    <row r="18" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
@@ -24034,7 +25558,7 @@
       <c r="BR18" s="76"/>
       <c r="BS18" s="77"/>
     </row>
-    <row r="19" spans="1:71" ht="18">
+    <row r="19" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="75"/>
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
@@ -24107,7 +25631,7 @@
       <c r="BR19" s="76"/>
       <c r="BS19" s="77"/>
     </row>
-    <row r="20" spans="1:71" ht="18">
+    <row r="20" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="75"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -24180,7 +25704,7 @@
       <c r="BR20" s="76"/>
       <c r="BS20" s="77"/>
     </row>
-    <row r="21" spans="1:71" ht="18">
+    <row r="21" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
@@ -24253,7 +25777,7 @@
       <c r="BR21" s="76"/>
       <c r="BS21" s="77"/>
     </row>
-    <row r="22" spans="1:71" ht="18">
+    <row r="22" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="75"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
@@ -24326,7 +25850,7 @@
       <c r="BR22" s="76"/>
       <c r="BS22" s="77"/>
     </row>
-    <row r="23" spans="1:71" ht="18">
+    <row r="23" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
@@ -24399,7 +25923,7 @@
       <c r="BR23" s="76"/>
       <c r="BS23" s="77"/>
     </row>
-    <row r="24" spans="1:71" ht="18">
+    <row r="24" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="75"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
@@ -24472,7 +25996,7 @@
       <c r="BR24" s="76"/>
       <c r="BS24" s="77"/>
     </row>
-    <row r="25" spans="1:71" ht="18">
+    <row r="25" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
@@ -24545,7 +26069,7 @@
       <c r="BR25" s="76"/>
       <c r="BS25" s="77"/>
     </row>
-    <row r="26" spans="1:71" ht="18">
+    <row r="26" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="75"/>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
@@ -24618,7 +26142,7 @@
       <c r="BR26" s="76"/>
       <c r="BS26" s="77"/>
     </row>
-    <row r="27" spans="1:71" ht="18">
+    <row r="27" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="75"/>
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
@@ -24691,7 +26215,7 @@
       <c r="BR27" s="76"/>
       <c r="BS27" s="77"/>
     </row>
-    <row r="28" spans="1:71" ht="18">
+    <row r="28" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="75"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -24764,7 +26288,7 @@
       <c r="BR28" s="76"/>
       <c r="BS28" s="77"/>
     </row>
-    <row r="29" spans="1:71" ht="18">
+    <row r="29" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="75"/>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
@@ -24837,7 +26361,7 @@
       <c r="BR29" s="76"/>
       <c r="BS29" s="77"/>
     </row>
-    <row r="30" spans="1:71" ht="18">
+    <row r="30" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -24910,7 +26434,7 @@
       <c r="BR30" s="76"/>
       <c r="BS30" s="77"/>
     </row>
-    <row r="31" spans="1:71" ht="18">
+    <row r="31" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="75"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
@@ -24983,7 +26507,7 @@
       <c r="BR31" s="76"/>
       <c r="BS31" s="77"/>
     </row>
-    <row r="32" spans="1:71" ht="18">
+    <row r="32" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="75"/>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -25056,7 +26580,7 @@
       <c r="BR32" s="76"/>
       <c r="BS32" s="77"/>
     </row>
-    <row r="33" spans="1:71" ht="18">
+    <row r="33" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
@@ -25129,7 +26653,7 @@
       <c r="BR33" s="76"/>
       <c r="BS33" s="77"/>
     </row>
-    <row r="34" spans="1:71" ht="18">
+    <row r="34" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="75"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
@@ -25202,7 +26726,7 @@
       <c r="BR34" s="76"/>
       <c r="BS34" s="77"/>
     </row>
-    <row r="35" spans="1:71" ht="18">
+    <row r="35" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -25275,7 +26799,7 @@
       <c r="BR35" s="79"/>
       <c r="BS35" s="80"/>
     </row>
-    <row r="36" spans="1:71" ht="18">
+    <row r="36" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
         <v>20</v>
       </c>
@@ -25350,7 +26874,7 @@
       <c r="BR36" s="64"/>
       <c r="BS36" s="64"/>
     </row>
-    <row r="37" spans="1:71" ht="18">
+    <row r="37" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="s">
         <v>21</v>
       </c>
@@ -25443,7 +26967,7 @@
       <c r="BR37" s="62"/>
       <c r="BS37" s="62"/>
     </row>
-    <row r="38" spans="1:71" ht="30" customHeight="1">
+    <row r="38" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>31</v>
       </c>
@@ -25534,7 +27058,7 @@
       <c r="BR38" s="65"/>
       <c r="BS38" s="65"/>
     </row>
-    <row r="39" spans="1:71" ht="30" customHeight="1">
+    <row r="39" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>32</v>
       </c>
@@ -25625,7 +27149,7 @@
       <c r="BR39" s="65"/>
       <c r="BS39" s="65"/>
     </row>
-    <row r="40" spans="1:71" ht="30" customHeight="1">
+    <row r="40" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="s">
         <v>33</v>
       </c>
@@ -25716,7 +27240,7 @@
       <c r="BR40" s="65"/>
       <c r="BS40" s="65"/>
     </row>
-    <row r="41" spans="1:71" ht="36.6" customHeight="1">
+    <row r="41" spans="1:71" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69" t="s">
         <v>34</v>
       </c>
@@ -25809,7 +27333,7 @@
       <c r="BR41" s="65"/>
       <c r="BS41" s="65"/>
     </row>
-    <row r="42" spans="1:71" ht="36.6" customHeight="1">
+    <row r="42" spans="1:71" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>35</v>
       </c>
@@ -25902,7 +27426,7 @@
       <c r="BR42" s="65"/>
       <c r="BS42" s="65"/>
     </row>
-    <row r="43" spans="1:71" ht="30" customHeight="1">
+    <row r="43" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
         <v>36</v>
       </c>
@@ -25993,7 +27517,7 @@
       <c r="BR43" s="65"/>
       <c r="BS43" s="65"/>
     </row>
-    <row r="44" spans="1:71" ht="18">
+    <row r="44" spans="1:71" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="68" t="s">
         <v>40</v>
       </c>
@@ -26068,7 +27592,7 @@
       <c r="BR44" s="68"/>
       <c r="BS44" s="68"/>
     </row>
-    <row r="45" spans="1:71" ht="43.5" customHeight="1">
+    <row r="45" spans="1:71" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="67" t="s">
         <v>74</v>
       </c>
@@ -26145,7 +27669,7 @@
       <c r="BR45" s="67"/>
       <c r="BS45" s="67"/>
     </row>
-    <row r="46" spans="1:71" ht="43.5" customHeight="1">
+    <row r="46" spans="1:71" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="67" t="s">
         <v>75</v>
       </c>
@@ -26222,7 +27746,7 @@
       <c r="BR46" s="67"/>
       <c r="BS46" s="67"/>
     </row>
-    <row r="47" spans="1:71" ht="43.5" customHeight="1">
+    <row r="47" spans="1:71" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="67" t="s">
         <v>76</v>
       </c>
@@ -26299,7 +27823,7 @@
       <c r="BR47" s="67"/>
       <c r="BS47" s="67"/>
     </row>
-    <row r="48" spans="1:71" ht="146.4" customHeight="1">
+    <row r="48" spans="1:71" ht="146.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="67" t="s">
         <v>81</v>
       </c>
@@ -26314,7 +27838,7 @@
       <c r="J48" s="67"/>
       <c r="K48" s="67"/>
       <c r="L48" s="67" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M48" s="67"/>
       <c r="N48" s="67"/>
@@ -26376,10 +27900,10 @@
       <c r="BR48" s="67"/>
       <c r="BS48" s="67"/>
     </row>
-    <row r="49" ht="18"/>
-    <row r="50" ht="18"/>
-    <row r="51" ht="18"/>
-    <row r="52" ht="18"/>
+    <row r="49" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="88">
     <mergeCell ref="A5:BS35"/>
@@ -26436,9 +27960,6 @@
     <mergeCell ref="A44:BS44"/>
     <mergeCell ref="A46:K46"/>
     <mergeCell ref="L46:BS46"/>
-    <mergeCell ref="AK37:BS37"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AJ40"/>
     <mergeCell ref="AK39:BS39"/>
@@ -26457,6 +27978,9 @@
     <mergeCell ref="AB37:AD37"/>
     <mergeCell ref="AE37:AF37"/>
     <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AK37:BS37"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
@@ -26500,13 +28024,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV71"/>
+  <dimension ref="A1:BV74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="2.44140625" style="6"/>
     <col min="11" max="11" width="2.44140625" style="6" customWidth="1"/>
@@ -26517,7 +28041,7 @@
     <col min="78" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="18">
+    <row r="1" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
@@ -26602,7 +28126,7 @@
       <c r="BU1" s="63"/>
       <c r="BV1" s="63"/>
     </row>
-    <row r="2" spans="1:74" ht="18">
+    <row r="2" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>18</v>
       </c>
@@ -26680,7 +28204,7 @@
       <c r="BU2" s="64"/>
       <c r="BV2" s="64"/>
     </row>
-    <row r="3" spans="1:74" ht="18">
+    <row r="3" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
         <v>82</v>
       </c>
@@ -26758,7 +28282,7 @@
       <c r="BU3" s="63"/>
       <c r="BV3" s="63"/>
     </row>
-    <row r="4" spans="1:74" ht="18">
+    <row r="4" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>19</v>
       </c>
@@ -26836,7 +28360,7 @@
       <c r="BU4" s="64"/>
       <c r="BV4" s="64"/>
     </row>
-    <row r="5" spans="1:74" ht="18">
+    <row r="5" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -26912,7 +28436,7 @@
       <c r="BU5" s="53"/>
       <c r="BV5" s="53"/>
     </row>
-    <row r="6" spans="1:74" ht="18">
+    <row r="6" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -26988,7 +28512,7 @@
       <c r="BU6" s="53"/>
       <c r="BV6" s="53"/>
     </row>
-    <row r="7" spans="1:74" ht="18">
+    <row r="7" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -26996,26 +28520,26 @@
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
       <c r="AB7" s="53"/>
       <c r="AC7" s="53"/>
       <c r="AD7" s="53"/>
@@ -27064,7 +28588,7 @@
       <c r="BU7" s="53"/>
       <c r="BV7" s="53"/>
     </row>
-    <row r="8" spans="1:74" ht="18">
+    <row r="8" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -27072,26 +28596,26 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
       <c r="AB8" s="53"/>
       <c r="AC8" s="53"/>
       <c r="AD8" s="53"/>
@@ -27140,7 +28664,7 @@
       <c r="BU8" s="53"/>
       <c r="BV8" s="53"/>
     </row>
-    <row r="9" spans="1:74" ht="18">
+    <row r="9" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -27148,26 +28672,26 @@
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
       <c r="AD9" s="53"/>
@@ -27216,7 +28740,7 @@
       <c r="BU9" s="53"/>
       <c r="BV9" s="53"/>
     </row>
-    <row r="10" spans="1:74" ht="18">
+    <row r="10" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -27224,26 +28748,26 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="53"/>
       <c r="AD10" s="53"/>
@@ -27292,7 +28816,7 @@
       <c r="BU10" s="53"/>
       <c r="BV10" s="53"/>
     </row>
-    <row r="11" spans="1:74" ht="18">
+    <row r="11" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -27300,26 +28824,26 @@
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
       <c r="AD11" s="53"/>
@@ -27368,7 +28892,7 @@
       <c r="BU11" s="53"/>
       <c r="BV11" s="53"/>
     </row>
-    <row r="12" spans="1:74" ht="18">
+    <row r="12" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -27444,7 +28968,7 @@
       <c r="BU12" s="53"/>
       <c r="BV12" s="53"/>
     </row>
-    <row r="13" spans="1:74" ht="18">
+    <row r="13" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -27457,16 +28981,16 @@
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
       <c r="Y13" s="53"/>
@@ -27520,7 +29044,7 @@
       <c r="BU13" s="53"/>
       <c r="BV13" s="53"/>
     </row>
-    <row r="14" spans="1:74" ht="18">
+    <row r="14" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -27533,16 +29057,16 @@
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
       <c r="Y14" s="53"/>
@@ -27596,7 +29120,7 @@
       <c r="BU14" s="53"/>
       <c r="BV14" s="53"/>
     </row>
-    <row r="15" spans="1:74" ht="18">
+    <row r="15" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -27609,16 +29133,16 @@
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="53"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="53"/>
@@ -27672,7 +29196,7 @@
       <c r="BU15" s="53"/>
       <c r="BV15" s="53"/>
     </row>
-    <row r="16" spans="1:74" ht="18">
+    <row r="16" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -27748,7 +29272,7 @@
       <c r="BU16" s="53"/>
       <c r="BV16" s="53"/>
     </row>
-    <row r="17" spans="1:74" ht="18">
+    <row r="17" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -27824,7 +29348,7 @@
       <c r="BU17" s="53"/>
       <c r="BV17" s="53"/>
     </row>
-    <row r="18" spans="1:74" ht="18">
+    <row r="18" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -27900,7 +29424,7 @@
       <c r="BU18" s="53"/>
       <c r="BV18" s="53"/>
     </row>
-    <row r="19" spans="1:74" ht="18">
+    <row r="19" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -27976,7 +29500,7 @@
       <c r="BU19" s="53"/>
       <c r="BV19" s="53"/>
     </row>
-    <row r="20" spans="1:74" ht="18">
+    <row r="20" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -28052,7 +29576,7 @@
       <c r="BU20" s="53"/>
       <c r="BV20" s="53"/>
     </row>
-    <row r="21" spans="1:74" ht="18">
+    <row r="21" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -28128,7 +29652,7 @@
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
     </row>
-    <row r="22" spans="1:74" ht="18">
+    <row r="22" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -28204,7 +29728,7 @@
       <c r="BU22" s="53"/>
       <c r="BV22" s="53"/>
     </row>
-    <row r="23" spans="1:74" ht="18">
+    <row r="23" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -28280,7 +29804,7 @@
       <c r="BU23" s="53"/>
       <c r="BV23" s="53"/>
     </row>
-    <row r="24" spans="1:74" ht="18">
+    <row r="24" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -28356,7 +29880,7 @@
       <c r="BU24" s="53"/>
       <c r="BV24" s="53"/>
     </row>
-    <row r="25" spans="1:74" ht="18">
+    <row r="25" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -28432,7 +29956,7 @@
       <c r="BU25" s="53"/>
       <c r="BV25" s="53"/>
     </row>
-    <row r="26" spans="1:74" ht="18">
+    <row r="26" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -28508,7 +30032,7 @@
       <c r="BU26" s="53"/>
       <c r="BV26" s="53"/>
     </row>
-    <row r="27" spans="1:74" ht="18">
+    <row r="27" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -28584,7 +30108,7 @@
       <c r="BU27" s="53"/>
       <c r="BV27" s="53"/>
     </row>
-    <row r="28" spans="1:74" ht="18">
+    <row r="28" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -28660,7 +30184,7 @@
       <c r="BU28" s="53"/>
       <c r="BV28" s="53"/>
     </row>
-    <row r="29" spans="1:74" ht="18">
+    <row r="29" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -28736,7 +30260,7 @@
       <c r="BU29" s="53"/>
       <c r="BV29" s="53"/>
     </row>
-    <row r="30" spans="1:74" ht="18">
+    <row r="30" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
         <v>20</v>
       </c>
@@ -28814,7 +30338,7 @@
       <c r="BU30" s="64"/>
       <c r="BV30" s="64"/>
     </row>
-    <row r="31" spans="1:74" ht="18">
+    <row r="31" spans="1:74" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
         <v>21</v>
       </c>
@@ -28854,11 +30378,11 @@
       </c>
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
-      <c r="AB31" s="93" t="s">
+      <c r="AB31" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="95"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="106"/>
       <c r="AE31" s="62" t="s">
         <v>28</v>
       </c>
@@ -28910,7 +30434,7 @@
       <c r="BU31" s="62"/>
       <c r="BV31" s="62"/>
     </row>
-    <row r="32" spans="1:74" ht="30" customHeight="1">
+    <row r="32" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="69" t="s">
         <v>31</v>
       </c>
@@ -28965,46 +30489,46 @@
       <c r="AH32" s="55"/>
       <c r="AI32" s="55"/>
       <c r="AJ32" s="55"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="85"/>
-      <c r="AM32" s="85"/>
-      <c r="AN32" s="85"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="85"/>
-      <c r="AS32" s="85"/>
-      <c r="AT32" s="85"/>
-      <c r="AU32" s="85"/>
-      <c r="AV32" s="85"/>
-      <c r="AW32" s="85"/>
-      <c r="AX32" s="85"/>
-      <c r="AY32" s="85"/>
-      <c r="AZ32" s="85"/>
-      <c r="BA32" s="85"/>
-      <c r="BB32" s="85"/>
-      <c r="BC32" s="85"/>
-      <c r="BD32" s="85"/>
-      <c r="BE32" s="85"/>
-      <c r="BF32" s="85"/>
-      <c r="BG32" s="85"/>
-      <c r="BH32" s="85"/>
-      <c r="BI32" s="85"/>
-      <c r="BJ32" s="85"/>
-      <c r="BK32" s="85"/>
-      <c r="BL32" s="85"/>
-      <c r="BM32" s="85"/>
-      <c r="BN32" s="85"/>
-      <c r="BO32" s="85"/>
-      <c r="BP32" s="85"/>
-      <c r="BQ32" s="85"/>
-      <c r="BR32" s="85"/>
-      <c r="BS32" s="85"/>
-      <c r="BT32" s="85"/>
-      <c r="BU32" s="85"/>
-      <c r="BV32" s="86"/>
+      <c r="AK32" s="93"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="94"/>
+      <c r="AV32" s="94"/>
+      <c r="AW32" s="94"/>
+      <c r="AX32" s="94"/>
+      <c r="AY32" s="94"/>
+      <c r="AZ32" s="94"/>
+      <c r="BA32" s="94"/>
+      <c r="BB32" s="94"/>
+      <c r="BC32" s="94"/>
+      <c r="BD32" s="94"/>
+      <c r="BE32" s="94"/>
+      <c r="BF32" s="94"/>
+      <c r="BG32" s="94"/>
+      <c r="BH32" s="94"/>
+      <c r="BI32" s="94"/>
+      <c r="BJ32" s="94"/>
+      <c r="BK32" s="94"/>
+      <c r="BL32" s="94"/>
+      <c r="BM32" s="94"/>
+      <c r="BN32" s="94"/>
+      <c r="BO32" s="94"/>
+      <c r="BP32" s="94"/>
+      <c r="BQ32" s="94"/>
+      <c r="BR32" s="94"/>
+      <c r="BS32" s="94"/>
+      <c r="BT32" s="94"/>
+      <c r="BU32" s="94"/>
+      <c r="BV32" s="95"/>
     </row>
-    <row r="33" spans="1:74" ht="30" customHeight="1">
+    <row r="33" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="69" t="s">
         <v>32</v>
       </c>
@@ -29059,46 +30583,46 @@
       <c r="AH33" s="55"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="85"/>
-      <c r="AM33" s="85"/>
-      <c r="AN33" s="85"/>
-      <c r="AO33" s="85"/>
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="85"/>
-      <c r="AR33" s="85"/>
-      <c r="AS33" s="85"/>
-      <c r="AT33" s="85"/>
-      <c r="AU33" s="85"/>
-      <c r="AV33" s="85"/>
-      <c r="AW33" s="85"/>
-      <c r="AX33" s="85"/>
-      <c r="AY33" s="85"/>
-      <c r="AZ33" s="85"/>
-      <c r="BA33" s="85"/>
-      <c r="BB33" s="85"/>
-      <c r="BC33" s="85"/>
-      <c r="BD33" s="85"/>
-      <c r="BE33" s="85"/>
-      <c r="BF33" s="85"/>
-      <c r="BG33" s="85"/>
-      <c r="BH33" s="85"/>
-      <c r="BI33" s="85"/>
-      <c r="BJ33" s="85"/>
-      <c r="BK33" s="85"/>
-      <c r="BL33" s="85"/>
-      <c r="BM33" s="85"/>
-      <c r="BN33" s="85"/>
-      <c r="BO33" s="85"/>
-      <c r="BP33" s="85"/>
-      <c r="BQ33" s="85"/>
-      <c r="BR33" s="85"/>
-      <c r="BS33" s="85"/>
-      <c r="BT33" s="85"/>
-      <c r="BU33" s="85"/>
-      <c r="BV33" s="86"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+      <c r="BN33" s="94"/>
+      <c r="BO33" s="94"/>
+      <c r="BP33" s="94"/>
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="94"/>
+      <c r="BS33" s="94"/>
+      <c r="BT33" s="94"/>
+      <c r="BU33" s="94"/>
+      <c r="BV33" s="95"/>
     </row>
-    <row r="34" spans="1:74" ht="30" customHeight="1">
+    <row r="34" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="69" t="s">
         <v>33</v>
       </c>
@@ -29153,46 +30677,46 @@
       <c r="AH34" s="55"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="85"/>
-      <c r="AM34" s="85"/>
-      <c r="AN34" s="85"/>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="85"/>
-      <c r="AQ34" s="85"/>
-      <c r="AR34" s="85"/>
-      <c r="AS34" s="85"/>
-      <c r="AT34" s="85"/>
-      <c r="AU34" s="85"/>
-      <c r="AV34" s="85"/>
-      <c r="AW34" s="85"/>
-      <c r="AX34" s="85"/>
-      <c r="AY34" s="85"/>
-      <c r="AZ34" s="85"/>
-      <c r="BA34" s="85"/>
-      <c r="BB34" s="85"/>
-      <c r="BC34" s="85"/>
-      <c r="BD34" s="85"/>
-      <c r="BE34" s="85"/>
-      <c r="BF34" s="85"/>
-      <c r="BG34" s="85"/>
-      <c r="BH34" s="85"/>
-      <c r="BI34" s="85"/>
-      <c r="BJ34" s="85"/>
-      <c r="BK34" s="85"/>
-      <c r="BL34" s="85"/>
-      <c r="BM34" s="85"/>
-      <c r="BN34" s="85"/>
-      <c r="BO34" s="85"/>
-      <c r="BP34" s="85"/>
-      <c r="BQ34" s="85"/>
-      <c r="BR34" s="85"/>
-      <c r="BS34" s="85"/>
-      <c r="BT34" s="85"/>
-      <c r="BU34" s="85"/>
-      <c r="BV34" s="86"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="94"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="94"/>
+      <c r="AU34" s="94"/>
+      <c r="AV34" s="94"/>
+      <c r="AW34" s="94"/>
+      <c r="AX34" s="94"/>
+      <c r="AY34" s="94"/>
+      <c r="AZ34" s="94"/>
+      <c r="BA34" s="94"/>
+      <c r="BB34" s="94"/>
+      <c r="BC34" s="94"/>
+      <c r="BD34" s="94"/>
+      <c r="BE34" s="94"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="94"/>
+      <c r="BH34" s="94"/>
+      <c r="BI34" s="94"/>
+      <c r="BJ34" s="94"/>
+      <c r="BK34" s="94"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+      <c r="BN34" s="94"/>
+      <c r="BO34" s="94"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
+      <c r="BU34" s="94"/>
+      <c r="BV34" s="95"/>
     </row>
-    <row r="35" spans="1:74" ht="30" customHeight="1">
+    <row r="35" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69" t="s">
         <v>34</v>
       </c>
@@ -29247,48 +30771,48 @@
       <c r="AH35" s="53"/>
       <c r="AI35" s="53"/>
       <c r="AJ35" s="53"/>
-      <c r="AK35" s="100" t="s">
+      <c r="AK35" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="AL35" s="100"/>
-      <c r="AM35" s="100"/>
-      <c r="AN35" s="100"/>
-      <c r="AO35" s="100"/>
-      <c r="AP35" s="100"/>
-      <c r="AQ35" s="100"/>
-      <c r="AR35" s="100"/>
-      <c r="AS35" s="100"/>
-      <c r="AT35" s="100"/>
-      <c r="AU35" s="100"/>
-      <c r="AV35" s="100"/>
-      <c r="AW35" s="100"/>
-      <c r="AX35" s="100"/>
-      <c r="AY35" s="100"/>
-      <c r="AZ35" s="100"/>
-      <c r="BA35" s="100"/>
-      <c r="BB35" s="100"/>
-      <c r="BC35" s="100"/>
-      <c r="BD35" s="100"/>
-      <c r="BE35" s="100"/>
-      <c r="BF35" s="100"/>
-      <c r="BG35" s="100"/>
-      <c r="BH35" s="100"/>
-      <c r="BI35" s="100"/>
-      <c r="BJ35" s="100"/>
-      <c r="BK35" s="100"/>
-      <c r="BL35" s="100"/>
-      <c r="BM35" s="100"/>
-      <c r="BN35" s="100"/>
-      <c r="BO35" s="100"/>
-      <c r="BP35" s="100"/>
-      <c r="BQ35" s="100"/>
-      <c r="BR35" s="100"/>
-      <c r="BS35" s="100"/>
-      <c r="BT35" s="100"/>
-      <c r="BU35" s="100"/>
-      <c r="BV35" s="100"/>
+      <c r="AL35" s="107"/>
+      <c r="AM35" s="107"/>
+      <c r="AN35" s="107"/>
+      <c r="AO35" s="107"/>
+      <c r="AP35" s="107"/>
+      <c r="AQ35" s="107"/>
+      <c r="AR35" s="107"/>
+      <c r="AS35" s="107"/>
+      <c r="AT35" s="107"/>
+      <c r="AU35" s="107"/>
+      <c r="AV35" s="107"/>
+      <c r="AW35" s="107"/>
+      <c r="AX35" s="107"/>
+      <c r="AY35" s="107"/>
+      <c r="AZ35" s="107"/>
+      <c r="BA35" s="107"/>
+      <c r="BB35" s="107"/>
+      <c r="BC35" s="107"/>
+      <c r="BD35" s="107"/>
+      <c r="BE35" s="107"/>
+      <c r="BF35" s="107"/>
+      <c r="BG35" s="107"/>
+      <c r="BH35" s="107"/>
+      <c r="BI35" s="107"/>
+      <c r="BJ35" s="107"/>
+      <c r="BK35" s="107"/>
+      <c r="BL35" s="107"/>
+      <c r="BM35" s="107"/>
+      <c r="BN35" s="107"/>
+      <c r="BO35" s="107"/>
+      <c r="BP35" s="107"/>
+      <c r="BQ35" s="107"/>
+      <c r="BR35" s="107"/>
+      <c r="BS35" s="107"/>
+      <c r="BT35" s="107"/>
+      <c r="BU35" s="107"/>
+      <c r="BV35" s="107"/>
     </row>
-    <row r="36" spans="1:74" ht="36.75" customHeight="1">
+    <row r="36" spans="1:74" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="69" t="s">
         <v>35</v>
       </c>
@@ -29382,7 +30906,7 @@
       <c r="BU36" s="53"/>
       <c r="BV36" s="53"/>
     </row>
-    <row r="37" spans="1:74" ht="30" customHeight="1">
+    <row r="37" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="69" t="s">
         <v>36</v>
       </c>
@@ -29417,11 +30941,11 @@
       <c r="V37" s="59"/>
       <c r="W37" s="59"/>
       <c r="X37" s="60"/>
-      <c r="Y37" s="84">
+      <c r="Y37" s="93">
         <v>15</v>
       </c>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="86"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="95"/>
       <c r="AB37" s="53">
         <v>0</v>
       </c>
@@ -29476,7 +31000,7 @@
       <c r="BU37" s="53"/>
       <c r="BV37" s="53"/>
     </row>
-    <row r="38" spans="1:74" ht="108.6" customHeight="1">
+    <row r="38" spans="1:74" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="69" t="s">
         <v>37</v>
       </c>
@@ -29531,48 +31055,48 @@
       <c r="AH38" s="53"/>
       <c r="AI38" s="53"/>
       <c r="AJ38" s="53"/>
-      <c r="AK38" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL38" s="102"/>
-      <c r="AM38" s="102"/>
-      <c r="AN38" s="102"/>
-      <c r="AO38" s="102"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="102"/>
-      <c r="AU38" s="102"/>
-      <c r="AV38" s="102"/>
-      <c r="AW38" s="102"/>
-      <c r="AX38" s="102"/>
-      <c r="AY38" s="102"/>
-      <c r="AZ38" s="102"/>
-      <c r="BA38" s="102"/>
-      <c r="BB38" s="102"/>
-      <c r="BC38" s="102"/>
-      <c r="BD38" s="102"/>
-      <c r="BE38" s="102"/>
-      <c r="BF38" s="102"/>
-      <c r="BG38" s="102"/>
-      <c r="BH38" s="102"/>
-      <c r="BI38" s="102"/>
-      <c r="BJ38" s="102"/>
-      <c r="BK38" s="102"/>
-      <c r="BL38" s="102"/>
-      <c r="BM38" s="102"/>
-      <c r="BN38" s="102"/>
-      <c r="BO38" s="102"/>
-      <c r="BP38" s="102"/>
-      <c r="BQ38" s="102"/>
-      <c r="BR38" s="102"/>
-      <c r="BS38" s="102"/>
-      <c r="BT38" s="102"/>
-      <c r="BU38" s="102"/>
-      <c r="BV38" s="102"/>
+      <c r="AK38" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL38" s="103"/>
+      <c r="AM38" s="103"/>
+      <c r="AN38" s="103"/>
+      <c r="AO38" s="103"/>
+      <c r="AP38" s="103"/>
+      <c r="AQ38" s="103"/>
+      <c r="AR38" s="103"/>
+      <c r="AS38" s="103"/>
+      <c r="AT38" s="103"/>
+      <c r="AU38" s="103"/>
+      <c r="AV38" s="103"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="103"/>
+      <c r="AY38" s="103"/>
+      <c r="AZ38" s="103"/>
+      <c r="BA38" s="103"/>
+      <c r="BB38" s="103"/>
+      <c r="BC38" s="103"/>
+      <c r="BD38" s="103"/>
+      <c r="BE38" s="103"/>
+      <c r="BF38" s="103"/>
+      <c r="BG38" s="103"/>
+      <c r="BH38" s="103"/>
+      <c r="BI38" s="103"/>
+      <c r="BJ38" s="103"/>
+      <c r="BK38" s="103"/>
+      <c r="BL38" s="103"/>
+      <c r="BM38" s="103"/>
+      <c r="BN38" s="103"/>
+      <c r="BO38" s="103"/>
+      <c r="BP38" s="103"/>
+      <c r="BQ38" s="103"/>
+      <c r="BR38" s="103"/>
+      <c r="BS38" s="103"/>
+      <c r="BT38" s="103"/>
+      <c r="BU38" s="103"/>
+      <c r="BV38" s="103"/>
     </row>
-    <row r="39" spans="1:74" ht="30" customHeight="1">
+    <row r="39" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="69" t="s">
         <v>38</v>
       </c>
@@ -29666,7 +31190,7 @@
       <c r="BU39" s="53"/>
       <c r="BV39" s="53"/>
     </row>
-    <row r="40" spans="1:74" ht="30" customHeight="1">
+    <row r="40" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="69" t="s">
         <v>39</v>
       </c>
@@ -29760,7 +31284,7 @@
       <c r="BU40" s="53"/>
       <c r="BV40" s="53"/>
     </row>
-    <row r="41" spans="1:74" ht="30" customHeight="1">
+    <row r="41" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69" t="s">
         <v>43</v>
       </c>
@@ -29854,7 +31378,7 @@
       <c r="BU41" s="53"/>
       <c r="BV41" s="53"/>
     </row>
-    <row r="42" spans="1:74" ht="30" customHeight="1">
+    <row r="42" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>44</v>
       </c>
@@ -29948,7 +31472,7 @@
       <c r="BU42" s="53"/>
       <c r="BV42" s="53"/>
     </row>
-    <row r="43" spans="1:74" ht="30" customHeight="1">
+    <row r="43" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
         <v>93</v>
       </c>
@@ -30042,7 +31566,7 @@
       <c r="BU43" s="53"/>
       <c r="BV43" s="53"/>
     </row>
-    <row r="44" spans="1:74" ht="30" customHeight="1">
+    <row r="44" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="69" t="s">
         <v>94</v>
       </c>
@@ -30136,7 +31660,7 @@
       <c r="BU44" s="53"/>
       <c r="BV44" s="53"/>
     </row>
-    <row r="45" spans="1:74" ht="94.2" customHeight="1">
+    <row r="45" spans="1:74" ht="94.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="69" t="s">
         <v>95</v>
       </c>
@@ -30191,48 +31715,48 @@
       <c r="AH45" s="53"/>
       <c r="AI45" s="53"/>
       <c r="AJ45" s="53"/>
-      <c r="AK45" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL45" s="102"/>
-      <c r="AM45" s="102"/>
-      <c r="AN45" s="102"/>
-      <c r="AO45" s="102"/>
-      <c r="AP45" s="102"/>
-      <c r="AQ45" s="102"/>
-      <c r="AR45" s="102"/>
-      <c r="AS45" s="102"/>
-      <c r="AT45" s="102"/>
-      <c r="AU45" s="102"/>
-      <c r="AV45" s="102"/>
-      <c r="AW45" s="102"/>
-      <c r="AX45" s="102"/>
-      <c r="AY45" s="102"/>
-      <c r="AZ45" s="102"/>
-      <c r="BA45" s="102"/>
-      <c r="BB45" s="102"/>
-      <c r="BC45" s="102"/>
-      <c r="BD45" s="102"/>
-      <c r="BE45" s="102"/>
-      <c r="BF45" s="102"/>
-      <c r="BG45" s="102"/>
-      <c r="BH45" s="102"/>
-      <c r="BI45" s="102"/>
-      <c r="BJ45" s="102"/>
-      <c r="BK45" s="102"/>
-      <c r="BL45" s="102"/>
-      <c r="BM45" s="102"/>
-      <c r="BN45" s="102"/>
-      <c r="BO45" s="102"/>
-      <c r="BP45" s="102"/>
-      <c r="BQ45" s="102"/>
-      <c r="BR45" s="102"/>
-      <c r="BS45" s="102"/>
-      <c r="BT45" s="102"/>
-      <c r="BU45" s="102"/>
-      <c r="BV45" s="102"/>
+      <c r="AK45" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL45" s="103"/>
+      <c r="AM45" s="103"/>
+      <c r="AN45" s="103"/>
+      <c r="AO45" s="103"/>
+      <c r="AP45" s="103"/>
+      <c r="AQ45" s="103"/>
+      <c r="AR45" s="103"/>
+      <c r="AS45" s="103"/>
+      <c r="AT45" s="103"/>
+      <c r="AU45" s="103"/>
+      <c r="AV45" s="103"/>
+      <c r="AW45" s="103"/>
+      <c r="AX45" s="103"/>
+      <c r="AY45" s="103"/>
+      <c r="AZ45" s="103"/>
+      <c r="BA45" s="103"/>
+      <c r="BB45" s="103"/>
+      <c r="BC45" s="103"/>
+      <c r="BD45" s="103"/>
+      <c r="BE45" s="103"/>
+      <c r="BF45" s="103"/>
+      <c r="BG45" s="103"/>
+      <c r="BH45" s="103"/>
+      <c r="BI45" s="103"/>
+      <c r="BJ45" s="103"/>
+      <c r="BK45" s="103"/>
+      <c r="BL45" s="103"/>
+      <c r="BM45" s="103"/>
+      <c r="BN45" s="103"/>
+      <c r="BO45" s="103"/>
+      <c r="BP45" s="103"/>
+      <c r="BQ45" s="103"/>
+      <c r="BR45" s="103"/>
+      <c r="BS45" s="103"/>
+      <c r="BT45" s="103"/>
+      <c r="BU45" s="103"/>
+      <c r="BV45" s="103"/>
     </row>
-    <row r="46" spans="1:74" ht="30" customHeight="1">
+    <row r="46" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="69" t="s">
         <v>132</v>
       </c>
@@ -30326,7 +31850,7 @@
       <c r="BU46" s="53"/>
       <c r="BV46" s="53"/>
     </row>
-    <row r="47" spans="1:74" ht="30" customHeight="1">
+    <row r="47" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="69" t="s">
         <v>96</v>
       </c>
@@ -30420,7 +31944,7 @@
       <c r="BU47" s="53"/>
       <c r="BV47" s="53"/>
     </row>
-    <row r="48" spans="1:74" ht="30" customHeight="1">
+    <row r="48" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="69" t="s">
         <v>133</v>
       </c>
@@ -30514,11 +32038,11 @@
       <c r="BU48" s="53"/>
       <c r="BV48" s="53"/>
     </row>
-    <row r="49" spans="1:74" ht="30" customHeight="1">
-      <c r="A49" s="87" t="s">
+    <row r="49" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="88"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="81" t="s">
         <v>101</v>
       </c>
@@ -30549,11 +32073,11 @@
       <c r="V49" s="59"/>
       <c r="W49" s="59"/>
       <c r="X49" s="60"/>
-      <c r="Y49" s="84">
+      <c r="Y49" s="93">
         <v>15</v>
       </c>
-      <c r="Z49" s="85"/>
-      <c r="AA49" s="86"/>
+      <c r="Z49" s="94"/>
+      <c r="AA49" s="95"/>
       <c r="AB49" s="53">
         <v>1</v>
       </c>
@@ -30569,50 +32093,50 @@
       <c r="AH49" s="53"/>
       <c r="AI49" s="53"/>
       <c r="AJ49" s="53"/>
-      <c r="AK49" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL49" s="104"/>
-      <c r="AM49" s="104"/>
-      <c r="AN49" s="104"/>
-      <c r="AO49" s="104"/>
-      <c r="AP49" s="104"/>
-      <c r="AQ49" s="104"/>
-      <c r="AR49" s="104"/>
-      <c r="AS49" s="104"/>
-      <c r="AT49" s="104"/>
-      <c r="AU49" s="104"/>
-      <c r="AV49" s="104"/>
-      <c r="AW49" s="104"/>
-      <c r="AX49" s="104"/>
-      <c r="AY49" s="104"/>
-      <c r="AZ49" s="104"/>
-      <c r="BA49" s="104"/>
-      <c r="BB49" s="104"/>
-      <c r="BC49" s="104"/>
-      <c r="BD49" s="104"/>
-      <c r="BE49" s="104"/>
-      <c r="BF49" s="104"/>
-      <c r="BG49" s="104"/>
-      <c r="BH49" s="104"/>
-      <c r="BI49" s="104"/>
-      <c r="BJ49" s="104"/>
-      <c r="BK49" s="104"/>
-      <c r="BL49" s="104"/>
-      <c r="BM49" s="104"/>
-      <c r="BN49" s="104"/>
-      <c r="BO49" s="104"/>
-      <c r="BP49" s="104"/>
-      <c r="BQ49" s="104"/>
-      <c r="BR49" s="104"/>
-      <c r="BS49" s="104"/>
-      <c r="BT49" s="104"/>
-      <c r="BU49" s="104"/>
-      <c r="BV49" s="105"/>
+      <c r="AK49" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL49" s="85"/>
+      <c r="AM49" s="85"/>
+      <c r="AN49" s="85"/>
+      <c r="AO49" s="85"/>
+      <c r="AP49" s="85"/>
+      <c r="AQ49" s="85"/>
+      <c r="AR49" s="85"/>
+      <c r="AS49" s="85"/>
+      <c r="AT49" s="85"/>
+      <c r="AU49" s="85"/>
+      <c r="AV49" s="85"/>
+      <c r="AW49" s="85"/>
+      <c r="AX49" s="85"/>
+      <c r="AY49" s="85"/>
+      <c r="AZ49" s="85"/>
+      <c r="BA49" s="85"/>
+      <c r="BB49" s="85"/>
+      <c r="BC49" s="85"/>
+      <c r="BD49" s="85"/>
+      <c r="BE49" s="85"/>
+      <c r="BF49" s="85"/>
+      <c r="BG49" s="85"/>
+      <c r="BH49" s="85"/>
+      <c r="BI49" s="85"/>
+      <c r="BJ49" s="85"/>
+      <c r="BK49" s="85"/>
+      <c r="BL49" s="85"/>
+      <c r="BM49" s="85"/>
+      <c r="BN49" s="85"/>
+      <c r="BO49" s="85"/>
+      <c r="BP49" s="85"/>
+      <c r="BQ49" s="85"/>
+      <c r="BR49" s="85"/>
+      <c r="BS49" s="85"/>
+      <c r="BT49" s="85"/>
+      <c r="BU49" s="85"/>
+      <c r="BV49" s="86"/>
     </row>
-    <row r="50" spans="1:74" ht="30" customHeight="1">
-      <c r="A50" s="89"/>
-      <c r="B50" s="90"/>
+    <row r="50" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="81" t="s">
         <v>102</v>
       </c>
@@ -30643,11 +32167,11 @@
       <c r="V50" s="59"/>
       <c r="W50" s="59"/>
       <c r="X50" s="60"/>
-      <c r="Y50" s="84">
+      <c r="Y50" s="93">
         <v>30</v>
       </c>
-      <c r="Z50" s="85"/>
-      <c r="AA50" s="86"/>
+      <c r="Z50" s="94"/>
+      <c r="AA50" s="95"/>
       <c r="AB50" s="53">
         <v>0</v>
       </c>
@@ -30663,48 +32187,48 @@
       <c r="AH50" s="53"/>
       <c r="AI50" s="53"/>
       <c r="AJ50" s="53"/>
-      <c r="AK50" s="106"/>
-      <c r="AL50" s="107"/>
-      <c r="AM50" s="107"/>
-      <c r="AN50" s="107"/>
-      <c r="AO50" s="107"/>
-      <c r="AP50" s="107"/>
-      <c r="AQ50" s="107"/>
-      <c r="AR50" s="107"/>
-      <c r="AS50" s="107"/>
-      <c r="AT50" s="107"/>
-      <c r="AU50" s="107"/>
-      <c r="AV50" s="107"/>
-      <c r="AW50" s="107"/>
-      <c r="AX50" s="107"/>
-      <c r="AY50" s="107"/>
-      <c r="AZ50" s="107"/>
-      <c r="BA50" s="107"/>
-      <c r="BB50" s="107"/>
-      <c r="BC50" s="107"/>
-      <c r="BD50" s="107"/>
-      <c r="BE50" s="107"/>
-      <c r="BF50" s="107"/>
-      <c r="BG50" s="107"/>
-      <c r="BH50" s="107"/>
-      <c r="BI50" s="107"/>
-      <c r="BJ50" s="107"/>
-      <c r="BK50" s="107"/>
-      <c r="BL50" s="107"/>
-      <c r="BM50" s="107"/>
-      <c r="BN50" s="107"/>
-      <c r="BO50" s="107"/>
-      <c r="BP50" s="107"/>
-      <c r="BQ50" s="107"/>
-      <c r="BR50" s="107"/>
-      <c r="BS50" s="107"/>
-      <c r="BT50" s="107"/>
-      <c r="BU50" s="107"/>
-      <c r="BV50" s="108"/>
+      <c r="AK50" s="87"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
+      <c r="AO50" s="88"/>
+      <c r="AP50" s="88"/>
+      <c r="AQ50" s="88"/>
+      <c r="AR50" s="88"/>
+      <c r="AS50" s="88"/>
+      <c r="AT50" s="88"/>
+      <c r="AU50" s="88"/>
+      <c r="AV50" s="88"/>
+      <c r="AW50" s="88"/>
+      <c r="AX50" s="88"/>
+      <c r="AY50" s="88"/>
+      <c r="AZ50" s="88"/>
+      <c r="BA50" s="88"/>
+      <c r="BB50" s="88"/>
+      <c r="BC50" s="88"/>
+      <c r="BD50" s="88"/>
+      <c r="BE50" s="88"/>
+      <c r="BF50" s="88"/>
+      <c r="BG50" s="88"/>
+      <c r="BH50" s="88"/>
+      <c r="BI50" s="88"/>
+      <c r="BJ50" s="88"/>
+      <c r="BK50" s="88"/>
+      <c r="BL50" s="88"/>
+      <c r="BM50" s="88"/>
+      <c r="BN50" s="88"/>
+      <c r="BO50" s="88"/>
+      <c r="BP50" s="88"/>
+      <c r="BQ50" s="88"/>
+      <c r="BR50" s="88"/>
+      <c r="BS50" s="88"/>
+      <c r="BT50" s="88"/>
+      <c r="BU50" s="88"/>
+      <c r="BV50" s="89"/>
     </row>
-    <row r="51" spans="1:74" ht="30" customHeight="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="90"/>
+    <row r="51" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="81" t="s">
         <v>103</v>
       </c>
@@ -30735,11 +32259,11 @@
       <c r="V51" s="59"/>
       <c r="W51" s="59"/>
       <c r="X51" s="60"/>
-      <c r="Y51" s="84">
+      <c r="Y51" s="93">
         <v>2</v>
       </c>
-      <c r="Z51" s="85"/>
-      <c r="AA51" s="86"/>
+      <c r="Z51" s="94"/>
+      <c r="AA51" s="95"/>
       <c r="AB51" s="53">
         <v>2</v>
       </c>
@@ -30755,48 +32279,48 @@
       <c r="AH51" s="53"/>
       <c r="AI51" s="53"/>
       <c r="AJ51" s="53"/>
-      <c r="AK51" s="106"/>
-      <c r="AL51" s="107"/>
-      <c r="AM51" s="107"/>
-      <c r="AN51" s="107"/>
-      <c r="AO51" s="107"/>
-      <c r="AP51" s="107"/>
-      <c r="AQ51" s="107"/>
-      <c r="AR51" s="107"/>
-      <c r="AS51" s="107"/>
-      <c r="AT51" s="107"/>
-      <c r="AU51" s="107"/>
-      <c r="AV51" s="107"/>
-      <c r="AW51" s="107"/>
-      <c r="AX51" s="107"/>
-      <c r="AY51" s="107"/>
-      <c r="AZ51" s="107"/>
-      <c r="BA51" s="107"/>
-      <c r="BB51" s="107"/>
-      <c r="BC51" s="107"/>
-      <c r="BD51" s="107"/>
-      <c r="BE51" s="107"/>
-      <c r="BF51" s="107"/>
-      <c r="BG51" s="107"/>
-      <c r="BH51" s="107"/>
-      <c r="BI51" s="107"/>
-      <c r="BJ51" s="107"/>
-      <c r="BK51" s="107"/>
-      <c r="BL51" s="107"/>
-      <c r="BM51" s="107"/>
-      <c r="BN51" s="107"/>
-      <c r="BO51" s="107"/>
-      <c r="BP51" s="107"/>
-      <c r="BQ51" s="107"/>
-      <c r="BR51" s="107"/>
-      <c r="BS51" s="107"/>
-      <c r="BT51" s="107"/>
-      <c r="BU51" s="107"/>
-      <c r="BV51" s="108"/>
+      <c r="AK51" s="87"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="88"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="88"/>
+      <c r="AR51" s="88"/>
+      <c r="AS51" s="88"/>
+      <c r="AT51" s="88"/>
+      <c r="AU51" s="88"/>
+      <c r="AV51" s="88"/>
+      <c r="AW51" s="88"/>
+      <c r="AX51" s="88"/>
+      <c r="AY51" s="88"/>
+      <c r="AZ51" s="88"/>
+      <c r="BA51" s="88"/>
+      <c r="BB51" s="88"/>
+      <c r="BC51" s="88"/>
+      <c r="BD51" s="88"/>
+      <c r="BE51" s="88"/>
+      <c r="BF51" s="88"/>
+      <c r="BG51" s="88"/>
+      <c r="BH51" s="88"/>
+      <c r="BI51" s="88"/>
+      <c r="BJ51" s="88"/>
+      <c r="BK51" s="88"/>
+      <c r="BL51" s="88"/>
+      <c r="BM51" s="88"/>
+      <c r="BN51" s="88"/>
+      <c r="BO51" s="88"/>
+      <c r="BP51" s="88"/>
+      <c r="BQ51" s="88"/>
+      <c r="BR51" s="88"/>
+      <c r="BS51" s="88"/>
+      <c r="BT51" s="88"/>
+      <c r="BU51" s="88"/>
+      <c r="BV51" s="89"/>
     </row>
-    <row r="52" spans="1:74" ht="30" customHeight="1">
-      <c r="A52" s="89"/>
-      <c r="B52" s="90"/>
+    <row r="52" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="81" t="s">
         <v>104</v>
       </c>
@@ -30847,48 +32371,48 @@
       <c r="AH52" s="53"/>
       <c r="AI52" s="53"/>
       <c r="AJ52" s="53"/>
-      <c r="AK52" s="106"/>
-      <c r="AL52" s="107"/>
-      <c r="AM52" s="107"/>
-      <c r="AN52" s="107"/>
-      <c r="AO52" s="107"/>
-      <c r="AP52" s="107"/>
-      <c r="AQ52" s="107"/>
-      <c r="AR52" s="107"/>
-      <c r="AS52" s="107"/>
-      <c r="AT52" s="107"/>
-      <c r="AU52" s="107"/>
-      <c r="AV52" s="107"/>
-      <c r="AW52" s="107"/>
-      <c r="AX52" s="107"/>
-      <c r="AY52" s="107"/>
-      <c r="AZ52" s="107"/>
-      <c r="BA52" s="107"/>
-      <c r="BB52" s="107"/>
-      <c r="BC52" s="107"/>
-      <c r="BD52" s="107"/>
-      <c r="BE52" s="107"/>
-      <c r="BF52" s="107"/>
-      <c r="BG52" s="107"/>
-      <c r="BH52" s="107"/>
-      <c r="BI52" s="107"/>
-      <c r="BJ52" s="107"/>
-      <c r="BK52" s="107"/>
-      <c r="BL52" s="107"/>
-      <c r="BM52" s="107"/>
-      <c r="BN52" s="107"/>
-      <c r="BO52" s="107"/>
-      <c r="BP52" s="107"/>
-      <c r="BQ52" s="107"/>
-      <c r="BR52" s="107"/>
-      <c r="BS52" s="107"/>
-      <c r="BT52" s="107"/>
-      <c r="BU52" s="107"/>
-      <c r="BV52" s="108"/>
+      <c r="AK52" s="87"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="88"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="88"/>
+      <c r="AR52" s="88"/>
+      <c r="AS52" s="88"/>
+      <c r="AT52" s="88"/>
+      <c r="AU52" s="88"/>
+      <c r="AV52" s="88"/>
+      <c r="AW52" s="88"/>
+      <c r="AX52" s="88"/>
+      <c r="AY52" s="88"/>
+      <c r="AZ52" s="88"/>
+      <c r="BA52" s="88"/>
+      <c r="BB52" s="88"/>
+      <c r="BC52" s="88"/>
+      <c r="BD52" s="88"/>
+      <c r="BE52" s="88"/>
+      <c r="BF52" s="88"/>
+      <c r="BG52" s="88"/>
+      <c r="BH52" s="88"/>
+      <c r="BI52" s="88"/>
+      <c r="BJ52" s="88"/>
+      <c r="BK52" s="88"/>
+      <c r="BL52" s="88"/>
+      <c r="BM52" s="88"/>
+      <c r="BN52" s="88"/>
+      <c r="BO52" s="88"/>
+      <c r="BP52" s="88"/>
+      <c r="BQ52" s="88"/>
+      <c r="BR52" s="88"/>
+      <c r="BS52" s="88"/>
+      <c r="BT52" s="88"/>
+      <c r="BU52" s="88"/>
+      <c r="BV52" s="89"/>
     </row>
-    <row r="53" spans="1:74" ht="30" customHeight="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90"/>
+    <row r="53" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="81" t="s">
         <v>105</v>
       </c>
@@ -30939,48 +32463,48 @@
       <c r="AH53" s="53"/>
       <c r="AI53" s="53"/>
       <c r="AJ53" s="53"/>
-      <c r="AK53" s="106"/>
-      <c r="AL53" s="107"/>
-      <c r="AM53" s="107"/>
-      <c r="AN53" s="107"/>
-      <c r="AO53" s="107"/>
-      <c r="AP53" s="107"/>
-      <c r="AQ53" s="107"/>
-      <c r="AR53" s="107"/>
-      <c r="AS53" s="107"/>
-      <c r="AT53" s="107"/>
-      <c r="AU53" s="107"/>
-      <c r="AV53" s="107"/>
-      <c r="AW53" s="107"/>
-      <c r="AX53" s="107"/>
-      <c r="AY53" s="107"/>
-      <c r="AZ53" s="107"/>
-      <c r="BA53" s="107"/>
-      <c r="BB53" s="107"/>
-      <c r="BC53" s="107"/>
-      <c r="BD53" s="107"/>
-      <c r="BE53" s="107"/>
-      <c r="BF53" s="107"/>
-      <c r="BG53" s="107"/>
-      <c r="BH53" s="107"/>
-      <c r="BI53" s="107"/>
-      <c r="BJ53" s="107"/>
-      <c r="BK53" s="107"/>
-      <c r="BL53" s="107"/>
-      <c r="BM53" s="107"/>
-      <c r="BN53" s="107"/>
-      <c r="BO53" s="107"/>
-      <c r="BP53" s="107"/>
-      <c r="BQ53" s="107"/>
-      <c r="BR53" s="107"/>
-      <c r="BS53" s="107"/>
-      <c r="BT53" s="107"/>
-      <c r="BU53" s="107"/>
-      <c r="BV53" s="108"/>
+      <c r="AK53" s="87"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="88"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="88"/>
+      <c r="AR53" s="88"/>
+      <c r="AS53" s="88"/>
+      <c r="AT53" s="88"/>
+      <c r="AU53" s="88"/>
+      <c r="AV53" s="88"/>
+      <c r="AW53" s="88"/>
+      <c r="AX53" s="88"/>
+      <c r="AY53" s="88"/>
+      <c r="AZ53" s="88"/>
+      <c r="BA53" s="88"/>
+      <c r="BB53" s="88"/>
+      <c r="BC53" s="88"/>
+      <c r="BD53" s="88"/>
+      <c r="BE53" s="88"/>
+      <c r="BF53" s="88"/>
+      <c r="BG53" s="88"/>
+      <c r="BH53" s="88"/>
+      <c r="BI53" s="88"/>
+      <c r="BJ53" s="88"/>
+      <c r="BK53" s="88"/>
+      <c r="BL53" s="88"/>
+      <c r="BM53" s="88"/>
+      <c r="BN53" s="88"/>
+      <c r="BO53" s="88"/>
+      <c r="BP53" s="88"/>
+      <c r="BQ53" s="88"/>
+      <c r="BR53" s="88"/>
+      <c r="BS53" s="88"/>
+      <c r="BT53" s="88"/>
+      <c r="BU53" s="88"/>
+      <c r="BV53" s="89"/>
     </row>
-    <row r="54" spans="1:74" ht="30" customHeight="1">
-      <c r="A54" s="89"/>
-      <c r="B54" s="90"/>
+    <row r="54" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="81" t="s">
         <v>106</v>
       </c>
@@ -31031,48 +32555,48 @@
       <c r="AH54" s="53"/>
       <c r="AI54" s="53"/>
       <c r="AJ54" s="53"/>
-      <c r="AK54" s="106"/>
-      <c r="AL54" s="107"/>
-      <c r="AM54" s="107"/>
-      <c r="AN54" s="107"/>
-      <c r="AO54" s="107"/>
-      <c r="AP54" s="107"/>
-      <c r="AQ54" s="107"/>
-      <c r="AR54" s="107"/>
-      <c r="AS54" s="107"/>
-      <c r="AT54" s="107"/>
-      <c r="AU54" s="107"/>
-      <c r="AV54" s="107"/>
-      <c r="AW54" s="107"/>
-      <c r="AX54" s="107"/>
-      <c r="AY54" s="107"/>
-      <c r="AZ54" s="107"/>
-      <c r="BA54" s="107"/>
-      <c r="BB54" s="107"/>
-      <c r="BC54" s="107"/>
-      <c r="BD54" s="107"/>
-      <c r="BE54" s="107"/>
-      <c r="BF54" s="107"/>
-      <c r="BG54" s="107"/>
-      <c r="BH54" s="107"/>
-      <c r="BI54" s="107"/>
-      <c r="BJ54" s="107"/>
-      <c r="BK54" s="107"/>
-      <c r="BL54" s="107"/>
-      <c r="BM54" s="107"/>
-      <c r="BN54" s="107"/>
-      <c r="BO54" s="107"/>
-      <c r="BP54" s="107"/>
-      <c r="BQ54" s="107"/>
-      <c r="BR54" s="107"/>
-      <c r="BS54" s="107"/>
-      <c r="BT54" s="107"/>
-      <c r="BU54" s="107"/>
-      <c r="BV54" s="108"/>
+      <c r="AK54" s="87"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
+      <c r="AO54" s="88"/>
+      <c r="AP54" s="88"/>
+      <c r="AQ54" s="88"/>
+      <c r="AR54" s="88"/>
+      <c r="AS54" s="88"/>
+      <c r="AT54" s="88"/>
+      <c r="AU54" s="88"/>
+      <c r="AV54" s="88"/>
+      <c r="AW54" s="88"/>
+      <c r="AX54" s="88"/>
+      <c r="AY54" s="88"/>
+      <c r="AZ54" s="88"/>
+      <c r="BA54" s="88"/>
+      <c r="BB54" s="88"/>
+      <c r="BC54" s="88"/>
+      <c r="BD54" s="88"/>
+      <c r="BE54" s="88"/>
+      <c r="BF54" s="88"/>
+      <c r="BG54" s="88"/>
+      <c r="BH54" s="88"/>
+      <c r="BI54" s="88"/>
+      <c r="BJ54" s="88"/>
+      <c r="BK54" s="88"/>
+      <c r="BL54" s="88"/>
+      <c r="BM54" s="88"/>
+      <c r="BN54" s="88"/>
+      <c r="BO54" s="88"/>
+      <c r="BP54" s="88"/>
+      <c r="BQ54" s="88"/>
+      <c r="BR54" s="88"/>
+      <c r="BS54" s="88"/>
+      <c r="BT54" s="88"/>
+      <c r="BU54" s="88"/>
+      <c r="BV54" s="89"/>
     </row>
-    <row r="55" spans="1:74" ht="30" customHeight="1">
-      <c r="A55" s="91"/>
-      <c r="B55" s="92"/>
+    <row r="55" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="81" t="s">
         <v>107</v>
       </c>
@@ -31103,11 +32627,11 @@
       <c r="V55" s="59"/>
       <c r="W55" s="59"/>
       <c r="X55" s="60"/>
-      <c r="Y55" s="84">
+      <c r="Y55" s="93">
         <v>3</v>
       </c>
-      <c r="Z55" s="85"/>
-      <c r="AA55" s="86"/>
+      <c r="Z55" s="94"/>
+      <c r="AA55" s="95"/>
       <c r="AB55" s="53">
         <v>2</v>
       </c>
@@ -31123,52 +32647,50 @@
       <c r="AH55" s="53"/>
       <c r="AI55" s="53"/>
       <c r="AJ55" s="53"/>
-      <c r="AK55" s="109"/>
-      <c r="AL55" s="110"/>
-      <c r="AM55" s="110"/>
-      <c r="AN55" s="110"/>
-      <c r="AO55" s="110"/>
-      <c r="AP55" s="110"/>
-      <c r="AQ55" s="110"/>
-      <c r="AR55" s="110"/>
-      <c r="AS55" s="110"/>
-      <c r="AT55" s="110"/>
-      <c r="AU55" s="110"/>
-      <c r="AV55" s="110"/>
-      <c r="AW55" s="110"/>
-      <c r="AX55" s="110"/>
-      <c r="AY55" s="110"/>
-      <c r="AZ55" s="110"/>
-      <c r="BA55" s="110"/>
-      <c r="BB55" s="110"/>
-      <c r="BC55" s="110"/>
-      <c r="BD55" s="110"/>
-      <c r="BE55" s="110"/>
-      <c r="BF55" s="110"/>
-      <c r="BG55" s="110"/>
-      <c r="BH55" s="110"/>
-      <c r="BI55" s="110"/>
-      <c r="BJ55" s="110"/>
-      <c r="BK55" s="110"/>
-      <c r="BL55" s="110"/>
-      <c r="BM55" s="110"/>
-      <c r="BN55" s="110"/>
-      <c r="BO55" s="110"/>
-      <c r="BP55" s="110"/>
-      <c r="BQ55" s="110"/>
-      <c r="BR55" s="110"/>
-      <c r="BS55" s="110"/>
-      <c r="BT55" s="110"/>
-      <c r="BU55" s="110"/>
-      <c r="BV55" s="111"/>
+      <c r="AK55" s="87"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
+      <c r="AO55" s="88"/>
+      <c r="AP55" s="88"/>
+      <c r="AQ55" s="88"/>
+      <c r="AR55" s="88"/>
+      <c r="AS55" s="88"/>
+      <c r="AT55" s="88"/>
+      <c r="AU55" s="88"/>
+      <c r="AV55" s="88"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="88"/>
+      <c r="AY55" s="88"/>
+      <c r="AZ55" s="88"/>
+      <c r="BA55" s="88"/>
+      <c r="BB55" s="88"/>
+      <c r="BC55" s="88"/>
+      <c r="BD55" s="88"/>
+      <c r="BE55" s="88"/>
+      <c r="BF55" s="88"/>
+      <c r="BG55" s="88"/>
+      <c r="BH55" s="88"/>
+      <c r="BI55" s="88"/>
+      <c r="BJ55" s="88"/>
+      <c r="BK55" s="88"/>
+      <c r="BL55" s="88"/>
+      <c r="BM55" s="88"/>
+      <c r="BN55" s="88"/>
+      <c r="BO55" s="88"/>
+      <c r="BP55" s="88"/>
+      <c r="BQ55" s="88"/>
+      <c r="BR55" s="88"/>
+      <c r="BS55" s="88"/>
+      <c r="BT55" s="88"/>
+      <c r="BU55" s="88"/>
+      <c r="BV55" s="89"/>
     </row>
-    <row r="56" spans="1:74" ht="30" customHeight="1">
-      <c r="A56" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="70"/>
+    <row r="56" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="81" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D56" s="82"/>
       <c r="E56" s="82"/>
@@ -31179,7 +32701,7 @@
       <c r="J56" s="82"/>
       <c r="K56" s="83"/>
       <c r="L56" s="58" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="M56" s="59"/>
       <c r="N56" s="59"/>
@@ -31188,7 +32710,7 @@
       <c r="Q56" s="59"/>
       <c r="R56" s="60"/>
       <c r="S56" s="58" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="T56" s="60"/>
       <c r="U56" s="58" t="s">
@@ -31217,366 +32739,408 @@
       <c r="AH56" s="55"/>
       <c r="AI56" s="55"/>
       <c r="AJ56" s="55"/>
-      <c r="AK56" s="53"/>
-      <c r="AL56" s="53"/>
-      <c r="AM56" s="53"/>
-      <c r="AN56" s="53"/>
-      <c r="AO56" s="53"/>
-      <c r="AP56" s="53"/>
-      <c r="AQ56" s="53"/>
-      <c r="AR56" s="53"/>
-      <c r="AS56" s="53"/>
-      <c r="AT56" s="53"/>
-      <c r="AU56" s="53"/>
-      <c r="AV56" s="53"/>
-      <c r="AW56" s="53"/>
-      <c r="AX56" s="53"/>
-      <c r="AY56" s="53"/>
-      <c r="AZ56" s="53"/>
-      <c r="BA56" s="53"/>
-      <c r="BB56" s="53"/>
-      <c r="BC56" s="53"/>
-      <c r="BD56" s="53"/>
-      <c r="BE56" s="53"/>
-      <c r="BF56" s="53"/>
-      <c r="BG56" s="53"/>
-      <c r="BH56" s="53"/>
-      <c r="BI56" s="53"/>
-      <c r="BJ56" s="53"/>
-      <c r="BK56" s="53"/>
-      <c r="BL56" s="53"/>
-      <c r="BM56" s="53"/>
-      <c r="BN56" s="53"/>
-      <c r="BO56" s="53"/>
-      <c r="BP56" s="53"/>
-      <c r="BQ56" s="53"/>
-      <c r="BR56" s="53"/>
-      <c r="BS56" s="53"/>
-      <c r="BT56" s="53"/>
-      <c r="BU56" s="53"/>
-      <c r="BV56" s="53"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="91"/>
+      <c r="AM56" s="91"/>
+      <c r="AN56" s="91"/>
+      <c r="AO56" s="91"/>
+      <c r="AP56" s="91"/>
+      <c r="AQ56" s="91"/>
+      <c r="AR56" s="91"/>
+      <c r="AS56" s="91"/>
+      <c r="AT56" s="91"/>
+      <c r="AU56" s="91"/>
+      <c r="AV56" s="91"/>
+      <c r="AW56" s="91"/>
+      <c r="AX56" s="91"/>
+      <c r="AY56" s="91"/>
+      <c r="AZ56" s="91"/>
+      <c r="BA56" s="91"/>
+      <c r="BB56" s="91"/>
+      <c r="BC56" s="91"/>
+      <c r="BD56" s="91"/>
+      <c r="BE56" s="91"/>
+      <c r="BF56" s="91"/>
+      <c r="BG56" s="91"/>
+      <c r="BH56" s="91"/>
+      <c r="BI56" s="91"/>
+      <c r="BJ56" s="91"/>
+      <c r="BK56" s="91"/>
+      <c r="BL56" s="91"/>
+      <c r="BM56" s="91"/>
+      <c r="BN56" s="91"/>
+      <c r="BO56" s="91"/>
+      <c r="BP56" s="91"/>
+      <c r="BQ56" s="91"/>
+      <c r="BR56" s="91"/>
+      <c r="BS56" s="91"/>
+      <c r="BT56" s="91"/>
+      <c r="BU56" s="91"/>
+      <c r="BV56" s="92"/>
     </row>
-    <row r="57" spans="1:74" ht="18">
-      <c r="A57" s="68" t="s">
+    <row r="57" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T57" s="60"/>
+      <c r="U57" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+      <c r="AE57" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="55"/>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="53"/>
+      <c r="AM57" s="53"/>
+      <c r="AN57" s="53"/>
+      <c r="AO57" s="53"/>
+      <c r="AP57" s="53"/>
+      <c r="AQ57" s="53"/>
+      <c r="AR57" s="53"/>
+      <c r="AS57" s="53"/>
+      <c r="AT57" s="53"/>
+      <c r="AU57" s="53"/>
+      <c r="AV57" s="53"/>
+      <c r="AW57" s="53"/>
+      <c r="AX57" s="53"/>
+      <c r="AY57" s="53"/>
+      <c r="AZ57" s="53"/>
+      <c r="BA57" s="53"/>
+      <c r="BB57" s="53"/>
+      <c r="BC57" s="53"/>
+      <c r="BD57" s="53"/>
+      <c r="BE57" s="53"/>
+      <c r="BF57" s="53"/>
+      <c r="BG57" s="53"/>
+      <c r="BH57" s="53"/>
+      <c r="BI57" s="53"/>
+      <c r="BJ57" s="53"/>
+      <c r="BK57" s="53"/>
+      <c r="BL57" s="53"/>
+      <c r="BM57" s="53"/>
+      <c r="BN57" s="53"/>
+      <c r="BO57" s="53"/>
+      <c r="BP57" s="53"/>
+      <c r="BQ57" s="53"/>
+      <c r="BR57" s="53"/>
+      <c r="BS57" s="53"/>
+      <c r="BT57" s="53"/>
+      <c r="BU57" s="53"/>
+      <c r="BV57" s="53"/>
+    </row>
+    <row r="58" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T58" s="60"/>
+      <c r="U58" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+      <c r="AE58" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="55"/>
+      <c r="AK58" s="53"/>
+      <c r="AL58" s="53"/>
+      <c r="AM58" s="53"/>
+      <c r="AN58" s="53"/>
+      <c r="AO58" s="53"/>
+      <c r="AP58" s="53"/>
+      <c r="AQ58" s="53"/>
+      <c r="AR58" s="53"/>
+      <c r="AS58" s="53"/>
+      <c r="AT58" s="53"/>
+      <c r="AU58" s="53"/>
+      <c r="AV58" s="53"/>
+      <c r="AW58" s="53"/>
+      <c r="AX58" s="53"/>
+      <c r="AY58" s="53"/>
+      <c r="AZ58" s="53"/>
+      <c r="BA58" s="53"/>
+      <c r="BB58" s="53"/>
+      <c r="BC58" s="53"/>
+      <c r="BD58" s="53"/>
+      <c r="BE58" s="53"/>
+      <c r="BF58" s="53"/>
+      <c r="BG58" s="53"/>
+      <c r="BH58" s="53"/>
+      <c r="BI58" s="53"/>
+      <c r="BJ58" s="53"/>
+      <c r="BK58" s="53"/>
+      <c r="BL58" s="53"/>
+      <c r="BM58" s="53"/>
+      <c r="BN58" s="53"/>
+      <c r="BO58" s="53"/>
+      <c r="BP58" s="53"/>
+      <c r="BQ58" s="53"/>
+      <c r="BR58" s="53"/>
+      <c r="BS58" s="53"/>
+      <c r="BT58" s="53"/>
+      <c r="BU58" s="53"/>
+      <c r="BV58" s="53"/>
+    </row>
+    <row r="59" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T59" s="60"/>
+      <c r="U59" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="55"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="53"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="53"/>
+      <c r="AR59" s="53"/>
+      <c r="AS59" s="53"/>
+      <c r="AT59" s="53"/>
+      <c r="AU59" s="53"/>
+      <c r="AV59" s="53"/>
+      <c r="AW59" s="53"/>
+      <c r="AX59" s="53"/>
+      <c r="AY59" s="53"/>
+      <c r="AZ59" s="53"/>
+      <c r="BA59" s="53"/>
+      <c r="BB59" s="53"/>
+      <c r="BC59" s="53"/>
+      <c r="BD59" s="53"/>
+      <c r="BE59" s="53"/>
+      <c r="BF59" s="53"/>
+      <c r="BG59" s="53"/>
+      <c r="BH59" s="53"/>
+      <c r="BI59" s="53"/>
+      <c r="BJ59" s="53"/>
+      <c r="BK59" s="53"/>
+      <c r="BL59" s="53"/>
+      <c r="BM59" s="53"/>
+      <c r="BN59" s="53"/>
+      <c r="BO59" s="53"/>
+      <c r="BP59" s="53"/>
+      <c r="BQ59" s="53"/>
+      <c r="BR59" s="53"/>
+      <c r="BS59" s="53"/>
+      <c r="BT59" s="53"/>
+      <c r="BU59" s="53"/>
+      <c r="BV59" s="53"/>
+    </row>
+    <row r="60" spans="1:74" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
-      <c r="AE57" s="68"/>
-      <c r="AF57" s="68"/>
-      <c r="AG57" s="68"/>
-      <c r="AH57" s="68"/>
-      <c r="AI57" s="68"/>
-      <c r="AJ57" s="68"/>
-      <c r="AK57" s="68"/>
-      <c r="AL57" s="68"/>
-      <c r="AM57" s="68"/>
-      <c r="AN57" s="68"/>
-      <c r="AO57" s="68"/>
-      <c r="AP57" s="68"/>
-      <c r="AQ57" s="68"/>
-      <c r="AR57" s="68"/>
-      <c r="AS57" s="68"/>
-      <c r="AT57" s="68"/>
-      <c r="AU57" s="68"/>
-      <c r="AV57" s="68"/>
-      <c r="AW57" s="68"/>
-      <c r="AX57" s="68"/>
-      <c r="AY57" s="68"/>
-      <c r="AZ57" s="68"/>
-      <c r="BA57" s="68"/>
-      <c r="BB57" s="68"/>
-      <c r="BC57" s="68"/>
-      <c r="BD57" s="68"/>
-      <c r="BE57" s="68"/>
-      <c r="BF57" s="68"/>
-      <c r="BG57" s="68"/>
-      <c r="BH57" s="68"/>
-      <c r="BI57" s="68"/>
-      <c r="BJ57" s="68"/>
-      <c r="BK57" s="68"/>
-      <c r="BL57" s="68"/>
-      <c r="BM57" s="68"/>
-      <c r="BN57" s="68"/>
-      <c r="BO57" s="68"/>
-      <c r="BP57" s="68"/>
-      <c r="BQ57" s="68"/>
-      <c r="BR57" s="68"/>
-      <c r="BS57" s="68"/>
-      <c r="BT57" s="68"/>
-      <c r="BU57" s="68"/>
-      <c r="BV57" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="68"/>
+      <c r="AH60" s="68"/>
+      <c r="AI60" s="68"/>
+      <c r="AJ60" s="68"/>
+      <c r="AK60" s="68"/>
+      <c r="AL60" s="68"/>
+      <c r="AM60" s="68"/>
+      <c r="AN60" s="68"/>
+      <c r="AO60" s="68"/>
+      <c r="AP60" s="68"/>
+      <c r="AQ60" s="68"/>
+      <c r="AR60" s="68"/>
+      <c r="AS60" s="68"/>
+      <c r="AT60" s="68"/>
+      <c r="AU60" s="68"/>
+      <c r="AV60" s="68"/>
+      <c r="AW60" s="68"/>
+      <c r="AX60" s="68"/>
+      <c r="AY60" s="68"/>
+      <c r="AZ60" s="68"/>
+      <c r="BA60" s="68"/>
+      <c r="BB60" s="68"/>
+      <c r="BC60" s="68"/>
+      <c r="BD60" s="68"/>
+      <c r="BE60" s="68"/>
+      <c r="BF60" s="68"/>
+      <c r="BG60" s="68"/>
+      <c r="BH60" s="68"/>
+      <c r="BI60" s="68"/>
+      <c r="BJ60" s="68"/>
+      <c r="BK60" s="68"/>
+      <c r="BL60" s="68"/>
+      <c r="BM60" s="68"/>
+      <c r="BN60" s="68"/>
+      <c r="BO60" s="68"/>
+      <c r="BP60" s="68"/>
+      <c r="BQ60" s="68"/>
+      <c r="BR60" s="68"/>
+      <c r="BS60" s="68"/>
+      <c r="BT60" s="68"/>
+      <c r="BU60" s="68"/>
+      <c r="BV60" s="68"/>
     </row>
-    <row r="58" spans="1:74" ht="43.5" customHeight="1">
-      <c r="A58" s="67" t="s">
+    <row r="61" spans="1:74" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="67" t="s">
         <v>74</v>
-      </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="M58" s="98"/>
-      <c r="N58" s="98"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="98"/>
-      <c r="U58" s="98"/>
-      <c r="V58" s="98"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="98"/>
-      <c r="Y58" s="98"/>
-      <c r="Z58" s="98"/>
-      <c r="AA58" s="98"/>
-      <c r="AB58" s="98"/>
-      <c r="AC58" s="98"/>
-      <c r="AD58" s="98"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="98"/>
-      <c r="AG58" s="98"/>
-      <c r="AH58" s="98"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="98"/>
-      <c r="AK58" s="98"/>
-      <c r="AL58" s="98"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="98"/>
-      <c r="AO58" s="98"/>
-      <c r="AP58" s="98"/>
-      <c r="AQ58" s="98"/>
-      <c r="AR58" s="98"/>
-      <c r="AS58" s="98"/>
-      <c r="AT58" s="98"/>
-      <c r="AU58" s="98"/>
-      <c r="AV58" s="98"/>
-      <c r="AW58" s="98"/>
-      <c r="AX58" s="98"/>
-      <c r="AY58" s="98"/>
-      <c r="AZ58" s="98"/>
-      <c r="BA58" s="98"/>
-      <c r="BB58" s="98"/>
-      <c r="BC58" s="98"/>
-      <c r="BD58" s="98"/>
-      <c r="BE58" s="98"/>
-      <c r="BF58" s="98"/>
-      <c r="BG58" s="98"/>
-      <c r="BH58" s="98"/>
-      <c r="BI58" s="98"/>
-      <c r="BJ58" s="98"/>
-      <c r="BK58" s="98"/>
-      <c r="BL58" s="98"/>
-      <c r="BM58" s="98"/>
-      <c r="BN58" s="98"/>
-      <c r="BO58" s="98"/>
-      <c r="BP58" s="98"/>
-      <c r="BQ58" s="98"/>
-      <c r="BR58" s="98"/>
-      <c r="BS58" s="98"/>
-      <c r="BT58" s="98"/>
-      <c r="BU58" s="98"/>
-      <c r="BV58" s="98"/>
-    </row>
-    <row r="59" spans="1:74" ht="43.5" customHeight="1">
-      <c r="A59" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="98"/>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
-      <c r="Y59" s="98"/>
-      <c r="Z59" s="98"/>
-      <c r="AA59" s="98"/>
-      <c r="AB59" s="98"/>
-      <c r="AC59" s="98"/>
-      <c r="AD59" s="98"/>
-      <c r="AE59" s="98"/>
-      <c r="AF59" s="98"/>
-      <c r="AG59" s="98"/>
-      <c r="AH59" s="98"/>
-      <c r="AI59" s="98"/>
-      <c r="AJ59" s="98"/>
-      <c r="AK59" s="98"/>
-      <c r="AL59" s="98"/>
-      <c r="AM59" s="98"/>
-      <c r="AN59" s="98"/>
-      <c r="AO59" s="98"/>
-      <c r="AP59" s="98"/>
-      <c r="AQ59" s="98"/>
-      <c r="AR59" s="98"/>
-      <c r="AS59" s="98"/>
-      <c r="AT59" s="98"/>
-      <c r="AU59" s="98"/>
-      <c r="AV59" s="98"/>
-      <c r="AW59" s="98"/>
-      <c r="AX59" s="98"/>
-      <c r="AY59" s="98"/>
-      <c r="AZ59" s="98"/>
-      <c r="BA59" s="98"/>
-      <c r="BB59" s="98"/>
-      <c r="BC59" s="98"/>
-      <c r="BD59" s="98"/>
-      <c r="BE59" s="98"/>
-      <c r="BF59" s="98"/>
-      <c r="BG59" s="98"/>
-      <c r="BH59" s="98"/>
-      <c r="BI59" s="98"/>
-      <c r="BJ59" s="98"/>
-      <c r="BK59" s="98"/>
-      <c r="BL59" s="98"/>
-      <c r="BM59" s="98"/>
-      <c r="BN59" s="98"/>
-      <c r="BO59" s="98"/>
-      <c r="BP59" s="98"/>
-      <c r="BQ59" s="98"/>
-      <c r="BR59" s="98"/>
-      <c r="BS59" s="98"/>
-      <c r="BT59" s="98"/>
-      <c r="BU59" s="98"/>
-      <c r="BV59" s="98"/>
-    </row>
-    <row r="60" spans="1:74" ht="43.5" customHeight="1">
-      <c r="A60" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
-      <c r="O60" s="98"/>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="98"/>
-      <c r="R60" s="98"/>
-      <c r="S60" s="98"/>
-      <c r="T60" s="98"/>
-      <c r="U60" s="98"/>
-      <c r="V60" s="98"/>
-      <c r="W60" s="98"/>
-      <c r="X60" s="98"/>
-      <c r="Y60" s="98"/>
-      <c r="Z60" s="98"/>
-      <c r="AA60" s="98"/>
-      <c r="AB60" s="98"/>
-      <c r="AC60" s="98"/>
-      <c r="AD60" s="98"/>
-      <c r="AE60" s="98"/>
-      <c r="AF60" s="98"/>
-      <c r="AG60" s="98"/>
-      <c r="AH60" s="98"/>
-      <c r="AI60" s="98"/>
-      <c r="AJ60" s="98"/>
-      <c r="AK60" s="98"/>
-      <c r="AL60" s="98"/>
-      <c r="AM60" s="98"/>
-      <c r="AN60" s="98"/>
-      <c r="AO60" s="98"/>
-      <c r="AP60" s="98"/>
-      <c r="AQ60" s="98"/>
-      <c r="AR60" s="98"/>
-      <c r="AS60" s="98"/>
-      <c r="AT60" s="98"/>
-      <c r="AU60" s="98"/>
-      <c r="AV60" s="98"/>
-      <c r="AW60" s="98"/>
-      <c r="AX60" s="98"/>
-      <c r="AY60" s="98"/>
-      <c r="AZ60" s="98"/>
-      <c r="BA60" s="98"/>
-      <c r="BB60" s="98"/>
-      <c r="BC60" s="98"/>
-      <c r="BD60" s="98"/>
-      <c r="BE60" s="98"/>
-      <c r="BF60" s="98"/>
-      <c r="BG60" s="98"/>
-      <c r="BH60" s="98"/>
-      <c r="BI60" s="98"/>
-      <c r="BJ60" s="98"/>
-      <c r="BK60" s="98"/>
-      <c r="BL60" s="98"/>
-      <c r="BM60" s="98"/>
-      <c r="BN60" s="98"/>
-      <c r="BO60" s="98"/>
-      <c r="BP60" s="98"/>
-      <c r="BQ60" s="98"/>
-      <c r="BR60" s="98"/>
-      <c r="BS60" s="98"/>
-      <c r="BT60" s="98"/>
-      <c r="BU60" s="98"/>
-      <c r="BV60" s="98"/>
-    </row>
-    <row r="61" spans="1:74" ht="36.6" customHeight="1">
-      <c r="A61" s="67" t="s">
-        <v>129</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67"/>
@@ -31587,76 +33151,76 @@
       <c r="H61" s="67"/>
       <c r="I61" s="67"/>
       <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="99"/>
-      <c r="U61" s="99"/>
-      <c r="V61" s="99"/>
-      <c r="W61" s="99"/>
-      <c r="X61" s="99"/>
-      <c r="Y61" s="99"/>
-      <c r="Z61" s="99"/>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="99"/>
-      <c r="AC61" s="99"/>
-      <c r="AD61" s="99"/>
-      <c r="AE61" s="99"/>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="99"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="99"/>
-      <c r="AJ61" s="99"/>
-      <c r="AK61" s="99"/>
-      <c r="AL61" s="99"/>
-      <c r="AM61" s="99"/>
-      <c r="AN61" s="99"/>
-      <c r="AO61" s="99"/>
-      <c r="AP61" s="99"/>
-      <c r="AQ61" s="99"/>
-      <c r="AR61" s="99"/>
-      <c r="AS61" s="99"/>
-      <c r="AT61" s="99"/>
-      <c r="AU61" s="99"/>
-      <c r="AV61" s="99"/>
-      <c r="AW61" s="99"/>
-      <c r="AX61" s="99"/>
-      <c r="AY61" s="99"/>
-      <c r="AZ61" s="99"/>
-      <c r="BA61" s="99"/>
-      <c r="BB61" s="99"/>
-      <c r="BC61" s="99"/>
-      <c r="BD61" s="99"/>
-      <c r="BE61" s="99"/>
-      <c r="BF61" s="99"/>
-      <c r="BG61" s="99"/>
-      <c r="BH61" s="99"/>
-      <c r="BI61" s="99"/>
-      <c r="BJ61" s="99"/>
-      <c r="BK61" s="99"/>
-      <c r="BL61" s="99"/>
-      <c r="BM61" s="99"/>
-      <c r="BN61" s="99"/>
-      <c r="BO61" s="99"/>
-      <c r="BP61" s="99"/>
-      <c r="BQ61" s="99"/>
-      <c r="BR61" s="99"/>
-      <c r="BS61" s="99"/>
-      <c r="BT61" s="99"/>
-      <c r="BU61" s="99"/>
-      <c r="BV61" s="99"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
+      <c r="Z61" s="111"/>
+      <c r="AA61" s="111"/>
+      <c r="AB61" s="111"/>
+      <c r="AC61" s="111"/>
+      <c r="AD61" s="111"/>
+      <c r="AE61" s="111"/>
+      <c r="AF61" s="111"/>
+      <c r="AG61" s="111"/>
+      <c r="AH61" s="111"/>
+      <c r="AI61" s="111"/>
+      <c r="AJ61" s="111"/>
+      <c r="AK61" s="111"/>
+      <c r="AL61" s="111"/>
+      <c r="AM61" s="111"/>
+      <c r="AN61" s="111"/>
+      <c r="AO61" s="111"/>
+      <c r="AP61" s="111"/>
+      <c r="AQ61" s="111"/>
+      <c r="AR61" s="111"/>
+      <c r="AS61" s="111"/>
+      <c r="AT61" s="111"/>
+      <c r="AU61" s="111"/>
+      <c r="AV61" s="111"/>
+      <c r="AW61" s="111"/>
+      <c r="AX61" s="111"/>
+      <c r="AY61" s="111"/>
+      <c r="AZ61" s="111"/>
+      <c r="BA61" s="111"/>
+      <c r="BB61" s="111"/>
+      <c r="BC61" s="111"/>
+      <c r="BD61" s="111"/>
+      <c r="BE61" s="111"/>
+      <c r="BF61" s="111"/>
+      <c r="BG61" s="111"/>
+      <c r="BH61" s="111"/>
+      <c r="BI61" s="111"/>
+      <c r="BJ61" s="111"/>
+      <c r="BK61" s="111"/>
+      <c r="BL61" s="111"/>
+      <c r="BM61" s="111"/>
+      <c r="BN61" s="111"/>
+      <c r="BO61" s="111"/>
+      <c r="BP61" s="111"/>
+      <c r="BQ61" s="111"/>
+      <c r="BR61" s="111"/>
+      <c r="BS61" s="111"/>
+      <c r="BT61" s="111"/>
+      <c r="BU61" s="111"/>
+      <c r="BV61" s="111"/>
     </row>
-    <row r="62" spans="1:74" ht="352.2" customHeight="1">
+    <row r="62" spans="1:74" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="67" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B62" s="67"/>
       <c r="C62" s="67"/>
@@ -31667,76 +33231,76 @@
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="67"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
-      <c r="Z62" s="67"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="67"/>
-      <c r="AE62" s="67"/>
-      <c r="AF62" s="67"/>
-      <c r="AG62" s="67"/>
-      <c r="AH62" s="67"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-      <c r="AK62" s="67"/>
-      <c r="AL62" s="67"/>
-      <c r="AM62" s="67"/>
-      <c r="AN62" s="67"/>
-      <c r="AO62" s="67"/>
-      <c r="AP62" s="67"/>
-      <c r="AQ62" s="67"/>
-      <c r="AR62" s="67"/>
-      <c r="AS62" s="67"/>
-      <c r="AT62" s="67"/>
-      <c r="AU62" s="67"/>
-      <c r="AV62" s="67"/>
-      <c r="AW62" s="67"/>
-      <c r="AX62" s="67"/>
-      <c r="AY62" s="67"/>
-      <c r="AZ62" s="67"/>
-      <c r="BA62" s="67"/>
-      <c r="BB62" s="67"/>
-      <c r="BC62" s="67"/>
-      <c r="BD62" s="67"/>
-      <c r="BE62" s="67"/>
-      <c r="BF62" s="67"/>
-      <c r="BG62" s="67"/>
-      <c r="BH62" s="67"/>
-      <c r="BI62" s="67"/>
-      <c r="BJ62" s="67"/>
-      <c r="BK62" s="67"/>
-      <c r="BL62" s="67"/>
-      <c r="BM62" s="67"/>
-      <c r="BN62" s="67"/>
-      <c r="BO62" s="67"/>
-      <c r="BP62" s="67"/>
-      <c r="BQ62" s="67"/>
-      <c r="BR62" s="67"/>
-      <c r="BS62" s="67"/>
-      <c r="BT62" s="67"/>
-      <c r="BU62" s="67"/>
-      <c r="BV62" s="67"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="111"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+      <c r="AB62" s="111"/>
+      <c r="AC62" s="111"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="111"/>
+      <c r="AF62" s="111"/>
+      <c r="AG62" s="111"/>
+      <c r="AH62" s="111"/>
+      <c r="AI62" s="111"/>
+      <c r="AJ62" s="111"/>
+      <c r="AK62" s="111"/>
+      <c r="AL62" s="111"/>
+      <c r="AM62" s="111"/>
+      <c r="AN62" s="111"/>
+      <c r="AO62" s="111"/>
+      <c r="AP62" s="111"/>
+      <c r="AQ62" s="111"/>
+      <c r="AR62" s="111"/>
+      <c r="AS62" s="111"/>
+      <c r="AT62" s="111"/>
+      <c r="AU62" s="111"/>
+      <c r="AV62" s="111"/>
+      <c r="AW62" s="111"/>
+      <c r="AX62" s="111"/>
+      <c r="AY62" s="111"/>
+      <c r="AZ62" s="111"/>
+      <c r="BA62" s="111"/>
+      <c r="BB62" s="111"/>
+      <c r="BC62" s="111"/>
+      <c r="BD62" s="111"/>
+      <c r="BE62" s="111"/>
+      <c r="BF62" s="111"/>
+      <c r="BG62" s="111"/>
+      <c r="BH62" s="111"/>
+      <c r="BI62" s="111"/>
+      <c r="BJ62" s="111"/>
+      <c r="BK62" s="111"/>
+      <c r="BL62" s="111"/>
+      <c r="BM62" s="111"/>
+      <c r="BN62" s="111"/>
+      <c r="BO62" s="111"/>
+      <c r="BP62" s="111"/>
+      <c r="BQ62" s="111"/>
+      <c r="BR62" s="111"/>
+      <c r="BS62" s="111"/>
+      <c r="BT62" s="111"/>
+      <c r="BU62" s="111"/>
+      <c r="BV62" s="111"/>
     </row>
-    <row r="63" spans="1:74" ht="96.6" customHeight="1">
+    <row r="63" spans="1:74" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="67" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B63" s="67"/>
       <c r="C63" s="67"/>
@@ -31747,76 +33311,76 @@
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
-      <c r="AE63" s="67"/>
-      <c r="AF63" s="67"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="67"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="67"/>
-      <c r="AP63" s="67"/>
-      <c r="AQ63" s="67"/>
-      <c r="AR63" s="67"/>
-      <c r="AS63" s="67"/>
-      <c r="AT63" s="67"/>
-      <c r="AU63" s="67"/>
-      <c r="AV63" s="67"/>
-      <c r="AW63" s="67"/>
-      <c r="AX63" s="67"/>
-      <c r="AY63" s="67"/>
-      <c r="AZ63" s="67"/>
-      <c r="BA63" s="67"/>
-      <c r="BB63" s="67"/>
-      <c r="BC63" s="67"/>
-      <c r="BD63" s="67"/>
-      <c r="BE63" s="67"/>
-      <c r="BF63" s="67"/>
-      <c r="BG63" s="67"/>
-      <c r="BH63" s="67"/>
-      <c r="BI63" s="67"/>
-      <c r="BJ63" s="67"/>
-      <c r="BK63" s="67"/>
-      <c r="BL63" s="67"/>
-      <c r="BM63" s="67"/>
-      <c r="BN63" s="67"/>
-      <c r="BO63" s="67"/>
-      <c r="BP63" s="67"/>
-      <c r="BQ63" s="67"/>
-      <c r="BR63" s="67"/>
-      <c r="BS63" s="67"/>
-      <c r="BT63" s="67"/>
-      <c r="BU63" s="67"/>
-      <c r="BV63" s="67"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="M63" s="111"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="111"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+      <c r="AA63" s="111"/>
+      <c r="AB63" s="111"/>
+      <c r="AC63" s="111"/>
+      <c r="AD63" s="111"/>
+      <c r="AE63" s="111"/>
+      <c r="AF63" s="111"/>
+      <c r="AG63" s="111"/>
+      <c r="AH63" s="111"/>
+      <c r="AI63" s="111"/>
+      <c r="AJ63" s="111"/>
+      <c r="AK63" s="111"/>
+      <c r="AL63" s="111"/>
+      <c r="AM63" s="111"/>
+      <c r="AN63" s="111"/>
+      <c r="AO63" s="111"/>
+      <c r="AP63" s="111"/>
+      <c r="AQ63" s="111"/>
+      <c r="AR63" s="111"/>
+      <c r="AS63" s="111"/>
+      <c r="AT63" s="111"/>
+      <c r="AU63" s="111"/>
+      <c r="AV63" s="111"/>
+      <c r="AW63" s="111"/>
+      <c r="AX63" s="111"/>
+      <c r="AY63" s="111"/>
+      <c r="AZ63" s="111"/>
+      <c r="BA63" s="111"/>
+      <c r="BB63" s="111"/>
+      <c r="BC63" s="111"/>
+      <c r="BD63" s="111"/>
+      <c r="BE63" s="111"/>
+      <c r="BF63" s="111"/>
+      <c r="BG63" s="111"/>
+      <c r="BH63" s="111"/>
+      <c r="BI63" s="111"/>
+      <c r="BJ63" s="111"/>
+      <c r="BK63" s="111"/>
+      <c r="BL63" s="111"/>
+      <c r="BM63" s="111"/>
+      <c r="BN63" s="111"/>
+      <c r="BO63" s="111"/>
+      <c r="BP63" s="111"/>
+      <c r="BQ63" s="111"/>
+      <c r="BR63" s="111"/>
+      <c r="BS63" s="111"/>
+      <c r="BT63" s="111"/>
+      <c r="BU63" s="111"/>
+      <c r="BV63" s="111"/>
     </row>
-    <row r="64" spans="1:74" ht="43.8" customHeight="1">
+    <row r="64" spans="1:74" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="67" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B64" s="67"/>
       <c r="C64" s="67"/>
@@ -31828,75 +33392,75 @@
       <c r="I64" s="67"/>
       <c r="J64" s="67"/>
       <c r="K64" s="67"/>
-      <c r="L64" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="67"/>
-      <c r="X64" s="67"/>
-      <c r="Y64" s="67"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="67"/>
-      <c r="AD64" s="67"/>
-      <c r="AE64" s="67"/>
-      <c r="AF64" s="67"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
-      <c r="AI64" s="67"/>
-      <c r="AJ64" s="67"/>
-      <c r="AK64" s="67"/>
-      <c r="AL64" s="67"/>
-      <c r="AM64" s="67"/>
-      <c r="AN64" s="67"/>
-      <c r="AO64" s="67"/>
-      <c r="AP64" s="67"/>
-      <c r="AQ64" s="67"/>
-      <c r="AR64" s="67"/>
-      <c r="AS64" s="67"/>
-      <c r="AT64" s="67"/>
-      <c r="AU64" s="67"/>
-      <c r="AV64" s="67"/>
-      <c r="AW64" s="67"/>
-      <c r="AX64" s="67"/>
-      <c r="AY64" s="67"/>
-      <c r="AZ64" s="67"/>
-      <c r="BA64" s="67"/>
-      <c r="BB64" s="67"/>
-      <c r="BC64" s="67"/>
-      <c r="BD64" s="67"/>
-      <c r="BE64" s="67"/>
-      <c r="BF64" s="67"/>
-      <c r="BG64" s="67"/>
-      <c r="BH64" s="67"/>
-      <c r="BI64" s="67"/>
-      <c r="BJ64" s="67"/>
-      <c r="BK64" s="67"/>
-      <c r="BL64" s="67"/>
-      <c r="BM64" s="67"/>
-      <c r="BN64" s="67"/>
-      <c r="BO64" s="67"/>
-      <c r="BP64" s="67"/>
-      <c r="BQ64" s="67"/>
-      <c r="BR64" s="67"/>
-      <c r="BS64" s="67"/>
-      <c r="BT64" s="67"/>
-      <c r="BU64" s="67"/>
-      <c r="BV64" s="67"/>
+      <c r="L64" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
+      <c r="P64" s="112"/>
+      <c r="Q64" s="112"/>
+      <c r="R64" s="112"/>
+      <c r="S64" s="112"/>
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="112"/>
+      <c r="W64" s="112"/>
+      <c r="X64" s="112"/>
+      <c r="Y64" s="112"/>
+      <c r="Z64" s="112"/>
+      <c r="AA64" s="112"/>
+      <c r="AB64" s="112"/>
+      <c r="AC64" s="112"/>
+      <c r="AD64" s="112"/>
+      <c r="AE64" s="112"/>
+      <c r="AF64" s="112"/>
+      <c r="AG64" s="112"/>
+      <c r="AH64" s="112"/>
+      <c r="AI64" s="112"/>
+      <c r="AJ64" s="112"/>
+      <c r="AK64" s="112"/>
+      <c r="AL64" s="112"/>
+      <c r="AM64" s="112"/>
+      <c r="AN64" s="112"/>
+      <c r="AO64" s="112"/>
+      <c r="AP64" s="112"/>
+      <c r="AQ64" s="112"/>
+      <c r="AR64" s="112"/>
+      <c r="AS64" s="112"/>
+      <c r="AT64" s="112"/>
+      <c r="AU64" s="112"/>
+      <c r="AV64" s="112"/>
+      <c r="AW64" s="112"/>
+      <c r="AX64" s="112"/>
+      <c r="AY64" s="112"/>
+      <c r="AZ64" s="112"/>
+      <c r="BA64" s="112"/>
+      <c r="BB64" s="112"/>
+      <c r="BC64" s="112"/>
+      <c r="BD64" s="112"/>
+      <c r="BE64" s="112"/>
+      <c r="BF64" s="112"/>
+      <c r="BG64" s="112"/>
+      <c r="BH64" s="112"/>
+      <c r="BI64" s="112"/>
+      <c r="BJ64" s="112"/>
+      <c r="BK64" s="112"/>
+      <c r="BL64" s="112"/>
+      <c r="BM64" s="112"/>
+      <c r="BN64" s="112"/>
+      <c r="BO64" s="112"/>
+      <c r="BP64" s="112"/>
+      <c r="BQ64" s="112"/>
+      <c r="BR64" s="112"/>
+      <c r="BS64" s="112"/>
+      <c r="BT64" s="112"/>
+      <c r="BU64" s="112"/>
+      <c r="BV64" s="112"/>
     </row>
-    <row r="65" spans="1:74" ht="61.2" customHeight="1">
+    <row r="65" spans="1:74" ht="352.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="67" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B65" s="67"/>
       <c r="C65" s="67"/>
@@ -31909,7 +33473,7 @@
       <c r="J65" s="67"/>
       <c r="K65" s="67"/>
       <c r="L65" s="67" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M65" s="67"/>
       <c r="N65" s="67"/>
@@ -31974,9 +33538,9 @@
       <c r="BU65" s="67"/>
       <c r="BV65" s="67"/>
     </row>
-    <row r="66" spans="1:74" ht="45.6" customHeight="1">
+    <row r="66" spans="1:74" ht="193.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="67" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B66" s="67"/>
       <c r="C66" s="67"/>
@@ -31989,7 +33553,7 @@
       <c r="J66" s="67"/>
       <c r="K66" s="67"/>
       <c r="L66" s="67" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M66" s="67"/>
       <c r="N66" s="67"/>
@@ -32054,9 +33618,9 @@
       <c r="BU66" s="67"/>
       <c r="BV66" s="67"/>
     </row>
-    <row r="67" spans="1:74" ht="298.8" customHeight="1">
+    <row r="67" spans="1:74" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="67" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67"/>
@@ -32068,81 +33632,476 @@
       <c r="I67" s="67"/>
       <c r="J67" s="67"/>
       <c r="K67" s="67"/>
-      <c r="L67" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="M67" s="103"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="103"/>
-      <c r="R67" s="103"/>
-      <c r="S67" s="103"/>
-      <c r="T67" s="103"/>
-      <c r="U67" s="103"/>
-      <c r="V67" s="103"/>
-      <c r="W67" s="103"/>
-      <c r="X67" s="103"/>
-      <c r="Y67" s="103"/>
-      <c r="Z67" s="103"/>
-      <c r="AA67" s="103"/>
-      <c r="AB67" s="103"/>
-      <c r="AC67" s="103"/>
-      <c r="AD67" s="103"/>
-      <c r="AE67" s="103"/>
-      <c r="AF67" s="103"/>
-      <c r="AG67" s="103"/>
-      <c r="AH67" s="103"/>
-      <c r="AI67" s="103"/>
-      <c r="AJ67" s="103"/>
-      <c r="AK67" s="103"/>
-      <c r="AL67" s="103"/>
-      <c r="AM67" s="103"/>
-      <c r="AN67" s="103"/>
-      <c r="AO67" s="103"/>
-      <c r="AP67" s="103"/>
-      <c r="AQ67" s="103"/>
-      <c r="AR67" s="103"/>
-      <c r="AS67" s="103"/>
-      <c r="AT67" s="103"/>
-      <c r="AU67" s="103"/>
-      <c r="AV67" s="103"/>
-      <c r="AW67" s="103"/>
-      <c r="AX67" s="103"/>
-      <c r="AY67" s="103"/>
-      <c r="AZ67" s="103"/>
-      <c r="BA67" s="103"/>
-      <c r="BB67" s="103"/>
-      <c r="BC67" s="103"/>
-      <c r="BD67" s="103"/>
-      <c r="BE67" s="103"/>
-      <c r="BF67" s="103"/>
-      <c r="BG67" s="103"/>
-      <c r="BH67" s="103"/>
-      <c r="BI67" s="103"/>
-      <c r="BJ67" s="103"/>
-      <c r="BK67" s="103"/>
-      <c r="BL67" s="103"/>
-      <c r="BM67" s="103"/>
-      <c r="BN67" s="103"/>
-      <c r="BO67" s="103"/>
-      <c r="BP67" s="103"/>
-      <c r="BQ67" s="103"/>
-      <c r="BR67" s="103"/>
-      <c r="BS67" s="103"/>
-      <c r="BT67" s="103"/>
-      <c r="BU67" s="103"/>
-      <c r="BV67" s="103"/>
+      <c r="L67" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="67"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="67"/>
+      <c r="AD67" s="67"/>
+      <c r="AE67" s="67"/>
+      <c r="AF67" s="67"/>
+      <c r="AG67" s="67"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="67"/>
+      <c r="AL67" s="67"/>
+      <c r="AM67" s="67"/>
+      <c r="AN67" s="67"/>
+      <c r="AO67" s="67"/>
+      <c r="AP67" s="67"/>
+      <c r="AQ67" s="67"/>
+      <c r="AR67" s="67"/>
+      <c r="AS67" s="67"/>
+      <c r="AT67" s="67"/>
+      <c r="AU67" s="67"/>
+      <c r="AV67" s="67"/>
+      <c r="AW67" s="67"/>
+      <c r="AX67" s="67"/>
+      <c r="AY67" s="67"/>
+      <c r="AZ67" s="67"/>
+      <c r="BA67" s="67"/>
+      <c r="BB67" s="67"/>
+      <c r="BC67" s="67"/>
+      <c r="BD67" s="67"/>
+      <c r="BE67" s="67"/>
+      <c r="BF67" s="67"/>
+      <c r="BG67" s="67"/>
+      <c r="BH67" s="67"/>
+      <c r="BI67" s="67"/>
+      <c r="BJ67" s="67"/>
+      <c r="BK67" s="67"/>
+      <c r="BL67" s="67"/>
+      <c r="BM67" s="67"/>
+      <c r="BN67" s="67"/>
+      <c r="BO67" s="67"/>
+      <c r="BP67" s="67"/>
+      <c r="BQ67" s="67"/>
+      <c r="BR67" s="67"/>
+      <c r="BS67" s="67"/>
+      <c r="BT67" s="67"/>
+      <c r="BU67" s="67"/>
+      <c r="BV67" s="67"/>
     </row>
-    <row r="68" spans="1:74" ht="18"/>
-    <row r="69" spans="1:74" ht="18"/>
-    <row r="70" spans="1:74" ht="18"/>
-    <row r="71" spans="1:74" ht="18"/>
+    <row r="68" spans="1:74" ht="61.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="67"/>
+      <c r="Z68" s="67"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="67"/>
+      <c r="AC68" s="67"/>
+      <c r="AD68" s="67"/>
+      <c r="AE68" s="67"/>
+      <c r="AF68" s="67"/>
+      <c r="AG68" s="67"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="67"/>
+      <c r="AM68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AO68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="67"/>
+      <c r="AR68" s="67"/>
+      <c r="AS68" s="67"/>
+      <c r="AT68" s="67"/>
+      <c r="AU68" s="67"/>
+      <c r="AV68" s="67"/>
+      <c r="AW68" s="67"/>
+      <c r="AX68" s="67"/>
+      <c r="AY68" s="67"/>
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="67"/>
+      <c r="BG68" s="67"/>
+      <c r="BH68" s="67"/>
+      <c r="BI68" s="67"/>
+      <c r="BJ68" s="67"/>
+      <c r="BK68" s="67"/>
+      <c r="BL68" s="67"/>
+      <c r="BM68" s="67"/>
+      <c r="BN68" s="67"/>
+      <c r="BO68" s="67"/>
+      <c r="BP68" s="67"/>
+      <c r="BQ68" s="67"/>
+      <c r="BR68" s="67"/>
+      <c r="BS68" s="67"/>
+      <c r="BT68" s="67"/>
+      <c r="BU68" s="67"/>
+      <c r="BV68" s="67"/>
+    </row>
+    <row r="69" spans="1:74" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="67"/>
+      <c r="Z69" s="67"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="67"/>
+      <c r="AD69" s="67"/>
+      <c r="AE69" s="67"/>
+      <c r="AF69" s="67"/>
+      <c r="AG69" s="67"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+      <c r="AJ69" s="67"/>
+      <c r="AK69" s="67"/>
+      <c r="AL69" s="67"/>
+      <c r="AM69" s="67"/>
+      <c r="AN69" s="67"/>
+      <c r="AO69" s="67"/>
+      <c r="AP69" s="67"/>
+      <c r="AQ69" s="67"/>
+      <c r="AR69" s="67"/>
+      <c r="AS69" s="67"/>
+      <c r="AT69" s="67"/>
+      <c r="AU69" s="67"/>
+      <c r="AV69" s="67"/>
+      <c r="AW69" s="67"/>
+      <c r="AX69" s="67"/>
+      <c r="AY69" s="67"/>
+      <c r="AZ69" s="67"/>
+      <c r="BA69" s="67"/>
+      <c r="BB69" s="67"/>
+      <c r="BC69" s="67"/>
+      <c r="BD69" s="67"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="67"/>
+      <c r="BG69" s="67"/>
+      <c r="BH69" s="67"/>
+      <c r="BI69" s="67"/>
+      <c r="BJ69" s="67"/>
+      <c r="BK69" s="67"/>
+      <c r="BL69" s="67"/>
+      <c r="BM69" s="67"/>
+      <c r="BN69" s="67"/>
+      <c r="BO69" s="67"/>
+      <c r="BP69" s="67"/>
+      <c r="BQ69" s="67"/>
+      <c r="BR69" s="67"/>
+      <c r="BS69" s="67"/>
+      <c r="BT69" s="67"/>
+      <c r="BU69" s="67"/>
+      <c r="BV69" s="67"/>
+    </row>
+    <row r="70" spans="1:74" ht="298.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="M70" s="109"/>
+      <c r="N70" s="109"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="109"/>
+      <c r="V70" s="109"/>
+      <c r="W70" s="109"/>
+      <c r="X70" s="109"/>
+      <c r="Y70" s="109"/>
+      <c r="Z70" s="109"/>
+      <c r="AA70" s="109"/>
+      <c r="AB70" s="109"/>
+      <c r="AC70" s="109"/>
+      <c r="AD70" s="109"/>
+      <c r="AE70" s="109"/>
+      <c r="AF70" s="109"/>
+      <c r="AG70" s="109"/>
+      <c r="AH70" s="109"/>
+      <c r="AI70" s="109"/>
+      <c r="AJ70" s="109"/>
+      <c r="AK70" s="109"/>
+      <c r="AL70" s="109"/>
+      <c r="AM70" s="109"/>
+      <c r="AN70" s="109"/>
+      <c r="AO70" s="109"/>
+      <c r="AP70" s="109"/>
+      <c r="AQ70" s="109"/>
+      <c r="AR70" s="109"/>
+      <c r="AS70" s="109"/>
+      <c r="AT70" s="109"/>
+      <c r="AU70" s="109"/>
+      <c r="AV70" s="109"/>
+      <c r="AW70" s="109"/>
+      <c r="AX70" s="109"/>
+      <c r="AY70" s="109"/>
+      <c r="AZ70" s="109"/>
+      <c r="BA70" s="109"/>
+      <c r="BB70" s="109"/>
+      <c r="BC70" s="109"/>
+      <c r="BD70" s="109"/>
+      <c r="BE70" s="109"/>
+      <c r="BF70" s="109"/>
+      <c r="BG70" s="109"/>
+      <c r="BH70" s="109"/>
+      <c r="BI70" s="109"/>
+      <c r="BJ70" s="109"/>
+      <c r="BK70" s="109"/>
+      <c r="BL70" s="109"/>
+      <c r="BM70" s="109"/>
+      <c r="BN70" s="109"/>
+      <c r="BO70" s="109"/>
+      <c r="BP70" s="109"/>
+      <c r="BQ70" s="109"/>
+      <c r="BR70" s="109"/>
+      <c r="BS70" s="109"/>
+      <c r="BT70" s="109"/>
+      <c r="BU70" s="109"/>
+      <c r="BV70" s="109"/>
+    </row>
+    <row r="71" spans="1:74" ht="256.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="M71" s="67"/>
+      <c r="N71" s="67"/>
+      <c r="O71" s="67"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="67"/>
+      <c r="AA71" s="67"/>
+      <c r="AB71" s="67"/>
+      <c r="AC71" s="67"/>
+      <c r="AD71" s="67"/>
+      <c r="AE71" s="67"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+      <c r="AJ71" s="67"/>
+      <c r="AK71" s="67"/>
+      <c r="AL71" s="67"/>
+      <c r="AM71" s="67"/>
+      <c r="AN71" s="67"/>
+      <c r="AO71" s="67"/>
+      <c r="AP71" s="67"/>
+      <c r="AQ71" s="67"/>
+      <c r="AR71" s="67"/>
+      <c r="AS71" s="67"/>
+      <c r="AT71" s="67"/>
+      <c r="AU71" s="67"/>
+      <c r="AV71" s="67"/>
+      <c r="AW71" s="67"/>
+      <c r="AX71" s="67"/>
+      <c r="AY71" s="67"/>
+      <c r="AZ71" s="67"/>
+      <c r="BA71" s="67"/>
+      <c r="BB71" s="67"/>
+      <c r="BC71" s="67"/>
+      <c r="BD71" s="67"/>
+      <c r="BE71" s="67"/>
+      <c r="BF71" s="67"/>
+      <c r="BG71" s="67"/>
+      <c r="BH71" s="67"/>
+      <c r="BI71" s="67"/>
+      <c r="BJ71" s="67"/>
+      <c r="BK71" s="67"/>
+      <c r="BL71" s="67"/>
+      <c r="BM71" s="67"/>
+      <c r="BN71" s="67"/>
+      <c r="BO71" s="67"/>
+      <c r="BP71" s="67"/>
+      <c r="BQ71" s="67"/>
+      <c r="BR71" s="67"/>
+      <c r="BS71" s="67"/>
+      <c r="BT71" s="67"/>
+      <c r="BU71" s="67"/>
+      <c r="BV71" s="67"/>
+    </row>
+    <row r="72" spans="1:74" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="M72" s="67"/>
+      <c r="N72" s="67"/>
+      <c r="O72" s="67"/>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="67"/>
+      <c r="AE72" s="67"/>
+      <c r="AF72" s="67"/>
+      <c r="AG72" s="67"/>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="67"/>
+      <c r="AM72" s="67"/>
+      <c r="AN72" s="67"/>
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="67"/>
+      <c r="AQ72" s="67"/>
+      <c r="AR72" s="67"/>
+      <c r="AS72" s="67"/>
+      <c r="AT72" s="67"/>
+      <c r="AU72" s="67"/>
+      <c r="AV72" s="67"/>
+      <c r="AW72" s="67"/>
+      <c r="AX72" s="67"/>
+      <c r="AY72" s="67"/>
+      <c r="AZ72" s="67"/>
+      <c r="BA72" s="67"/>
+      <c r="BB72" s="67"/>
+      <c r="BC72" s="67"/>
+      <c r="BD72" s="67"/>
+      <c r="BE72" s="67"/>
+      <c r="BF72" s="67"/>
+      <c r="BG72" s="67"/>
+      <c r="BH72" s="67"/>
+      <c r="BI72" s="67"/>
+      <c r="BJ72" s="67"/>
+      <c r="BK72" s="67"/>
+      <c r="BL72" s="67"/>
+      <c r="BM72" s="67"/>
+      <c r="BN72" s="67"/>
+      <c r="BO72" s="67"/>
+      <c r="BP72" s="67"/>
+      <c r="BQ72" s="67"/>
+      <c r="BR72" s="67"/>
+      <c r="BS72" s="67"/>
+      <c r="BT72" s="67"/>
+      <c r="BU72" s="67"/>
+      <c r="BV72" s="67"/>
+    </row>
+    <row r="73" spans="1:74" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:74" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="278">
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
+  <mergeCells count="310">
     <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AJ40"/>
@@ -32157,29 +34116,20 @@
     <mergeCell ref="AE42:AF42"/>
     <mergeCell ref="AG42:AJ42"/>
     <mergeCell ref="AK42:BV42"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="L60:BV60"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:BV61"/>
-    <mergeCell ref="A57:BV57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="L58:BV58"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="L65:BV65"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="L66:BV66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="L67:BV67"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:BV62"/>
+    <mergeCell ref="AK41:BV41"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:R40"/>
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="L63:BV63"/>
     <mergeCell ref="A64:K64"/>
     <mergeCell ref="L64:BV64"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="L59:BV59"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="A60:BV60"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:BV61"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="L68:BV68"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:BV62"/>
     <mergeCell ref="L43:R43"/>
     <mergeCell ref="S43:T43"/>
     <mergeCell ref="U43:X43"/>
@@ -32187,19 +34137,8 @@
     <mergeCell ref="AB41:AD41"/>
     <mergeCell ref="AE41:AF41"/>
     <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AK41:BV41"/>
     <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="AK44:BV44"/>
-    <mergeCell ref="AK49:BV55"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AB38:AD38"/>
     <mergeCell ref="AE38:AF38"/>
     <mergeCell ref="AG38:AJ38"/>
@@ -32218,12 +34157,12 @@
     <mergeCell ref="Y39:AA39"/>
     <mergeCell ref="AB39:AD39"/>
     <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG43:AJ43"/>
     <mergeCell ref="AK39:BV39"/>
     <mergeCell ref="AG39:AJ39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:K38"/>
     <mergeCell ref="L38:R38"/>
@@ -32309,7 +34248,6 @@
     <mergeCell ref="AB33:AD33"/>
     <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AK43:BV43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:K45"/>
@@ -32321,6 +34259,19 @@
     <mergeCell ref="AE45:AF45"/>
     <mergeCell ref="AG45:AJ45"/>
     <mergeCell ref="AK45:BV45"/>
+    <mergeCell ref="AK44:BV44"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
     <mergeCell ref="AE46:AF46"/>
     <mergeCell ref="AG46:AJ46"/>
     <mergeCell ref="AK46:BV46"/>
@@ -32359,12 +34310,6 @@
     <mergeCell ref="AB49:AD49"/>
     <mergeCell ref="AE49:AF49"/>
     <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="C50:K50"/>
@@ -32375,12 +34320,6 @@
     <mergeCell ref="AB50:AD50"/>
     <mergeCell ref="AE50:AF50"/>
     <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
     <mergeCell ref="AE53:AF53"/>
     <mergeCell ref="AG53:AJ53"/>
     <mergeCell ref="C52:K52"/>
@@ -32391,8 +34330,25 @@
     <mergeCell ref="AB52:AD52"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="A49:B55"/>
-    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="A49:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
     <mergeCell ref="L54:R54"/>
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="U54:X54"/>
@@ -32408,29 +34364,67 @@
     <mergeCell ref="AB55:AD55"/>
     <mergeCell ref="AE55:AF55"/>
     <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AK56:BV56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="AB56:AD56"/>
     <mergeCell ref="AE56:AF56"/>
     <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AK49:BV56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AK58:BV58"/>
+    <mergeCell ref="AK57:BV57"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="AK59:BV59"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="L71:BV71"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="L72:BV72"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="L69:BV69"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="L70:BV70"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="L65:BV65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L66:BV66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="L67:BV67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AE32:AF56" xr:uid="{D86A198B-679E-47E2-8A32-6706982BFFA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AE32:AF59" xr:uid="{D86A198B-679E-47E2-8A32-6706982BFFA2}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U32:X56" xr:uid="{64A613DB-1205-4581-912C-A76B1492D2B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U32:X59" xr:uid="{64A613DB-1205-4581-912C-A76B1492D2B9}">
       <formula1>"全角文字列,半角文字列,全角半角文字列,整数,小数,日付,時刻,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S32:T56" xr:uid="{AADA5824-3052-4A9E-88C3-146FBA77613B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S32:T59" xr:uid="{AADA5824-3052-4A9E-88C3-146FBA77613B}">
       <formula1>"I,O,IO,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L32:R56" xr:uid="{162070F5-D6AD-4E06-849F-799CF308B141}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L32:R59" xr:uid="{162070F5-D6AD-4E06-849F-799CF308B141}">
       <formula1>"テキストボックス,パスワードボックス,プルダウン,ラジオボタン,チェックボックス,ボタン,リンク,その他,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32450,18 +34444,18 @@
   </sheetPr>
   <dimension ref="A1:AY63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AY2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BP17" sqref="BP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="53" width="2.44140625" style="6"/>
     <col min="54" max="54" width="2.44140625" style="6" customWidth="1"/>
     <col min="55" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18">
+    <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
@@ -32507,7 +34501,9 @@
       <c r="AJ1" s="62"/>
       <c r="AK1" s="62"/>
       <c r="AL1" s="62"/>
-      <c r="AM1" s="63"/>
+      <c r="AM1" s="63" t="s">
+        <v>163</v>
+      </c>
       <c r="AN1" s="63"/>
       <c r="AO1" s="63"/>
       <c r="AP1" s="63"/>
@@ -32521,7 +34517,7 @@
       <c r="AX1" s="63"/>
       <c r="AY1" s="63"/>
     </row>
-    <row r="2" spans="1:51" ht="18">
+    <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>18</v>
       </c>
@@ -32576,8 +34572,10 @@
       <c r="AX2" s="64"/>
       <c r="AY2" s="64"/>
     </row>
-    <row r="3" spans="1:51" ht="18">
-      <c r="A3" s="63"/>
+    <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>164</v>
+      </c>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -32629,7 +34627,7 @@
       <c r="AX3" s="63"/>
       <c r="AY3" s="63"/>
     </row>
-    <row r="4" spans="1:51" ht="18">
+    <row r="4" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>19</v>
       </c>
@@ -32684,7 +34682,7 @@
       <c r="AX4" s="64"/>
       <c r="AY4" s="64"/>
     </row>
-    <row r="5" spans="1:51" ht="18">
+    <row r="5" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -32737,7 +34735,7 @@
       <c r="AX5" s="53"/>
       <c r="AY5" s="53"/>
     </row>
-    <row r="6" spans="1:51" ht="18">
+    <row r="6" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -32790,7 +34788,7 @@
       <c r="AX6" s="53"/>
       <c r="AY6" s="53"/>
     </row>
-    <row r="7" spans="1:51" ht="18">
+    <row r="7" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -32798,26 +34796,26 @@
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
       <c r="AB7" s="53"/>
       <c r="AC7" s="53"/>
       <c r="AD7" s="53"/>
@@ -32843,7 +34841,7 @@
       <c r="AX7" s="53"/>
       <c r="AY7" s="53"/>
     </row>
-    <row r="8" spans="1:51" ht="18">
+    <row r="8" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -32851,26 +34849,26 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
       <c r="AB8" s="53"/>
       <c r="AC8" s="53"/>
       <c r="AD8" s="53"/>
@@ -32896,7 +34894,7 @@
       <c r="AX8" s="53"/>
       <c r="AY8" s="53"/>
     </row>
-    <row r="9" spans="1:51" ht="18">
+    <row r="9" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -32904,26 +34902,26 @@
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
       <c r="AD9" s="53"/>
@@ -32949,7 +34947,7 @@
       <c r="AX9" s="53"/>
       <c r="AY9" s="53"/>
     </row>
-    <row r="10" spans="1:51" ht="18">
+    <row r="10" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -32957,26 +34955,26 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="53"/>
       <c r="AD10" s="53"/>
@@ -33002,7 +35000,7 @@
       <c r="AX10" s="53"/>
       <c r="AY10" s="53"/>
     </row>
-    <row r="11" spans="1:51" ht="18">
+    <row r="11" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -33010,26 +35008,26 @@
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
       <c r="AD11" s="53"/>
@@ -33055,7 +35053,7 @@
       <c r="AX11" s="53"/>
       <c r="AY11" s="53"/>
     </row>
-    <row r="12" spans="1:51" ht="18">
+    <row r="12" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -33108,7 +35106,7 @@
       <c r="AX12" s="53"/>
       <c r="AY12" s="53"/>
     </row>
-    <row r="13" spans="1:51" ht="18">
+    <row r="13" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -33121,16 +35119,16 @@
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
       <c r="Y13" s="53"/>
@@ -33161,7 +35159,7 @@
       <c r="AX13" s="53"/>
       <c r="AY13" s="53"/>
     </row>
-    <row r="14" spans="1:51" ht="18">
+    <row r="14" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -33174,16 +35172,16 @@
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
       <c r="Y14" s="53"/>
@@ -33214,7 +35212,7 @@
       <c r="AX14" s="53"/>
       <c r="AY14" s="53"/>
     </row>
-    <row r="15" spans="1:51" ht="18">
+    <row r="15" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -33227,16 +35225,16 @@
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="53"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="53"/>
@@ -33267,7 +35265,7 @@
       <c r="AX15" s="53"/>
       <c r="AY15" s="53"/>
     </row>
-    <row r="16" spans="1:51" ht="18">
+    <row r="16" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -33320,7 +35318,7 @@
       <c r="AX16" s="53"/>
       <c r="AY16" s="53"/>
     </row>
-    <row r="17" spans="1:51" ht="18">
+    <row r="17" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -33373,7 +35371,7 @@
       <c r="AX17" s="53"/>
       <c r="AY17" s="53"/>
     </row>
-    <row r="18" spans="1:51" ht="18">
+    <row r="18" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -33426,7 +35424,7 @@
       <c r="AX18" s="53"/>
       <c r="AY18" s="53"/>
     </row>
-    <row r="19" spans="1:51" ht="18">
+    <row r="19" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -33479,7 +35477,7 @@
       <c r="AX19" s="53"/>
       <c r="AY19" s="53"/>
     </row>
-    <row r="20" spans="1:51" ht="18">
+    <row r="20" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -33532,7 +35530,7 @@
       <c r="AX20" s="53"/>
       <c r="AY20" s="53"/>
     </row>
-    <row r="21" spans="1:51" ht="18">
+    <row r="21" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -33585,7 +35583,7 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
     </row>
-    <row r="22" spans="1:51" ht="18">
+    <row r="22" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -33638,7 +35636,7 @@
       <c r="AX22" s="53"/>
       <c r="AY22" s="53"/>
     </row>
-    <row r="23" spans="1:51" ht="18">
+    <row r="23" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -33691,7 +35689,7 @@
       <c r="AX23" s="53"/>
       <c r="AY23" s="53"/>
     </row>
-    <row r="24" spans="1:51" ht="18">
+    <row r="24" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -33744,7 +35742,7 @@
       <c r="AX24" s="53"/>
       <c r="AY24" s="53"/>
     </row>
-    <row r="25" spans="1:51" ht="18">
+    <row r="25" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -33797,7 +35795,7 @@
       <c r="AX25" s="53"/>
       <c r="AY25" s="53"/>
     </row>
-    <row r="26" spans="1:51" ht="18">
+    <row r="26" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -33850,7 +35848,7 @@
       <c r="AX26" s="53"/>
       <c r="AY26" s="53"/>
     </row>
-    <row r="27" spans="1:51" ht="18">
+    <row r="27" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -33903,7 +35901,7 @@
       <c r="AX27" s="53"/>
       <c r="AY27" s="53"/>
     </row>
-    <row r="28" spans="1:51" ht="18">
+    <row r="28" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -33956,7 +35954,7 @@
       <c r="AX28" s="53"/>
       <c r="AY28" s="53"/>
     </row>
-    <row r="29" spans="1:51" ht="18">
+    <row r="29" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -34009,7 +36007,7 @@
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
     </row>
-    <row r="30" spans="1:51" ht="18">
+    <row r="30" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -34062,7 +36060,7 @@
       <c r="AX30" s="53"/>
       <c r="AY30" s="53"/>
     </row>
-    <row r="31" spans="1:51" ht="18">
+    <row r="31" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -34115,7 +36113,7 @@
       <c r="AX31" s="53"/>
       <c r="AY31" s="53"/>
     </row>
-    <row r="32" spans="1:51" ht="18">
+    <row r="32" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -34168,7 +36166,7 @@
       <c r="AX32" s="53"/>
       <c r="AY32" s="53"/>
     </row>
-    <row r="33" spans="1:51" ht="18">
+    <row r="33" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -34221,7 +36219,7 @@
       <c r="AX33" s="53"/>
       <c r="AY33" s="53"/>
     </row>
-    <row r="34" spans="1:51" ht="18">
+    <row r="34" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -34274,7 +36272,7 @@
       <c r="AX34" s="53"/>
       <c r="AY34" s="53"/>
     </row>
-    <row r="35" spans="1:51" ht="18">
+    <row r="35" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
@@ -34329,7 +36327,7 @@
       <c r="AX35" s="64"/>
       <c r="AY35" s="64"/>
     </row>
-    <row r="36" spans="1:51" ht="18">
+    <row r="36" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
         <v>21</v>
       </c>
@@ -34402,7 +36400,7 @@
       <c r="AX36" s="62"/>
       <c r="AY36" s="62"/>
     </row>
-    <row r="37" spans="1:51" ht="30" customHeight="1">
+    <row r="37" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="71" t="s">
         <v>31</v>
       </c>
@@ -34457,7 +36455,7 @@
       <c r="AX37" s="65"/>
       <c r="AY37" s="65"/>
     </row>
-    <row r="38" spans="1:51" ht="30" customHeight="1">
+    <row r="38" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>32</v>
       </c>
@@ -34512,7 +36510,7 @@
       <c r="AX38" s="65"/>
       <c r="AY38" s="65"/>
     </row>
-    <row r="39" spans="1:51" ht="30" customHeight="1">
+    <row r="39" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>33</v>
       </c>
@@ -34567,7 +36565,7 @@
       <c r="AX39" s="65"/>
       <c r="AY39" s="65"/>
     </row>
-    <row r="40" spans="1:51" ht="30" customHeight="1">
+    <row r="40" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="69" t="s">
         <v>34</v>
       </c>
@@ -34622,7 +36620,7 @@
       <c r="AX40" s="65"/>
       <c r="AY40" s="65"/>
     </row>
-    <row r="41" spans="1:51" ht="36.75" customHeight="1">
+    <row r="41" spans="1:51" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69" t="s">
         <v>35</v>
       </c>
@@ -34677,7 +36675,7 @@
       <c r="AX41" s="65"/>
       <c r="AY41" s="65"/>
     </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1">
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>36</v>
       </c>
@@ -34732,7 +36730,7 @@
       <c r="AX42" s="65"/>
       <c r="AY42" s="65"/>
     </row>
-    <row r="43" spans="1:51" ht="30" customHeight="1">
+    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69" t="s">
         <v>37</v>
       </c>
@@ -34787,7 +36785,7 @@
       <c r="AX43" s="65"/>
       <c r="AY43" s="65"/>
     </row>
-    <row r="44" spans="1:51" ht="30" customHeight="1">
+    <row r="44" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="69" t="s">
         <v>38</v>
       </c>
@@ -34842,11 +36840,11 @@
       <c r="AX44" s="65"/>
       <c r="AY44" s="65"/>
     </row>
-    <row r="45" spans="1:51" ht="30" customHeight="1">
-      <c r="A45" s="87" t="s">
+    <row r="45" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="88"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
@@ -34897,7 +36895,7 @@
       <c r="AX45" s="65"/>
       <c r="AY45" s="65"/>
     </row>
-    <row r="46" spans="1:51" ht="30" customHeight="1">
+    <row r="46" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="69" t="s">
         <v>43</v>
       </c>
@@ -34952,7 +36950,7 @@
       <c r="AX46" s="65"/>
       <c r="AY46" s="65"/>
     </row>
-    <row r="47" spans="1:51" ht="30" customHeight="1">
+    <row r="47" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="69" t="s">
         <v>44</v>
       </c>
@@ -35007,7 +37005,7 @@
       <c r="AX47" s="65"/>
       <c r="AY47" s="65"/>
     </row>
-    <row r="48" spans="1:51" ht="18">
+    <row r="48" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="68" t="s">
         <v>40</v>
       </c>
@@ -35062,7 +37060,7 @@
       <c r="AX48" s="68"/>
       <c r="AY48" s="68"/>
     </row>
-    <row r="49" spans="1:51" ht="43.5" customHeight="1">
+    <row r="49" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="67" t="s">
         <v>45</v>
       </c>
@@ -35117,7 +37115,7 @@
       <c r="AX49" s="67"/>
       <c r="AY49" s="67"/>
     </row>
-    <row r="50" spans="1:51" ht="43.5" customHeight="1">
+    <row r="50" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="67" t="s">
         <v>46</v>
       </c>
@@ -35172,7 +37170,7 @@
       <c r="AX50" s="67"/>
       <c r="AY50" s="67"/>
     </row>
-    <row r="51" spans="1:51" ht="43.5" customHeight="1">
+    <row r="51" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="67" t="s">
         <v>47</v>
       </c>
@@ -35227,7 +37225,7 @@
       <c r="AX51" s="67"/>
       <c r="AY51" s="67"/>
     </row>
-    <row r="52" spans="1:51" ht="409.5" customHeight="1">
+    <row r="52" spans="1:51" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="67" t="s">
         <v>48</v>
       </c>
@@ -35282,7 +37280,7 @@
       <c r="AX52" s="67"/>
       <c r="AY52" s="67"/>
     </row>
-    <row r="53" spans="1:51" ht="298.8" customHeight="1">
+    <row r="53" spans="1:51" ht="298.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="67" t="s">
         <v>49</v>
       </c>
@@ -35337,7 +37335,7 @@
       <c r="AX53" s="67"/>
       <c r="AY53" s="67"/>
     </row>
-    <row r="54" spans="1:51" ht="96.6" customHeight="1">
+    <row r="54" spans="1:51" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="67" t="s">
         <v>50</v>
       </c>
@@ -35392,7 +37390,7 @@
       <c r="AX54" s="67"/>
       <c r="AY54" s="67"/>
     </row>
-    <row r="55" spans="1:51" ht="18">
+    <row r="55" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="67" t="s">
         <v>51</v>
       </c>
@@ -35447,7 +37445,7 @@
       <c r="AX55" s="67"/>
       <c r="AY55" s="67"/>
     </row>
-    <row r="56" spans="1:51" ht="18">
+    <row r="56" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="67" t="s">
         <v>52</v>
       </c>
@@ -35502,7 +37500,7 @@
       <c r="AX56" s="67"/>
       <c r="AY56" s="67"/>
     </row>
-    <row r="57" spans="1:51" ht="161.25" customHeight="1">
+    <row r="57" spans="1:51" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="67" t="s">
         <v>53</v>
       </c>
@@ -35557,7 +37555,7 @@
       <c r="AX57" s="67"/>
       <c r="AY57" s="67"/>
     </row>
-    <row r="58" spans="1:51" ht="98.25" customHeight="1">
+    <row r="58" spans="1:51" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="67" t="s">
         <v>43</v>
       </c>
@@ -35612,7 +37610,7 @@
       <c r="AX58" s="67"/>
       <c r="AY58" s="67"/>
     </row>
-    <row r="59" spans="1:51" ht="117" customHeight="1">
+    <row r="59" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="67" t="s">
         <v>44</v>
       </c>
@@ -35667,10 +37665,10 @@
       <c r="AX59" s="67"/>
       <c r="AY59" s="67"/>
     </row>
-    <row r="60" spans="1:51" ht="18"/>
-    <row r="61" spans="1:51" ht="18"/>
-    <row r="62" spans="1:51" ht="18"/>
-    <row r="63" spans="1:51" ht="18"/>
+    <row r="60" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="152">
     <mergeCell ref="A59:K59"/>

--- a/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
+++ b/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3256" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C4DBB8-8642-4C69-8DA5-AB4D85B62BBA}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{E7D71271-519B-46CE-9481-8DDB3DD2E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93ACA664-0FA3-4ED6-8222-BF7277E1BFE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="213">
   <si>
     <t>タスク管理アプリ</t>
     <rPh sb="3" eb="5">
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>松永</t>
+  </si>
+  <si>
+    <t>画面遷移図
+ログイン画面
+一覧画面
+詳細画面</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー指摘対応</t>
+    <rPh sb="4" eb="8">
+      <t>シテキタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松永</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面一覧表</t>
@@ -367,6 +397,16 @@
     <t>〇</t>
   </si>
   <si>
+    <t>プレースホルダーとして、「Username」の文字を表示する。</t>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>⑤</t>
   </si>
   <si>
@@ -381,6 +421,10 @@
   </si>
   <si>
     <t>半角文字列</t>
+  </si>
+  <si>
+    <t>プレースホルダーとして、「Password」の文字を表示する。</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>⑥</t>
@@ -562,6 +606,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プルダウンには、「全て」,「仕事」,「家事」,「趣味」を表示する。
+※タスク分類テーブルから、タスク分類名（仕事、家事、趣味）を取得する。
+例）</t>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>⑧</t>
   </si>
   <si>
@@ -692,6 +781,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プルダウンには、「全て」,「未完了」,「完了」を表示する。
+例）</t>
+    <rPh sb="14" eb="17">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>⑮</t>
   </si>
   <si>
@@ -741,6 +847,48 @@
     <t>タスクテーブルの「タスク名」</t>
     <rPh sb="12" eb="13">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザーに応じた、タスクテーブルのデータを表示する。
+初期表示・一覧画面から遷移時はタスクテーブルのデータの内、タスク状況が「未完了」のデータのみを表示する。
+また、タスク完了期限がシステム日付に近い順にソートする。</t>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>センイジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>カンリョウキゲン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1503,6 +1651,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+「タスク登録」を表示する。
+◆一覧画面の⑱タスク名のリンクをクリック時
+「タスク修正」を表示する。</t>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>タスク名入力欄</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -1516,12 +1683,38 @@
     <t>IO</t>
   </si>
   <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+空欄。
+◆一覧画面の⑱タスク名のリンクをクリック時
+一覧画面でクリックしたタスクの「タスク名」を初期値として表示する。</t>
+    <rPh sb="18" eb="20">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>説明入力欄</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+空欄。
+◆一覧画面の⑱タスク名のリンクをクリック時
+一覧画面でクリックしたタスクの「説明」を初期値として表示する。</t>
+    <rPh sb="18" eb="20">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1546,12 +1739,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+「仕事」を初期値として表示する。
+◆一覧画面の⑱タスク名のリンクをクリック時
+一覧画面でクリックしたタスクの「タスク分類」を初期値として表示する。
+プルダウンには、「仕事」,「家事」,「趣味」を表示する。
+※1 タスク分類テーブルから、タスク分類名（仕事、家事、趣味）を取得する。
+※2 例は、一覧画面の⑦タスク分類検索欄を参照。</t>
+    <rPh sb="19" eb="21">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>タスク完了期限入力欄</t>
     <rPh sb="3" eb="7">
       <t>カンリョウキゲン</t>
     </rPh>
     <rPh sb="7" eb="10">
       <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+空欄。
+◆一覧画面の⑱タスク名のリンクをクリック時
+一覧画面でクリックしたタスクの「タスク完了期限」を初期値として表示する。</t>
+    <rPh sb="64" eb="68">
+      <t>カンリョウキゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1581,6 +1806,36 @@
       <t>ミカンリョウ</t>
     </rPh>
     <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆一覧画面の⑯新規作成ボタン押下時
+「未完了」を初期値として表示し、変更不可とする。
+◆一覧画面の⑱タスク名のリンクをクリック時
+一覧画面でクリックしたタスクの「タスク状況」を初期値として表示する。
+プルダウンには、「未完了」,「完了」を表示する。
+※ 例は、一覧画面の⑭タスク状況検索欄を参照。</t>
+    <rPh sb="19" eb="22">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ヘンコウフカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
       <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1649,270 +1904,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">〇一覧画面の⑯新規作成ボタン押下時の場合
-＜1. 入力値チェック＞
-◆⑧タスク名入力欄、または⑪タスク完了期限入力欄が未入力の場合、エラーメッセージのダイアログ「タスク名、またはタスク完了期限が未入力です」を表示する。
-　⑧タスク名入力欄と⑪タスク完了期限入力欄が入力されている場合、以降の処理を実施する。
-＜2. タスク名重複チェック＞
-◆⑧タスク名入力欄に入力された値が、ログインしたユーザーの未完了のタスクに存在する場合、エラーメッセージのダイアログ「入力されたタスク名は未完了のタスクに既に存在します」を表示する。
-　⑧タスク名入力欄に入力された値が、ログインしたユーザーの未完了のタスクに存在しない場合、以降の処理を実施する。
-＜3. タスク登録時の確認ダイアログ表示＞
-◆「いいえ」を選択で、ダイアログを閉じる。
-　「はい」を選択で、以降の処理を実施する。
-＜4. タスクの登録＞
-◆⑧タスク名入力欄、⑨説明入力欄、⑩タスク分類入力欄、⑪タスク完了期限入力欄、⑬タスク状況入力欄（未完了固定）に入力された値を、ログインしたユーザーのタスクとしてタスクテーブルに登録する。
-　また、登録したタスクのタスク更新日に「タスク登録時の日時」を設定する。
-＜5. 詳細画面再表示＞
-◆タスクの登録後、一覧画面の⑯新規作成ボタン押下時の詳細画面を再表示する。（⑧タスク名入力欄、⑨説明入力欄、⑪タスク完了期限入力欄が空欄、⑩タスク分類入力欄が「仕事」、⑬タスク状況入力欄（未完了固定）の状態。）
-</t>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="92" eb="96">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="176" eb="180">
-      <t>メイニュウリョクラン</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="200" eb="203">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="240" eb="243">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="308" eb="310">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="311" eb="313">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="314" eb="316">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="328" eb="330">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="397" eb="399">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="444" eb="446">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="446" eb="449">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="457" eb="459">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="462" eb="463">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="490" eb="492">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="519" eb="522">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="523" eb="525">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="527" eb="529">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="538" eb="542">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="542" eb="545">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <rPh sb="552" eb="555">
-      <t>トウロクゴ</t>
-    </rPh>
-    <rPh sb="556" eb="560">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="573" eb="577">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="578" eb="581">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <rPh sb="613" eb="615">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="627" eb="629">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="648" eb="650">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑮修正ボタン押下</t>
     <rPh sb="1" eb="3">
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇一覧画面の⑱タスク名のリンクをクリック時
-＜1. 入力値チェック＞
-◆⑧タスク名入力欄、または⑪タスク完了期限入力欄が未入力の場合、エラーメッセージのダイアログ「タスク名、またはタスク完了期限が未入力です」を表示する。
-　⑧タスク名入力欄と⑪タスク完了期限入力欄が入力されている場合、以降の処理を実施する。
-＜2. タスク名重複チェック(⑬タスク状況入力欄に「未完了」を入力して、⑮修正ボタンを押下した場合のみ)＞
-◆⑧タスク名入力欄に入力された値が、ログインしたユーザーの未完了のタスクに存在する場合、エラーメッセージのダイアログ「入力されたタスク名は未完了のタスクに既に存在します」を表示する。
-　⑧タスク名入力欄に入力された値が、ログインしたユーザーの未完了のタスクに存在しない場合、以降の処理を実施する。
-＜3. タスク修正時の確認ダイアログ表示＞
-◆「いいえ」を選択で、ダイアログを閉じる。
-　「はい」を選択で、以降の処理を実施する。
-＜4. タスクの修正＞
-◆一覧画面でタスク名をクリックしたタスクのタスク名、説明、タスク分類、タスク完了期限、タスク状況を、⑧タスク名入力欄、⑨説明入力欄、⑩タスク分類入力欄、⑪タスク完了期限入力欄、⑬タスク状況入力欄に入力された値に更新する。
-　また、修正したタスクのタスク更新日を「修正時の日時」に更新する。
-※タスク状況が「完了」のタスクを「未完了」に修正した場合、修正したタスクのタスク完了日を削除する。
-　タスク状況が「未完了」のタスクを「完了」に修正した場合、修正したタスクのタスク完了日に、「修正時の日時」を設定する。
-＜5. 一覧画面に遷移＞
-◆タスクの修正後、一覧画面に遷移する。</t>
-    <rPh sb="175" eb="177">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="177" eb="180">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="182" eb="185">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="367" eb="369">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="435" eb="437">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="448" eb="449">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="463" eb="464">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="465" eb="467">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="471" eb="473">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="477" eb="481">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="485" eb="487">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="544" eb="546">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="554" eb="556">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="578" eb="580">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="588" eb="590">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="592" eb="594">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="601" eb="604">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="606" eb="608">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="610" eb="612">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="613" eb="615">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="624" eb="627">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="628" eb="630">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="642" eb="643">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="663" eb="665">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="674" eb="676">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="676" eb="677">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="688" eb="690">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="699" eb="701">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="713" eb="715">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="715" eb="716">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="717" eb="721">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="722" eb="724">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1929,6 +1926,13 @@
     <t>記載日</t>
   </si>
   <si>
+    <t>修正内容</t>
+    <rPh sb="0" eb="4">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ステータス</t>
   </si>
   <si>
@@ -1942,7 +1946,60 @@
 </t>
   </si>
   <si>
+    <t>画面遷移図に記載の番号は、各画面シートの画面レイアウト・項目説明欄の番号を参照しています。
+画面遷移図に番号に対する補足の説明を追加しました。</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="46" eb="51">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再レビュー中</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>全体</t>
+  </si>
+  <si>
+    <t>備考欄の文言が統一されてないのが気になる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄の文言を統一しました。</t>
+    <rPh sb="0" eb="3">
+      <t>ビコウラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>一覧画面、詳細画面</t>
@@ -1951,330 +2008,295 @@
     <t>一覧ではタスク期限は入力欄はテキストボックスになっているが詳細画面ではその他になっているが問題ないか？</t>
   </si>
   <si>
-    <t>修正内容</t>
+    <t>詳細画面のタスク期限をテキストボックスに修正しました。</t>
     <rPh sb="0" eb="4">
-      <t>シュウセイナイヨウ</t>
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移図に記載の番号は、各画面シートの画面レイアウト・項目説明欄の番号を参照しています。
-画面遷移図に番号に対する補足の説明を追加しました。</t>
+    <t>画面遷移図</t>
+  </si>
+  <si>
+    <t>画面一覧表</t>
+  </si>
+  <si>
+    <t>これはなくても良いが
+各シートに飛ぶリンクが貼ってあると飛べてよい。</t>
+  </si>
+  <si>
+    <t>画面一覧表の、画面名を各画面シートへのリンクに修正しました。</t>
     <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="46" eb="51">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ホソク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ツイカ</t>
+      <t>ガメンイチランヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ガメンメイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細画面のタスク期限をテキストボックスに修正しました。</t>
-    <rPh sb="0" eb="4">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュウセイ</t>
+    <t>詳細→一覧に遷移するときは戻るだけになっている。
+登録・更新後一覧に戻るのであれば記載すべき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細→一覧の遷移の箇所のテキストボックスの幅が狭く、「⑮修正ボタン押下」の文言が隠れてしまっていたため、テキストボックスの幅を大きくしました。</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="27" eb="35">
+      <t>15シュウセイボタンオウカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面遷移図
-ログイン画面
-一覧画面
-詳細画面</t>
+画面一覧表</t>
     <rPh sb="0" eb="5">
       <t>ガメンセンイズ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ショウサイガメン</t>
+    <rPh sb="6" eb="11">
+      <t>ガメンイチランヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー指摘対応</t>
-    <rPh sb="4" eb="8">
-      <t>シテキタイオウ</t>
+    <t>〇一覧画面の⑯新規作成ボタン押下時の場合
+＜1. 入力値チェック＞
+◆⑧タスク名入力欄、または⑪タスク完了期限入力欄が未入力の場合、エラーメッセージのダイアログ「タスク名、またはタスク完了期限が未入力です」を表示する。
+　⑧タスク名入力欄と⑪タスク完了期限入力欄が入力されている場合、以降の処理を実施する。
+＜2. タスク登録時の確認ダイアログ表示＞
+◆「いいえ」を選択で、ダイアログを閉じる。
+　「はい」を選択で、以降の処理を実施する。
+＜3. タスクの登録＞
+◆⑧タスク名入力欄、⑨説明入力欄、⑩タスク分類入力欄、⑪タスク完了期限入力欄、⑬タスク状況入力欄（未完了固定）に入力された値を、ログインしたユーザーのタスクとしてタスクテーブルに登録する。
+　また、登録したタスクのタスク更新日に「タスク登録時の日時」を設定する。
+＜4. 詳細画面再表示＞
+◆タスクの登録後、一覧画面の⑯新規作成ボタン押下時の詳細画面を再表示する。（⑧タスク名入力欄、⑨説明入力欄、⑪タスク完了期限入力欄が空欄、⑩タスク分類入力欄が「仕事」、⑬タスク状況入力欄（未完了固定）の状態。）</t>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>カンリョウキゲン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="280" eb="283">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="353" eb="356">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="372" eb="376">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="376" eb="379">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <rPh sb="386" eb="389">
+      <t>トウロクゴ</t>
+    </rPh>
+    <rPh sb="390" eb="394">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="407" eb="411">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="412" eb="415">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="461" eb="463">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="482" eb="484">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松永</t>
+    <t>〇一覧画面の⑱タスク名のリンクをクリック時
+＜1. 入力値チェック＞
+◆⑧タスク名入力欄、または⑪タスク完了期限入力欄が未入力の場合、エラーメッセージのダイアログ「タスク名、またはタスク完了期限が未入力です」を表示する。
+　⑧タスク名入力欄と⑪タスク完了期限入力欄が入力されている場合、以降の処理を実施する。
+＜2. タスク修正時の確認ダイアログ表示＞
+◆「いいえ」を選択で、ダイアログを閉じる。
+　「はい」を選択で、以降の処理を実施する。
+＜3. タスクの修正＞
+◆一覧画面でタスク名をクリックしたタスクのタスク名、説明、タスク分類、タスク完了期限、タスク状況を、⑧タスク名入力欄、⑨説明入力欄、⑩タスク分類入力欄、⑪タスク完了期限入力欄、⑬タスク状況入力欄に入力された値に更新する。
+　また、修正したタスクのタスク更新日を「修正時の日時」に更新する。
+※タスク状況が「完了」のタスクを「未完了」に修正した場合、修正したタスクのタスク完了日を削除する。
+　タスク状況が「未完了」のタスクを「完了」に修正した場合、修正したタスクのタスク完了日に、「修正時の日時」を設定する。
+＜4. 一覧画面に遷移＞
+◆タスクの修正後、一覧画面に遷移する。</t>
+    <rPh sb="163" eb="165">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="273" eb="277">
+      <t>カンリョウキゲン</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="350" eb="352">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="384" eb="386">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="397" eb="400">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="402" eb="404">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="406" eb="408">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="420" eb="423">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="438" eb="439">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="459" eb="461">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="470" eb="472">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="472" eb="473">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="484" eb="486">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="495" eb="497">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="509" eb="511">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="511" eb="512">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="513" eb="517">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="518" eb="520">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考欄の文言が統一されてないのが気になる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再レビュー中</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考欄の文言を統一しました。</t>
-    <rPh sb="0" eb="3">
-      <t>ビコウラン</t>
-    </rPh>
+    <t>タスクの登録,修正時のタスク名重複チェックを削除しました。</t>
     <rPh sb="4" eb="6">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-「タスク登録」を表示する。
-◆一覧画面の⑱タスク名のリンクをクリック時
-「タスク修正」を表示する。</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュウセイジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウフク</t>
+    </rPh>
     <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
-◆一覧画面の⑱タスク名のリンクをクリック時
-一覧画面でクリックしたタスクの「タスク名」を初期値として表示する。</t>
-    <rPh sb="18" eb="20">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
-◆一覧画面の⑱タスク名のリンクをクリック時
-一覧画面でクリックしたタスクの「説明」を初期値として表示する。</t>
-    <rPh sb="18" eb="20">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
-◆一覧画面の⑱タスク名のリンクをクリック時
-一覧画面でクリックしたタスクの「タスク完了期限」を初期値として表示する。</t>
-    <rPh sb="64" eb="68">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインしたユーザーに応じた、タスクテーブルのデータを表示する。
-初期表示・一覧画面から遷移時はタスクテーブルのデータの内、タスク状況が「未完了」のデータのみを表示する。
-また、タスク完了期限がシステム日付に近い順にソートする。</t>
-    <rPh sb="11" eb="12">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>センイジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="92" eb="96">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンには、「全て」,「仕事」,「家事」,「趣味」を表示する。
-※タスク分類テーブルから、タスク分類名（仕事、家事、趣味）を取得する。
-例）</t>
-    <rPh sb="9" eb="10">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュミ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シュミ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンには、「全て」,「未完了」,「完了」を表示する。
-例）</t>
-    <rPh sb="14" eb="17">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレースホルダーとして、「Username」の文字を表示する。</t>
-    <rPh sb="23" eb="25">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレースホルダーとして、「Password」の文字を表示する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-「仕事」を初期値として表示する。
-◆一覧画面の⑱タスク名のリンクをクリック時
-一覧画面でクリックしたタスクの「タスク分類」を初期値として表示する。
-プルダウンには、「仕事」,「家事」,「趣味」を表示する。
-※1 タスク分類テーブルから、タスク分類名（仕事、家事、趣味）を取得する。
-※2 例は、一覧画面の⑦タスク分類検索欄を参照。</t>
-    <rPh sb="19" eb="21">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆一覧画面の⑯新規作成ボタン押下時
-「未完了」を初期値として表示し、変更不可とする。
-◆一覧画面の⑱タスク名のリンクをクリック時
-一覧画面でクリックしたタスクの「タスク状況」を初期値として表示する。
-プルダウンには、「未完了」,「完了」を表示する。
-※ 例は、一覧画面の⑭タスク状況検索欄を参照。</t>
-    <rPh sb="19" eb="22">
-      <t>ミカンリョウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>ヘンコウフカ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ジョウキョウ</t>
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2287,7 +2309,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2369,6 +2391,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2934,8 +2972,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3043,12 +3082,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3070,6 +3106,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3344,7 +3383,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -4178,7 +4218,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>568571</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4194,7 +4234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6043248" y="1824698"/>
-          <a:ext cx="1230923" cy="438442"/>
+          <a:ext cx="1230923" cy="598462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15693,7 +15733,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1950720" y="31882080"/>
+          <a:off x="1950720" y="32125920"/>
           <a:ext cx="3356610" cy="711237"/>
           <a:chOff x="1272540" y="29260800"/>
           <a:chExt cx="3356610" cy="711237"/>
@@ -24532,50 +24572,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>157665</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>13904</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46721</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F41F9A-2700-C1FC-E431-442A142AC482}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10664300" y="3316941"/>
-          <a:ext cx="2922169" cy="1391427"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
@@ -25300,16 +25296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>2319595</xdr:rowOff>
+      <xdr:rowOff>1252795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>3143248</xdr:rowOff>
+      <xdr:rowOff>2076448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25325,14 +25321,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4617720" y="36502915"/>
+          <a:off x="4693920" y="34818895"/>
           <a:ext cx="1325880" cy="823653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25345,15 +25341,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>91439</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>2081860</xdr:rowOff>
+      <xdr:rowOff>1373200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>495392</xdr:colOff>
+      <xdr:colOff>480152</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>3063240</xdr:rowOff>
+      <xdr:rowOff>2354580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25369,14 +25365,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4617719" y="31350280"/>
+          <a:off x="4602479" y="30641620"/>
           <a:ext cx="1577433" cy="981380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26813,7 +26809,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
@@ -26873,7 +26869,7 @@
       <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>45717</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -26893,38 +26889,58 @@
       <c r="B5" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>45731</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="66.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="44">
+        <v>45733</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="60.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="44">
+        <v>45738</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -27075,7 +27091,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
@@ -27091,34 +27107,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19.8">
       <c r="A1" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1"/>
     <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="1:21">
       <c r="B4" s="10">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>17</v>
+      <c r="C4" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -27127,24 +27143,24 @@
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>19</v>
+      <c r="C5" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <f t="shared" ref="B6" si="0">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>22</v>
+      <c r="C6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -27172,6 +27188,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" location="ログイン画面!A1" display="ログイン画面" xr:uid="{291F037D-D564-4085-B1D9-28C4C09EC7F1}"/>
+    <hyperlink ref="C5" location="一覧画面!A1" display="一覧画面" xr:uid="{8E1A36AC-F29B-4D2C-AF14-A6CD50431431}"/>
+    <hyperlink ref="C6" location="詳細画面!A1" display="詳細画面" xr:uid="{A08B6CCD-6786-431C-8F5E-B2E29B7878DD}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -27185,14 +27206,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.8">
       <c r="A1" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -27210,7 +27231,7 @@
   <dimension ref="A1:BS52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK43" sqref="AK43:BS43"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -27222,7 +27243,7 @@
   <sheetData>
     <row r="1" spans="1:71" ht="18">
       <c r="A1" s="66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -27261,13 +27282,13 @@
       <c r="AG1" s="68"/>
       <c r="AH1" s="68"/>
       <c r="AI1" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ1" s="67"/>
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN1" s="68"/>
       <c r="AO1" s="68"/>
@@ -27304,7 +27325,7 @@
     </row>
     <row r="2" spans="1:71" ht="18">
       <c r="A2" s="69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -27379,7 +27400,7 @@
     </row>
     <row r="3" spans="1:71" ht="18">
       <c r="A3" s="68" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -27454,7 +27475,7 @@
     </row>
     <row r="4" spans="1:71" ht="18">
       <c r="A4" s="69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -29792,7 +29813,7 @@
     </row>
     <row r="36" spans="1:71" ht="18">
       <c r="A36" s="69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
@@ -29867,11 +29888,11 @@
     </row>
     <row r="37" spans="1:71" ht="18">
       <c r="A37" s="67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
@@ -29882,7 +29903,7 @@
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
       <c r="L37" s="67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
@@ -29891,37 +29912,37 @@
       <c r="Q37" s="67"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T37" s="67"/>
       <c r="U37" s="67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V37" s="67"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67"/>
       <c r="Y37" s="71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z37" s="71"/>
       <c r="AA37" s="71"/>
       <c r="AB37" s="71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC37" s="71"/>
       <c r="AD37" s="71"/>
       <c r="AE37" s="67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AF37" s="67"/>
       <c r="AG37" s="67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH37" s="67"/>
       <c r="AI37" s="67"/>
       <c r="AJ37" s="67"/>
       <c r="AK37" s="67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL37" s="67"/>
       <c r="AM37" s="67"/>
@@ -29960,11 +29981,11 @@
     </row>
     <row r="38" spans="1:71" ht="30" customHeight="1">
       <c r="A38" s="76" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -29975,7 +29996,7 @@
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -29984,31 +30005,31 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T38" s="62"/>
       <c r="U38" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
@@ -30051,11 +30072,11 @@
     </row>
     <row r="39" spans="1:71" ht="30" customHeight="1">
       <c r="A39" s="76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -30066,7 +30087,7 @@
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
       <c r="L39" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
@@ -30075,31 +30096,31 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T39" s="62"/>
       <c r="U39" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
@@ -30142,11 +30163,11 @@
     </row>
     <row r="40" spans="1:71" ht="30" customHeight="1">
       <c r="A40" s="76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40" s="76"/>
       <c r="C40" s="61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
@@ -30157,7 +30178,7 @@
       <c r="J40" s="61"/>
       <c r="K40" s="61"/>
       <c r="L40" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
@@ -30166,31 +30187,31 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T40" s="62"/>
       <c r="U40" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
       <c r="X40" s="65"/>
       <c r="Y40" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z40" s="58"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH40" s="60"/>
       <c r="AI40" s="60"/>
@@ -30233,11 +30254,11 @@
     </row>
     <row r="41" spans="1:71" ht="36.6" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="61" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -30248,7 +30269,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="61"/>
       <c r="L41" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
@@ -30257,11 +30278,11 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="S41" s="62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" s="62"/>
       <c r="U41" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
@@ -30277,17 +30298,17 @@
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH41" s="60"/>
       <c r="AI41" s="60"/>
       <c r="AJ41" s="60"/>
       <c r="AK41" s="70" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="AL41" s="70"/>
       <c r="AM41" s="70"/>
@@ -30326,11 +30347,11 @@
     </row>
     <row r="42" spans="1:71" ht="36.6" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
@@ -30341,7 +30362,7 @@
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
       <c r="L42" s="62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M42" s="62"/>
       <c r="N42" s="62"/>
@@ -30350,11 +30371,11 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="S42" s="62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
@@ -30370,17 +30391,17 @@
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH42" s="60"/>
       <c r="AI42" s="60"/>
       <c r="AJ42" s="60"/>
       <c r="AK42" s="70" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="AL42" s="70"/>
       <c r="AM42" s="70"/>
@@ -30419,11 +30440,11 @@
     </row>
     <row r="43" spans="1:71" ht="30" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="61" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
@@ -30434,7 +30455,7 @@
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
       <c r="L43" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M43" s="62"/>
       <c r="N43" s="62"/>
@@ -30443,31 +30464,31 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="S43" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T43" s="62"/>
       <c r="U43" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH43" s="60"/>
       <c r="AI43" s="60"/>
@@ -30510,7 +30531,7 @@
     </row>
     <row r="44" spans="1:71" ht="18">
       <c r="A44" s="73" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
@@ -30585,7 +30606,7 @@
     </row>
     <row r="45" spans="1:71" ht="43.5" customHeight="1">
       <c r="A45" s="72" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
@@ -30598,7 +30619,7 @@
       <c r="J45" s="72"/>
       <c r="K45" s="72"/>
       <c r="L45" s="72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M45" s="72"/>
       <c r="N45" s="72"/>
@@ -30662,7 +30683,7 @@
     </row>
     <row r="46" spans="1:71" ht="43.5" customHeight="1">
       <c r="A46" s="72" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
@@ -30675,7 +30696,7 @@
       <c r="J46" s="72"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M46" s="72"/>
       <c r="N46" s="72"/>
@@ -30739,7 +30760,7 @@
     </row>
     <row r="47" spans="1:71" ht="43.5" customHeight="1">
       <c r="A47" s="72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B47" s="72"/>
       <c r="C47" s="72"/>
@@ -30752,7 +30773,7 @@
       <c r="J47" s="72"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M47" s="72"/>
       <c r="N47" s="72"/>
@@ -30816,7 +30837,7 @@
     </row>
     <row r="48" spans="1:71" ht="146.4" customHeight="1">
       <c r="A48" s="72" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" s="72"/>
       <c r="C48" s="72"/>
@@ -30829,7 +30850,7 @@
       <c r="J48" s="72"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M48" s="72"/>
       <c r="N48" s="72"/>
@@ -31018,7 +31039,7 @@
   <dimension ref="A1:BV74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK46" sqref="AK46:BV46"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31034,7 +31055,7 @@
   <sheetData>
     <row r="1" spans="1:74" ht="18">
       <c r="A1" s="66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -31096,13 +31117,13 @@
       <c r="BD1" s="68"/>
       <c r="BE1" s="68"/>
       <c r="BF1" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BG1" s="67"/>
       <c r="BH1" s="67"/>
       <c r="BI1" s="67"/>
       <c r="BJ1" s="68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BK1" s="68"/>
       <c r="BL1" s="68"/>
@@ -31119,7 +31140,7 @@
     </row>
     <row r="2" spans="1:74" ht="18">
       <c r="A2" s="69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -31197,7 +31218,7 @@
     </row>
     <row r="3" spans="1:74" ht="18">
       <c r="A3" s="68" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -31275,7 +31296,7 @@
     </row>
     <row r="4" spans="1:74" ht="18">
       <c r="A4" s="69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -33253,7 +33274,7 @@
     </row>
     <row r="30" spans="1:74" ht="18">
       <c r="A30" s="69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
@@ -33331,11 +33352,11 @@
     </row>
     <row r="31" spans="1:74" ht="18">
       <c r="A31" s="67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="67"/>
@@ -33346,7 +33367,7 @@
       <c r="J31" s="67"/>
       <c r="K31" s="67"/>
       <c r="L31" s="67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M31" s="67"/>
       <c r="N31" s="67"/>
@@ -33355,37 +33376,37 @@
       <c r="Q31" s="67"/>
       <c r="R31" s="67"/>
       <c r="S31" s="67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T31" s="67"/>
       <c r="U31" s="67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V31" s="67"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z31" s="71"/>
       <c r="AA31" s="71"/>
       <c r="AB31" s="110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC31" s="111"/>
       <c r="AD31" s="112"/>
       <c r="AE31" s="67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AF31" s="67"/>
       <c r="AG31" s="67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH31" s="67"/>
       <c r="AI31" s="67"/>
       <c r="AJ31" s="67"/>
       <c r="AK31" s="67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL31" s="67"/>
       <c r="AM31" s="67"/>
@@ -33427,11 +33448,11 @@
     </row>
     <row r="32" spans="1:74" ht="30" customHeight="1">
       <c r="A32" s="74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="75"/>
       <c r="C32" s="61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
@@ -33442,7 +33463,7 @@
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
       <c r="L32" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -33451,31 +33472,31 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="S32" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T32" s="62"/>
       <c r="U32" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V32" s="64"/>
       <c r="W32" s="64"/>
       <c r="X32" s="65"/>
       <c r="Y32" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="58"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC32" s="58"/>
       <c r="AD32" s="58"/>
       <c r="AE32" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF32" s="59"/>
       <c r="AG32" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH32" s="60"/>
       <c r="AI32" s="60"/>
@@ -33521,11 +33542,11 @@
     </row>
     <row r="33" spans="1:74" ht="30" customHeight="1">
       <c r="A33" s="74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
@@ -33536,7 +33557,7 @@
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
       <c r="L33" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -33545,31 +33566,31 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T33" s="62"/>
       <c r="U33" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V33" s="64"/>
       <c r="W33" s="64"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z33" s="58"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC33" s="58"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH33" s="60"/>
       <c r="AI33" s="60"/>
@@ -33615,11 +33636,11 @@
     </row>
     <row r="34" spans="1:74" ht="30" customHeight="1">
       <c r="A34" s="74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
@@ -33630,7 +33651,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -33639,31 +33660,31 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="S34" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T34" s="62"/>
       <c r="U34" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V34" s="64"/>
       <c r="W34" s="64"/>
       <c r="X34" s="65"/>
       <c r="Y34" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z34" s="58"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC34" s="58"/>
       <c r="AD34" s="58"/>
       <c r="AE34" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF34" s="59"/>
       <c r="AG34" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH34" s="60"/>
       <c r="AI34" s="60"/>
@@ -33709,11 +33730,11 @@
     </row>
     <row r="35" spans="1:74" ht="30" customHeight="1">
       <c r="A35" s="74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="86" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
@@ -33724,7 +33745,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="88"/>
       <c r="L35" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
@@ -33733,11 +33754,11 @@
       <c r="Q35" s="64"/>
       <c r="R35" s="65"/>
       <c r="S35" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T35" s="65"/>
       <c r="U35" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
@@ -33753,17 +33774,17 @@
       <c r="AC35" s="58"/>
       <c r="AD35" s="58"/>
       <c r="AE35" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF35" s="59"/>
       <c r="AG35" s="58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH35" s="58"/>
       <c r="AI35" s="58"/>
       <c r="AJ35" s="58"/>
       <c r="AK35" s="113" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AL35" s="113"/>
       <c r="AM35" s="113"/>
@@ -33805,11 +33826,11 @@
     </row>
     <row r="36" spans="1:74" ht="36.75" customHeight="1">
       <c r="A36" s="74" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="86" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
@@ -33820,7 +33841,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="88"/>
       <c r="L36" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -33829,31 +33850,31 @@
       <c r="Q36" s="64"/>
       <c r="R36" s="65"/>
       <c r="S36" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V36" s="64"/>
       <c r="W36" s="64"/>
       <c r="X36" s="65"/>
       <c r="Y36" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z36" s="58"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC36" s="58"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH36" s="60"/>
       <c r="AI36" s="60"/>
@@ -33899,11 +33920,11 @@
     </row>
     <row r="37" spans="1:74" ht="30" customHeight="1">
       <c r="A37" s="74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="86" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -33914,7 +33935,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="88"/>
       <c r="L37" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
@@ -33923,11 +33944,11 @@
       <c r="Q37" s="64"/>
       <c r="R37" s="65"/>
       <c r="S37" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V37" s="64"/>
       <c r="W37" s="64"/>
@@ -33943,11 +33964,11 @@
       <c r="AC37" s="58"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
@@ -33993,11 +34014,11 @@
     </row>
     <row r="38" spans="1:74" ht="108.6" customHeight="1">
       <c r="A38" s="74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="86" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -34008,7 +34029,7 @@
       <c r="J38" s="87"/>
       <c r="K38" s="88"/>
       <c r="L38" s="63" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
@@ -34017,37 +34038,37 @@
       <c r="Q38" s="64"/>
       <c r="R38" s="65"/>
       <c r="S38" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="58" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AH38" s="58"/>
       <c r="AI38" s="58"/>
       <c r="AJ38" s="58"/>
       <c r="AK38" s="108" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="AL38" s="109"/>
       <c r="AM38" s="109"/>
@@ -34089,11 +34110,11 @@
     </row>
     <row r="39" spans="1:74" ht="30" customHeight="1">
       <c r="A39" s="74" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="86" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -34104,7 +34125,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="88"/>
       <c r="L39" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
@@ -34113,31 +34134,31 @@
       <c r="Q39" s="64"/>
       <c r="R39" s="65"/>
       <c r="S39" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T39" s="65"/>
       <c r="U39" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
@@ -34183,11 +34204,11 @@
     </row>
     <row r="40" spans="1:74" ht="30" customHeight="1">
       <c r="A40" s="74" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="86" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
@@ -34198,7 +34219,7 @@
       <c r="J40" s="87"/>
       <c r="K40" s="88"/>
       <c r="L40" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
@@ -34207,31 +34228,31 @@
       <c r="Q40" s="64"/>
       <c r="R40" s="65"/>
       <c r="S40" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T40" s="65"/>
       <c r="U40" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
       <c r="X40" s="65"/>
       <c r="Y40" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z40" s="58"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH40" s="60"/>
       <c r="AI40" s="60"/>
@@ -34277,11 +34298,11 @@
     </row>
     <row r="41" spans="1:74" ht="30" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="86" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
@@ -34292,7 +34313,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="88"/>
       <c r="L41" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M41" s="64"/>
       <c r="N41" s="64"/>
@@ -34301,31 +34322,31 @@
       <c r="Q41" s="64"/>
       <c r="R41" s="65"/>
       <c r="S41" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" s="65"/>
       <c r="U41" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
       <c r="X41" s="65"/>
       <c r="Y41" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z41" s="58"/>
       <c r="AA41" s="58"/>
       <c r="AB41" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH41" s="60"/>
       <c r="AI41" s="60"/>
@@ -34371,11 +34392,11 @@
     </row>
     <row r="42" spans="1:74" ht="30" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="86" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -34386,7 +34407,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="88"/>
       <c r="L42" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M42" s="64"/>
       <c r="N42" s="64"/>
@@ -34395,31 +34416,31 @@
       <c r="Q42" s="64"/>
       <c r="R42" s="65"/>
       <c r="S42" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T42" s="65"/>
       <c r="U42" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
       <c r="X42" s="65"/>
       <c r="Y42" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z42" s="58"/>
       <c r="AA42" s="58"/>
       <c r="AB42" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH42" s="60"/>
       <c r="AI42" s="60"/>
@@ -34465,11 +34486,11 @@
     </row>
     <row r="43" spans="1:74" ht="30" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="86" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -34480,7 +34501,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="88"/>
       <c r="L43" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M43" s="64"/>
       <c r="N43" s="64"/>
@@ -34489,31 +34510,31 @@
       <c r="Q43" s="64"/>
       <c r="R43" s="65"/>
       <c r="S43" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T43" s="65"/>
       <c r="U43" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH43" s="60"/>
       <c r="AI43" s="60"/>
@@ -34559,11 +34580,11 @@
     </row>
     <row r="44" spans="1:74" ht="30" customHeight="1">
       <c r="A44" s="74" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="86" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
@@ -34574,7 +34595,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="88"/>
       <c r="L44" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
@@ -34583,31 +34604,31 @@
       <c r="Q44" s="64"/>
       <c r="R44" s="65"/>
       <c r="S44" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T44" s="65"/>
       <c r="U44" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V44" s="64"/>
       <c r="W44" s="64"/>
       <c r="X44" s="65"/>
       <c r="Y44" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC44" s="58"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF44" s="59"/>
       <c r="AG44" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH44" s="60"/>
       <c r="AI44" s="60"/>
@@ -34653,11 +34674,11 @@
     </row>
     <row r="45" spans="1:74" ht="94.2" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="86" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
@@ -34668,7 +34689,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="88"/>
       <c r="L45" s="63" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
@@ -34677,37 +34698,37 @@
       <c r="Q45" s="64"/>
       <c r="R45" s="65"/>
       <c r="S45" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T45" s="65"/>
       <c r="U45" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V45" s="64"/>
       <c r="W45" s="64"/>
       <c r="X45" s="65"/>
       <c r="Y45" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z45" s="58"/>
       <c r="AA45" s="58"/>
       <c r="AB45" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC45" s="58"/>
       <c r="AD45" s="58"/>
       <c r="AE45" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF45" s="59"/>
       <c r="AG45" s="58" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AH45" s="58"/>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="108" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="AL45" s="109"/>
       <c r="AM45" s="109"/>
@@ -34749,11 +34770,11 @@
     </row>
     <row r="46" spans="1:74" ht="30" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="86" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -34764,7 +34785,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="88"/>
       <c r="L46" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
@@ -34773,31 +34794,31 @@
       <c r="Q46" s="64"/>
       <c r="R46" s="65"/>
       <c r="S46" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T46" s="65"/>
       <c r="U46" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V46" s="64"/>
       <c r="W46" s="64"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z46" s="58"/>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC46" s="58"/>
       <c r="AD46" s="58"/>
       <c r="AE46" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF46" s="59"/>
       <c r="AG46" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
@@ -34843,11 +34864,11 @@
     </row>
     <row r="47" spans="1:74" ht="30" customHeight="1">
       <c r="A47" s="74" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="86" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -34858,7 +34879,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="88"/>
       <c r="L47" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
@@ -34867,31 +34888,31 @@
       <c r="Q47" s="64"/>
       <c r="R47" s="65"/>
       <c r="S47" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T47" s="65"/>
       <c r="U47" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
       <c r="X47" s="65"/>
       <c r="Y47" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC47" s="58"/>
       <c r="AD47" s="58"/>
       <c r="AE47" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF47" s="59"/>
       <c r="AG47" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
@@ -34937,11 +34958,11 @@
     </row>
     <row r="48" spans="1:74" ht="30" customHeight="1">
       <c r="A48" s="74" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B48" s="75"/>
       <c r="C48" s="86" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -34952,7 +34973,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="88"/>
       <c r="L48" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
@@ -34961,31 +34982,31 @@
       <c r="Q48" s="64"/>
       <c r="R48" s="65"/>
       <c r="S48" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T48" s="65"/>
       <c r="U48" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V48" s="64"/>
       <c r="W48" s="64"/>
       <c r="X48" s="65"/>
       <c r="Y48" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z48" s="58"/>
       <c r="AA48" s="58"/>
       <c r="AB48" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC48" s="58"/>
       <c r="AD48" s="58"/>
       <c r="AE48" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH48" s="60"/>
       <c r="AI48" s="60"/>
@@ -35031,11 +35052,11 @@
     </row>
     <row r="49" spans="1:74" ht="30" customHeight="1">
       <c r="A49" s="102" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B49" s="103"/>
       <c r="C49" s="86" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
@@ -35046,7 +35067,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="88"/>
       <c r="L49" s="63" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
@@ -35055,11 +35076,11 @@
       <c r="Q49" s="64"/>
       <c r="R49" s="65"/>
       <c r="S49" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T49" s="65"/>
       <c r="U49" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V49" s="64"/>
       <c r="W49" s="64"/>
@@ -35075,17 +35096,17 @@
       <c r="AC49" s="58"/>
       <c r="AD49" s="58"/>
       <c r="AE49" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF49" s="59"/>
       <c r="AG49" s="58" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH49" s="58"/>
       <c r="AI49" s="58"/>
       <c r="AJ49" s="58"/>
       <c r="AK49" s="90" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="AL49" s="91"/>
       <c r="AM49" s="91"/>
@@ -35129,7 +35150,7 @@
       <c r="A50" s="104"/>
       <c r="B50" s="105"/>
       <c r="C50" s="86" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
@@ -35140,7 +35161,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M50" s="64"/>
       <c r="N50" s="64"/>
@@ -35149,11 +35170,11 @@
       <c r="Q50" s="64"/>
       <c r="R50" s="65"/>
       <c r="S50" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T50" s="65"/>
       <c r="U50" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V50" s="64"/>
       <c r="W50" s="64"/>
@@ -35169,11 +35190,11 @@
       <c r="AC50" s="58"/>
       <c r="AD50" s="58"/>
       <c r="AE50" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="58" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AH50" s="58"/>
       <c r="AI50" s="58"/>
@@ -35221,7 +35242,7 @@
       <c r="A51" s="104"/>
       <c r="B51" s="105"/>
       <c r="C51" s="86" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D51" s="87"/>
       <c r="E51" s="87"/>
@@ -35232,7 +35253,7 @@
       <c r="J51" s="87"/>
       <c r="K51" s="88"/>
       <c r="L51" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M51" s="64"/>
       <c r="N51" s="64"/>
@@ -35241,11 +35262,11 @@
       <c r="Q51" s="64"/>
       <c r="R51" s="65"/>
       <c r="S51" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T51" s="65"/>
       <c r="U51" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V51" s="64"/>
       <c r="W51" s="64"/>
@@ -35261,11 +35282,11 @@
       <c r="AC51" s="58"/>
       <c r="AD51" s="58"/>
       <c r="AE51" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF51" s="59"/>
       <c r="AG51" s="58" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AH51" s="58"/>
       <c r="AI51" s="58"/>
@@ -35313,7 +35334,7 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="86" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D52" s="87"/>
       <c r="E52" s="87"/>
@@ -35324,7 +35345,7 @@
       <c r="J52" s="87"/>
       <c r="K52" s="88"/>
       <c r="L52" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M52" s="64"/>
       <c r="N52" s="64"/>
@@ -35333,31 +35354,31 @@
       <c r="Q52" s="64"/>
       <c r="R52" s="65"/>
       <c r="S52" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T52" s="65"/>
       <c r="U52" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V52" s="64"/>
       <c r="W52" s="64"/>
       <c r="X52" s="65"/>
       <c r="Y52" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z52" s="58"/>
       <c r="AA52" s="58"/>
       <c r="AB52" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC52" s="58"/>
       <c r="AD52" s="58"/>
       <c r="AE52" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF52" s="59"/>
       <c r="AG52" s="58" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AH52" s="58"/>
       <c r="AI52" s="58"/>
@@ -35405,7 +35426,7 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="86" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D53" s="87"/>
       <c r="E53" s="87"/>
@@ -35416,7 +35437,7 @@
       <c r="J53" s="87"/>
       <c r="K53" s="88"/>
       <c r="L53" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M53" s="64"/>
       <c r="N53" s="64"/>
@@ -35425,31 +35446,31 @@
       <c r="Q53" s="64"/>
       <c r="R53" s="65"/>
       <c r="S53" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T53" s="65"/>
       <c r="U53" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V53" s="64"/>
       <c r="W53" s="64"/>
       <c r="X53" s="65"/>
       <c r="Y53" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z53" s="58"/>
       <c r="AA53" s="58"/>
       <c r="AB53" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC53" s="58"/>
       <c r="AD53" s="58"/>
       <c r="AE53" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF53" s="59"/>
       <c r="AG53" s="58" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AH53" s="58"/>
       <c r="AI53" s="58"/>
@@ -35497,7 +35518,7 @@
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
       <c r="C54" s="86" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -35508,7 +35529,7 @@
       <c r="J54" s="87"/>
       <c r="K54" s="88"/>
       <c r="L54" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M54" s="64"/>
       <c r="N54" s="64"/>
@@ -35517,31 +35538,31 @@
       <c r="Q54" s="64"/>
       <c r="R54" s="65"/>
       <c r="S54" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T54" s="65"/>
       <c r="U54" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V54" s="64"/>
       <c r="W54" s="64"/>
       <c r="X54" s="65"/>
       <c r="Y54" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z54" s="58"/>
       <c r="AA54" s="58"/>
       <c r="AB54" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC54" s="58"/>
       <c r="AD54" s="58"/>
       <c r="AE54" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF54" s="59"/>
       <c r="AG54" s="58" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AH54" s="58"/>
       <c r="AI54" s="58"/>
@@ -35589,7 +35610,7 @@
       <c r="A55" s="104"/>
       <c r="B55" s="105"/>
       <c r="C55" s="86" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D55" s="87"/>
       <c r="E55" s="87"/>
@@ -35600,7 +35621,7 @@
       <c r="J55" s="87"/>
       <c r="K55" s="88"/>
       <c r="L55" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M55" s="64"/>
       <c r="N55" s="64"/>
@@ -35609,11 +35630,11 @@
       <c r="Q55" s="64"/>
       <c r="R55" s="65"/>
       <c r="S55" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T55" s="65"/>
       <c r="U55" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V55" s="64"/>
       <c r="W55" s="64"/>
@@ -35629,11 +35650,11 @@
       <c r="AC55" s="58"/>
       <c r="AD55" s="58"/>
       <c r="AE55" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF55" s="59"/>
       <c r="AG55" s="58" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AH55" s="58"/>
       <c r="AI55" s="58"/>
@@ -35681,7 +35702,7 @@
       <c r="A56" s="106"/>
       <c r="B56" s="107"/>
       <c r="C56" s="86" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D56" s="87"/>
       <c r="E56" s="87"/>
@@ -35692,7 +35713,7 @@
       <c r="J56" s="87"/>
       <c r="K56" s="88"/>
       <c r="L56" s="63" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M56" s="64"/>
       <c r="N56" s="64"/>
@@ -35701,31 +35722,31 @@
       <c r="Q56" s="64"/>
       <c r="R56" s="65"/>
       <c r="S56" s="63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T56" s="65"/>
       <c r="U56" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V56" s="64"/>
       <c r="W56" s="64"/>
       <c r="X56" s="65"/>
       <c r="Y56" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z56" s="58"/>
       <c r="AA56" s="58"/>
       <c r="AB56" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC56" s="58"/>
       <c r="AD56" s="58"/>
       <c r="AE56" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF56" s="59"/>
       <c r="AG56" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH56" s="60"/>
       <c r="AI56" s="60"/>
@@ -35771,11 +35792,11 @@
     </row>
     <row r="57" spans="1:74" ht="30" customHeight="1">
       <c r="A57" s="74" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B57" s="75"/>
       <c r="C57" s="86" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D57" s="87"/>
       <c r="E57" s="87"/>
@@ -35786,7 +35807,7 @@
       <c r="J57" s="87"/>
       <c r="K57" s="88"/>
       <c r="L57" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M57" s="64"/>
       <c r="N57" s="64"/>
@@ -35795,31 +35816,31 @@
       <c r="Q57" s="64"/>
       <c r="R57" s="65"/>
       <c r="S57" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T57" s="65"/>
       <c r="U57" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V57" s="64"/>
       <c r="W57" s="64"/>
       <c r="X57" s="65"/>
       <c r="Y57" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z57" s="58"/>
       <c r="AA57" s="58"/>
       <c r="AB57" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC57" s="58"/>
       <c r="AD57" s="58"/>
       <c r="AE57" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF57" s="59"/>
       <c r="AG57" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH57" s="60"/>
       <c r="AI57" s="60"/>
@@ -35865,11 +35886,11 @@
     </row>
     <row r="58" spans="1:74" ht="30" customHeight="1">
       <c r="A58" s="74" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B58" s="75"/>
       <c r="C58" s="86" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D58" s="87"/>
       <c r="E58" s="87"/>
@@ -35880,7 +35901,7 @@
       <c r="J58" s="87"/>
       <c r="K58" s="88"/>
       <c r="L58" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M58" s="64"/>
       <c r="N58" s="64"/>
@@ -35889,31 +35910,31 @@
       <c r="Q58" s="64"/>
       <c r="R58" s="65"/>
       <c r="S58" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T58" s="65"/>
       <c r="U58" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V58" s="64"/>
       <c r="W58" s="64"/>
       <c r="X58" s="65"/>
       <c r="Y58" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z58" s="58"/>
       <c r="AA58" s="58"/>
       <c r="AB58" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC58" s="58"/>
       <c r="AD58" s="58"/>
       <c r="AE58" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF58" s="59"/>
       <c r="AG58" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH58" s="60"/>
       <c r="AI58" s="60"/>
@@ -35959,11 +35980,11 @@
     </row>
     <row r="59" spans="1:74" ht="30" customHeight="1">
       <c r="A59" s="74" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B59" s="75"/>
       <c r="C59" s="86" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -35974,7 +35995,7 @@
       <c r="J59" s="87"/>
       <c r="K59" s="88"/>
       <c r="L59" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M59" s="64"/>
       <c r="N59" s="64"/>
@@ -35983,31 +36004,31 @@
       <c r="Q59" s="64"/>
       <c r="R59" s="65"/>
       <c r="S59" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T59" s="65"/>
       <c r="U59" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V59" s="64"/>
       <c r="W59" s="64"/>
       <c r="X59" s="65"/>
       <c r="Y59" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z59" s="58"/>
       <c r="AA59" s="58"/>
       <c r="AB59" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC59" s="58"/>
       <c r="AD59" s="58"/>
       <c r="AE59" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF59" s="59"/>
       <c r="AG59" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH59" s="60"/>
       <c r="AI59" s="60"/>
@@ -36053,7 +36074,7 @@
     </row>
     <row r="60" spans="1:74" ht="18">
       <c r="A60" s="73" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
@@ -36131,7 +36152,7 @@
     </row>
     <row r="61" spans="1:74" ht="43.5" customHeight="1">
       <c r="A61" s="72" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61" s="72"/>
       <c r="C61" s="72"/>
@@ -36144,7 +36165,7 @@
       <c r="J61" s="72"/>
       <c r="K61" s="115"/>
       <c r="L61" s="116" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M61" s="116"/>
       <c r="N61" s="116"/>
@@ -36211,7 +36232,7 @@
     </row>
     <row r="62" spans="1:74" ht="43.5" customHeight="1">
       <c r="A62" s="72" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62" s="72"/>
       <c r="C62" s="72"/>
@@ -36224,7 +36245,7 @@
       <c r="J62" s="72"/>
       <c r="K62" s="115"/>
       <c r="L62" s="116" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M62" s="116"/>
       <c r="N62" s="116"/>
@@ -36291,7 +36312,7 @@
     </row>
     <row r="63" spans="1:74" ht="43.5" customHeight="1">
       <c r="A63" s="72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
@@ -36304,7 +36325,7 @@
       <c r="J63" s="72"/>
       <c r="K63" s="115"/>
       <c r="L63" s="116" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M63" s="116"/>
       <c r="N63" s="116"/>
@@ -36371,7 +36392,7 @@
     </row>
     <row r="64" spans="1:74" ht="36.6" customHeight="1">
       <c r="A64" s="72" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
@@ -36384,7 +36405,7 @@
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
       <c r="L64" s="117" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M64" s="117"/>
       <c r="N64" s="117"/>
@@ -36451,7 +36472,7 @@
     </row>
     <row r="65" spans="1:74" ht="352.2" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
@@ -36464,7 +36485,7 @@
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
       <c r="L65" s="72" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
@@ -36529,9 +36550,9 @@
       <c r="BU65" s="72"/>
       <c r="BV65" s="72"/>
     </row>
-    <row r="66" spans="1:74" ht="193.95" customHeight="1">
+    <row r="66" spans="1:74" ht="213" customHeight="1">
       <c r="A66" s="72" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B66" s="72"/>
       <c r="C66" s="72"/>
@@ -36544,7 +36565,7 @@
       <c r="J66" s="72"/>
       <c r="K66" s="72"/>
       <c r="L66" s="72" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M66" s="72"/>
       <c r="N66" s="72"/>
@@ -36611,7 +36632,7 @@
     </row>
     <row r="67" spans="1:74" ht="43.95" customHeight="1">
       <c r="A67" s="72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B67" s="72"/>
       <c r="C67" s="72"/>
@@ -36624,7 +36645,7 @@
       <c r="J67" s="72"/>
       <c r="K67" s="72"/>
       <c r="L67" s="72" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M67" s="72"/>
       <c r="N67" s="72"/>
@@ -36691,7 +36712,7 @@
     </row>
     <row r="68" spans="1:74" ht="61.2" customHeight="1">
       <c r="A68" s="72" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B68" s="72"/>
       <c r="C68" s="72"/>
@@ -36704,7 +36725,7 @@
       <c r="J68" s="72"/>
       <c r="K68" s="72"/>
       <c r="L68" s="72" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M68" s="72"/>
       <c r="N68" s="72"/>
@@ -36771,7 +36792,7 @@
     </row>
     <row r="69" spans="1:74" ht="45.6" customHeight="1">
       <c r="A69" s="72" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B69" s="72"/>
       <c r="C69" s="72"/>
@@ -36784,7 +36805,7 @@
       <c r="J69" s="72"/>
       <c r="K69" s="72"/>
       <c r="L69" s="72" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M69" s="72"/>
       <c r="N69" s="72"/>
@@ -36849,9 +36870,9 @@
       <c r="BU69" s="72"/>
       <c r="BV69" s="72"/>
     </row>
-    <row r="70" spans="1:74" ht="298.95" customHeight="1">
+    <row r="70" spans="1:74" ht="324.75" customHeight="1">
       <c r="A70" s="72" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B70" s="72"/>
       <c r="C70" s="72"/>
@@ -36864,7 +36885,7 @@
       <c r="J70" s="72"/>
       <c r="K70" s="72"/>
       <c r="L70" s="89" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M70" s="89"/>
       <c r="N70" s="89"/>
@@ -36931,7 +36952,7 @@
     </row>
     <row r="71" spans="1:74" ht="156.6" customHeight="1">
       <c r="A71" s="72" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B71" s="72"/>
       <c r="C71" s="72"/>
@@ -36944,7 +36965,7 @@
       <c r="J71" s="72"/>
       <c r="K71" s="72"/>
       <c r="L71" s="72" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M71" s="72"/>
       <c r="N71" s="72"/>
@@ -37011,7 +37032,7 @@
     </row>
     <row r="72" spans="1:74" ht="232.95" customHeight="1">
       <c r="A72" s="72" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B72" s="72"/>
       <c r="C72" s="72"/>
@@ -37024,7 +37045,7 @@
       <c r="J72" s="72"/>
       <c r="K72" s="72"/>
       <c r="L72" s="72" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M72" s="72"/>
       <c r="N72" s="72"/>
@@ -37435,8 +37456,8 @@
   </sheetPr>
   <dimension ref="A1:BQ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK46" sqref="AK46:BQ46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -37449,7 +37470,7 @@
   <sheetData>
     <row r="1" spans="1:69" ht="18">
       <c r="A1" s="66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -37489,13 +37510,13 @@
       <c r="AH1" s="119"/>
       <c r="AI1" s="120"/>
       <c r="AJ1" s="121" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK1" s="122"/>
       <c r="AL1" s="122"/>
       <c r="AM1" s="123"/>
       <c r="AN1" s="118" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO1" s="119"/>
       <c r="AP1" s="119"/>
@@ -37529,7 +37550,7 @@
     </row>
     <row r="2" spans="1:69" ht="18">
       <c r="A2" s="69" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -37602,7 +37623,7 @@
     </row>
     <row r="3" spans="1:69" ht="18">
       <c r="A3" s="68" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -37675,7 +37696,7 @@
     </row>
     <row r="4" spans="1:69" ht="18">
       <c r="A4" s="69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -39594,7 +39615,7 @@
     </row>
     <row r="31" spans="1:69" ht="18">
       <c r="A31" s="69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
@@ -39667,11 +39688,11 @@
     </row>
     <row r="32" spans="1:69" ht="18">
       <c r="A32" s="67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -39682,7 +39703,7 @@
       <c r="J32" s="67"/>
       <c r="K32" s="67"/>
       <c r="L32" s="67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M32" s="67"/>
       <c r="N32" s="67"/>
@@ -39691,37 +39712,37 @@
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T32" s="67"/>
       <c r="U32" s="67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V32" s="67"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67"/>
       <c r="Y32" s="71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Z32" s="71"/>
       <c r="AA32" s="71"/>
       <c r="AB32" s="71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC32" s="71"/>
       <c r="AD32" s="71"/>
       <c r="AE32" s="67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AF32" s="67"/>
       <c r="AG32" s="67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH32" s="67"/>
       <c r="AI32" s="67"/>
       <c r="AJ32" s="67"/>
       <c r="AK32" s="67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AL32" s="67"/>
       <c r="AM32" s="67"/>
@@ -39758,11 +39779,11 @@
     </row>
     <row r="33" spans="1:69" ht="30" customHeight="1">
       <c r="A33" s="74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
@@ -39773,7 +39794,7 @@
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
       <c r="L33" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -39782,31 +39803,31 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T33" s="62"/>
       <c r="U33" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V33" s="64"/>
       <c r="W33" s="64"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z33" s="58"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC33" s="58"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH33" s="60"/>
       <c r="AI33" s="60"/>
@@ -39847,11 +39868,11 @@
     </row>
     <row r="34" spans="1:69" ht="30" customHeight="1">
       <c r="A34" s="74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
@@ -39862,7 +39883,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -39871,31 +39892,31 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="S34" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T34" s="62"/>
       <c r="U34" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V34" s="64"/>
       <c r="W34" s="64"/>
       <c r="X34" s="65"/>
       <c r="Y34" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z34" s="58"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC34" s="58"/>
       <c r="AD34" s="58"/>
       <c r="AE34" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF34" s="59"/>
       <c r="AG34" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH34" s="60"/>
       <c r="AI34" s="60"/>
@@ -39936,11 +39957,11 @@
     </row>
     <row r="35" spans="1:69" ht="30" customHeight="1">
       <c r="A35" s="74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -39951,7 +39972,7 @@
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
       <c r="L35" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -39960,31 +39981,31 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="S35" s="62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T35" s="62"/>
       <c r="U35" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
       <c r="X35" s="65"/>
       <c r="Y35" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC35" s="58"/>
       <c r="AD35" s="58"/>
       <c r="AE35" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF35" s="59"/>
       <c r="AG35" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH35" s="60"/>
       <c r="AI35" s="60"/>
@@ -40025,11 +40046,11 @@
     </row>
     <row r="36" spans="1:69" ht="30" customHeight="1">
       <c r="A36" s="74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="86" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
@@ -40040,7 +40061,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="88"/>
       <c r="L36" s="63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -40049,11 +40070,11 @@
       <c r="Q36" s="64"/>
       <c r="R36" s="65"/>
       <c r="S36" s="63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V36" s="64"/>
       <c r="W36" s="64"/>
@@ -40069,17 +40090,17 @@
       <c r="AC36" s="58"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH36" s="58"/>
       <c r="AI36" s="58"/>
       <c r="AJ36" s="58"/>
       <c r="AK36" s="124" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AL36" s="125"/>
       <c r="AM36" s="125"/>
@@ -40116,11 +40137,11 @@
     </row>
     <row r="37" spans="1:69" ht="36.75" customHeight="1">
       <c r="A37" s="74" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="86" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -40131,7 +40152,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="88"/>
       <c r="L37" s="63" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
@@ -40140,31 +40161,31 @@
       <c r="Q37" s="64"/>
       <c r="R37" s="65"/>
       <c r="S37" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V37" s="64"/>
       <c r="W37" s="64"/>
       <c r="X37" s="65"/>
       <c r="Y37" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z37" s="58"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC37" s="58"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
@@ -40205,11 +40226,11 @@
     </row>
     <row r="38" spans="1:69" ht="30" customHeight="1">
       <c r="A38" s="74" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="61" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -40220,7 +40241,7 @@
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="62" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -40229,31 +40250,31 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
@@ -40294,11 +40315,11 @@
     </row>
     <row r="39" spans="1:69" ht="108" customHeight="1">
       <c r="A39" s="74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="61" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -40309,7 +40330,7 @@
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
       <c r="L39" s="62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
@@ -40318,37 +40339,37 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T39" s="65"/>
       <c r="U39" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
       <c r="AJ39" s="60"/>
       <c r="AK39" s="70" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AL39" s="70"/>
       <c r="AM39" s="70"/>
@@ -40385,11 +40406,11 @@
     </row>
     <row r="40" spans="1:69" ht="103.95" customHeight="1">
       <c r="A40" s="74" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="61" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
@@ -40400,7 +40421,7 @@
       <c r="J40" s="61"/>
       <c r="K40" s="61"/>
       <c r="L40" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
@@ -40409,11 +40430,11 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T40" s="62"/>
       <c r="U40" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
@@ -40429,17 +40450,17 @@
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH40" s="58"/>
       <c r="AI40" s="58"/>
       <c r="AJ40" s="58"/>
       <c r="AK40" s="70" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="AL40" s="70"/>
       <c r="AM40" s="70"/>
@@ -40476,11 +40497,11 @@
     </row>
     <row r="41" spans="1:69" ht="97.95" customHeight="1">
       <c r="A41" s="102" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B41" s="103"/>
       <c r="C41" s="61" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -40491,7 +40512,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="61"/>
       <c r="L41" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
@@ -40500,11 +40521,11 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="S41" s="62" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T41" s="62"/>
       <c r="U41" s="63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
@@ -40520,17 +40541,17 @@
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="58" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AH41" s="58"/>
       <c r="AI41" s="58"/>
       <c r="AJ41" s="58"/>
       <c r="AK41" s="70" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="AL41" s="70"/>
       <c r="AM41" s="70"/>
@@ -40567,11 +40588,11 @@
     </row>
     <row r="42" spans="1:69" ht="181.95" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="86" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -40582,7 +40603,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="88"/>
       <c r="L42" s="62" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M42" s="62"/>
       <c r="N42" s="62"/>
@@ -40591,11 +40612,11 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="S42" s="62" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
@@ -40611,17 +40632,17 @@
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="58" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AH42" s="58"/>
       <c r="AI42" s="58"/>
       <c r="AJ42" s="58"/>
       <c r="AK42" s="70" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AL42" s="70"/>
       <c r="AM42" s="70"/>
@@ -40658,11 +40679,11 @@
     </row>
     <row r="43" spans="1:69" ht="106.2" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="86" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -40673,7 +40694,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="88"/>
       <c r="L43" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M43" s="62"/>
       <c r="N43" s="62"/>
@@ -40682,37 +40703,37 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="S43" s="62" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T43" s="62"/>
       <c r="U43" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="99" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AH43" s="100"/>
       <c r="AI43" s="100"/>
       <c r="AJ43" s="101"/>
       <c r="AK43" s="70" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="AL43" s="70"/>
       <c r="AM43" s="70"/>
@@ -40749,11 +40770,11 @@
     </row>
     <row r="44" spans="1:69" ht="106.2" customHeight="1">
       <c r="A44" s="74" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="86" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
@@ -40764,7 +40785,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="88"/>
       <c r="L44" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M44" s="62"/>
       <c r="N44" s="62"/>
@@ -40773,31 +40794,31 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="S44" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T44" s="65"/>
       <c r="U44" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V44" s="64"/>
       <c r="W44" s="64"/>
       <c r="X44" s="65"/>
       <c r="Y44" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC44" s="58"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF44" s="59"/>
       <c r="AG44" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH44" s="60"/>
       <c r="AI44" s="60"/>
@@ -40838,11 +40859,11 @@
     </row>
     <row r="45" spans="1:69" ht="164.4" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="86" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
@@ -40853,7 +40874,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="88"/>
       <c r="L45" s="62" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M45" s="62"/>
       <c r="N45" s="62"/>
@@ -40862,11 +40883,11 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="S45" s="62" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T45" s="62"/>
       <c r="U45" s="63" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V45" s="64"/>
       <c r="W45" s="64"/>
@@ -40882,17 +40903,17 @@
       <c r="AC45" s="58"/>
       <c r="AD45" s="58"/>
       <c r="AE45" s="59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF45" s="59"/>
       <c r="AG45" s="58" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AH45" s="58"/>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="70" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="AL45" s="70"/>
       <c r="AM45" s="70"/>
@@ -40929,11 +40950,11 @@
     </row>
     <row r="46" spans="1:69" ht="39.6" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="86" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -40944,7 +40965,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="88"/>
       <c r="L46" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M46" s="62"/>
       <c r="N46" s="62"/>
@@ -40953,31 +40974,31 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="S46" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T46" s="65"/>
       <c r="U46" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V46" s="64"/>
       <c r="W46" s="64"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z46" s="58"/>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC46" s="58"/>
       <c r="AD46" s="58"/>
       <c r="AE46" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF46" s="59"/>
       <c r="AG46" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
@@ -41018,11 +41039,11 @@
     </row>
     <row r="47" spans="1:69" ht="39.6" customHeight="1">
       <c r="A47" s="74" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="86" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -41033,7 +41054,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="88"/>
       <c r="L47" s="62" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M47" s="62"/>
       <c r="N47" s="62"/>
@@ -41042,31 +41063,31 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="S47" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T47" s="65"/>
       <c r="U47" s="63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
       <c r="X47" s="65"/>
       <c r="Y47" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC47" s="58"/>
       <c r="AD47" s="58"/>
       <c r="AE47" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AF47" s="59"/>
       <c r="AG47" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
@@ -41107,7 +41128,7 @@
     </row>
     <row r="48" spans="1:69" ht="18">
       <c r="A48" s="73" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
@@ -41180,7 +41201,7 @@
     </row>
     <row r="49" spans="1:69" ht="43.5" customHeight="1">
       <c r="A49" s="72" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="72"/>
@@ -41193,7 +41214,7 @@
       <c r="J49" s="72"/>
       <c r="K49" s="115"/>
       <c r="L49" s="127" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M49" s="128"/>
       <c r="N49" s="128"/>
@@ -41255,7 +41276,7 @@
     </row>
     <row r="50" spans="1:69" ht="43.5" customHeight="1">
       <c r="A50" s="72" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -41268,7 +41289,7 @@
       <c r="J50" s="72"/>
       <c r="K50" s="115"/>
       <c r="L50" s="127" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M50" s="128"/>
       <c r="N50" s="128"/>
@@ -41330,7 +41351,7 @@
     </row>
     <row r="51" spans="1:69" ht="43.5" customHeight="1">
       <c r="A51" s="72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
@@ -41343,7 +41364,7 @@
       <c r="J51" s="72"/>
       <c r="K51" s="115"/>
       <c r="L51" s="127" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M51" s="128"/>
       <c r="N51" s="128"/>
@@ -41405,7 +41426,7 @@
     </row>
     <row r="52" spans="1:69" ht="55.2" customHeight="1">
       <c r="A52" s="72" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
@@ -41418,7 +41439,7 @@
       <c r="J52" s="72"/>
       <c r="K52" s="72"/>
       <c r="L52" s="136" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M52" s="137"/>
       <c r="N52" s="137"/>
@@ -41480,7 +41501,7 @@
     </row>
     <row r="53" spans="1:69" ht="46.95" customHeight="1">
       <c r="A53" s="72" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
@@ -41493,7 +41514,7 @@
       <c r="J53" s="72"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M53" s="72"/>
       <c r="N53" s="72"/>
@@ -41555,7 +41576,7 @@
     </row>
     <row r="54" spans="1:69" ht="345" customHeight="1">
       <c r="A54" s="72" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -41568,7 +41589,7 @@
       <c r="J54" s="72"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M54" s="72"/>
       <c r="N54" s="72"/>
@@ -41628,9 +41649,9 @@
       <c r="BP54" s="72"/>
       <c r="BQ54" s="72"/>
     </row>
-    <row r="55" spans="1:69" ht="387" customHeight="1">
+    <row r="55" spans="1:69" ht="338.4" customHeight="1">
       <c r="A55" s="133" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B55" s="134"/>
       <c r="C55" s="134"/>
@@ -41643,7 +41664,7 @@
       <c r="J55" s="134"/>
       <c r="K55" s="135"/>
       <c r="L55" s="72" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="M55" s="72"/>
       <c r="N55" s="72"/>
@@ -41703,9 +41724,9 @@
       <c r="BP55" s="72"/>
       <c r="BQ55" s="72"/>
     </row>
-    <row r="56" spans="1:69" ht="409.2" customHeight="1">
+    <row r="56" spans="1:69" ht="319.2" customHeight="1">
       <c r="A56" s="130" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B56" s="131"/>
       <c r="C56" s="131"/>
@@ -41718,7 +41739,7 @@
       <c r="J56" s="131"/>
       <c r="K56" s="132"/>
       <c r="L56" s="72" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="M56" s="72"/>
       <c r="N56" s="72"/>
@@ -41999,220 +42020,244 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="42"/>
-    <col min="3" max="3" width="32.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="12" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="42"/>
+    <col min="1" max="2" width="9.109375" style="39"/>
+    <col min="3" max="3" width="32.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>179</v>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="45">
+      <c r="C3" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="42">
         <v>45723</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="45">
+      <c r="F3" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="42">
         <v>45731</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41">
         <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="C4" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="42">
         <v>45723</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="45">
+      <c r="F4" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="42">
         <v>45731</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44">
+    <row r="5" spans="1:8" ht="36">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="C5" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="42">
         <v>45723</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="45">
+      <c r="F5" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="42">
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44">
+    <row r="6" spans="1:8" ht="73.8" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="C6" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="42">
+        <v>45732</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="42">
+        <v>45733</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44">
+    <row r="7" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="42">
+        <v>45732</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="42">
+        <v>45733</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -42224,15 +42269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -42376,21 +42412,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C89A913-7ED1-4BF6-8E4A-916015E940D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42408,11 +42445,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
+++ b/STEP2（タスク管理アプリ）/画面設計書/画面設計書_タスク管理.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28723"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{E7D71271-519B-46CE-9481-8DDB3DD2E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93ACA664-0FA3-4ED6-8222-BF7277E1BFE0}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{E7D71271-519B-46CE-9481-8DDB3DD2E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B36146E-B33A-4DB5-B23F-7E6EA85E9F93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="216">
   <si>
     <t>タスク管理アプリ</t>
     <rPh sb="3" eb="5">
@@ -145,6 +145,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画面遷移図
+画面一覧表</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ガメンイチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの登録,修正時のタスク名重複チェックを削除しました。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュウセイジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>画面一覧表</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -202,13 +239,6 @@
   </si>
   <si>
     <t>TaskList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面</t>
-    <rPh sb="0" eb="4">
-      <t>ショウサイガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1684,16 +1714,9 @@
   </si>
   <si>
     <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
+空欄で表示する。
 ◆一覧画面の⑱タスク名のリンクをクリック時
 一覧画面でクリックしたタスクの「タスク名」を初期値として表示する。</t>
-    <rPh sb="18" eb="20">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明入力欄</t>
@@ -1707,16 +1730,9 @@
   </si>
   <si>
     <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
+空欄で表示する。
 ◆一覧画面の⑱タスク名のリンクをクリック時
 一覧画面でクリックしたタスクの「説明」を初期値として表示する。</t>
-    <rPh sb="18" eb="20">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タスク分類入力欄</t>
@@ -1772,13 +1788,9 @@
   </si>
   <si>
     <t>◆一覧画面の⑯新規作成ボタン押下時
-空欄。
+空欄で表示する。
 ◆一覧画面の⑱タスク名のリンクをクリック時
 一覧画面でクリックしたタスクの「タスク完了期限」を初期値として表示する。</t>
-    <rPh sb="64" eb="68">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タスク完了期限入力ボタン</t>
@@ -1904,199 +1916,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑮修正ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>指摘内容</t>
-  </si>
-  <si>
-    <t>指摘詳細</t>
-  </si>
-  <si>
-    <t>記載日</t>
-  </si>
-  <si>
-    <t>修正内容</t>
-    <rPh sb="0" eb="4">
-      <t>シュウセイナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>対応日</t>
-  </si>
-  <si>
-    <t>画面遷移図の番号について</t>
-  </si>
-  <si>
-    <t xml:space="preserve">番号が⑤から始まっているがこの番号は何の番号なのか？
-</t>
-  </si>
-  <si>
-    <t>画面遷移図に記載の番号は、各画面シートの画面レイアウト・項目説明欄の番号を参照しています。
-画面遷移図に番号に対する補足の説明を追加しました。</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="46" eb="51">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ホソク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再レビュー中</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全体</t>
-  </si>
-  <si>
-    <t>備考欄の文言が統一されてないのが気になる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考欄の文言を統一しました。</t>
-    <rPh sb="0" eb="3">
-      <t>ビコウラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧画面、詳細画面</t>
-  </si>
-  <si>
-    <t>一覧ではタスク期限は入力欄はテキストボックスになっているが詳細画面ではその他になっているが問題ないか？</t>
-  </si>
-  <si>
-    <t>詳細画面のタスク期限をテキストボックスに修正しました。</t>
-    <rPh sb="0" eb="4">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移図</t>
-  </si>
-  <si>
-    <t>画面一覧表</t>
-  </si>
-  <si>
-    <t>これはなくても良いが
-各シートに飛ぶリンクが貼ってあると飛べてよい。</t>
-  </si>
-  <si>
-    <t>画面一覧表の、画面名を各画面シートへのリンクに修正しました。</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンイチランヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ガメンメイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細→一覧に遷移するときは戻るだけになっている。
-登録・更新後一覧に戻るのであれば記載すべき。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細→一覧の遷移の箇所のテキストボックスの幅が狭く、「⑮修正ボタン押下」の文言が隠れてしまっていたため、テキストボックスの幅を大きくしました。</t>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>セマ</t>
-    </rPh>
-    <rPh sb="27" eb="35">
-      <t>15シュウセイボタンオウカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移図
-画面一覧表</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>ガメンイチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇一覧画面の⑯新規作成ボタン押下時の場合
 ＜1. 入力値チェック＞
 ◆⑧タスク名入力欄、または⑪タスク完了期限入力欄が未入力の場合、エラーメッセージのダイアログ「タスク名、またはタスク完了期限が未入力です」を表示する。
@@ -2109,71 +1928,14 @@
 　また、登録したタスクのタスク更新日に「タスク登録時の日時」を設定する。
 ＜4. 詳細画面再表示＞
 ◆タスクの登録後、一覧画面の⑯新規作成ボタン押下時の詳細画面を再表示する。（⑧タスク名入力欄、⑨説明入力欄、⑪タスク完了期限入力欄が空欄、⑩タスク分類入力欄が「仕事」、⑬タスク状況入力欄（未完了固定）の状態。）</t>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
+  </si>
+  <si>
+    <t>⑮修正ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
     </rPh>
-    <rPh sb="59" eb="62">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="92" eb="96">
-      <t>カンリョウキゲン</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="280" eb="283">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="324" eb="326">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="353" eb="356">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="357" eb="359">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="361" eb="363">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="372" eb="376">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="376" eb="379">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <rPh sb="386" eb="389">
-      <t>トウロクゴ</t>
-    </rPh>
-    <rPh sb="390" eb="394">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="407" eb="411">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="412" eb="415">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <rPh sb="447" eb="449">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="461" eb="463">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="482" eb="484">
-      <t>ジョウタイ</t>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2282,21 +2044,163 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクの登録,修正時のタスク名重複チェックを削除しました。</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>指摘内容</t>
+  </si>
+  <si>
+    <t>指摘詳細</t>
+  </si>
+  <si>
+    <t>記載日</t>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <rPh sb="0" eb="4">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>対応日</t>
+  </si>
+  <si>
+    <t>画面遷移図の番号について</t>
+  </si>
+  <si>
+    <t xml:space="preserve">番号が⑤から始まっているがこの番号は何の番号なのか？
+</t>
+  </si>
+  <si>
+    <t>画面遷移図に記載の番号は、各画面シートの画面レイアウト・項目説明欄の番号を参照しています。
+画面遷移図に番号に対する補足の説明を追加しました。</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="46" eb="51">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>備考欄の文言が統一されてないのが気になる。
+2025/03/23追記
+「空欄。」で終わらせているとこは合わせるのであれば
+「空欄で表示する。」</t>
+  </si>
+  <si>
+    <t>2025/3/7
+追記
+2025/03/23</t>
+  </si>
+  <si>
+    <t>備考欄の文言を統一しました。
+2025/03/24追記
+「空欄。」→「空欄で表示する。」に修正しました。</t>
+  </si>
+  <si>
+    <t>一覧画面、詳細画面</t>
+  </si>
+  <si>
+    <t>一覧ではタスク期限は入力欄はテキストボックスになっているが詳細画面ではその他になっているが問題ないか？</t>
+  </si>
+  <si>
+    <t>詳細画面のタスク期限をテキストボックスに修正しました。</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+  </si>
+  <si>
+    <t>詳細→一覧に遷移するときは戻るだけになっている。
+登録・更新後一覧に戻るのであれば記載すべき。
+2025/03/23追記
+戻るのは⑮だけではなく⑭の登録を押したときも戻るのでは？
+2025/03/25追記
+登録後はタスク修正というタイトルがでるのでしょうか？
+仕様で特に問題なければ完了にしても大丈夫です。</t>
+  </si>
+  <si>
+    <t>2025/3/16
+追記
+2025/03/23
+追記
+2025/03/26</t>
+  </si>
+  <si>
+    <t>詳細→一覧の遷移の箇所のテキストボックスの幅が狭く、「⑮修正ボタン押下」の文言が隠れてしまっていたため、テキストボックスの幅を大きくしました。
+2025/03/24追記
+⑭登録ボタン押下時は、詳細画面を再表示する想定です。
+2025/03/30追記
+タスク登録後は、タイトルが「タスク登録」の詳細画面が表示される仕様（一覧画面の⑯新規作成ボタン押下後に表示される詳細画面）です。</t>
+  </si>
+  <si>
+    <t>再レビュー中</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧表</t>
+  </si>
+  <si>
+    <t>これはなくても良いが
+各シートに飛ぶリンクが貼ってあると飛べてよい。</t>
+  </si>
+  <si>
+    <t>画面一覧表の、画面名を各画面シートへのリンクに修正しました。</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンイチランヒョウ</t>
     </rPh>
     <rPh sb="7" eb="10">
-      <t>シュウセイジ</t>
+      <t>ガメンメイ</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>チョウフク</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7691,50 +7595,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>55879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A38D5C-AB60-9713-4FCA-D91725FF07EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21771" y="1374365"/>
-          <a:ext cx="9655630" cy="5082314"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
@@ -15239,7 +15099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="21614" t="20779" r="25710" b="68135"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -15247,50 +15107,6 @@
         <a:xfrm>
           <a:off x="3931919" y="22440899"/>
           <a:ext cx="3787141" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>496646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>25006</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1272741</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="図 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DFF065-BBBA-0343-972A-4A518B0C45D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8107680" y="9953066"/>
-          <a:ext cx="924166" cy="776095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15326,7 +15142,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15369,8 +15185,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1976437" y="24643081"/>
-          <a:ext cx="1825944" cy="1376628"/>
+          <a:off x="1913572" y="24635461"/>
+          <a:ext cx="1763079" cy="1376628"/>
           <a:chOff x="1999297" y="22258021"/>
           <a:chExt cx="1825944" cy="1376628"/>
         </a:xfrm>
@@ -15389,7 +15205,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -15584,7 +15400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15628,7 +15444,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15733,8 +15549,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1950720" y="32125920"/>
-          <a:ext cx="3356610" cy="711237"/>
+          <a:off x="1887855" y="32095440"/>
+          <a:ext cx="3242310" cy="711237"/>
           <a:chOff x="1272540" y="29260800"/>
           <a:chExt cx="3356610" cy="711237"/>
         </a:xfrm>
@@ -18320,7 +18136,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18367,7 +18183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18449,50 +18265,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>2679</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>223660</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="図 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E7DCF3-E8C8-F3CA-427F-E29B6DC2E47B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10401300" y="3279290"/>
-          <a:ext cx="2296299" cy="1516370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -18589,7 +18361,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18598,50 +18370,6 @@
         <a:xfrm>
           <a:off x="4625339" y="38905981"/>
           <a:ext cx="1424085" cy="916139"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>72167</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>5039</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA02FE86-5513-3477-0ADE-7BA73DE420F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10420127" y="1614415"/>
-          <a:ext cx="3453312" cy="1205667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18752,8 +18480,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5259593" y="1313329"/>
-          <a:ext cx="4980235" cy="5306513"/>
+          <a:off x="5082428" y="1313329"/>
+          <a:ext cx="4824025" cy="5306513"/>
           <a:chOff x="6059500" y="1372434"/>
           <a:chExt cx="5525035" cy="5830114"/>
         </a:xfrm>
@@ -25385,10 +25113,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86C6D327-6F02-4CEA-B0A2-013FF8638CC0}" name="テーブル1" displayName="テーブル1" ref="B2:H12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H12" xr:uid="{7D410925-4A4E-45C3-AC03-5B2315E2FA55}"/>
@@ -25732,9 +25456,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="16384" width="2.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
@@ -26812,18 +26536,18 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1"/>
-    <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="1"/>
+    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.8">
+    <row r="1" spans="1:28" ht="19.899999999999999">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -26913,7 +26637,7 @@
         <v>45733</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>13</v>
@@ -26933,10 +26657,10 @@
         <v>45738</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>14</v>
@@ -27089,40 +26813,40 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="6"/>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="2.44140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="2.44140625" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="6"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.8">
+    <row r="1" spans="1:21" ht="19.899999999999999">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1"/>
     <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -27131,10 +26855,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -27144,10 +26868,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -27157,10 +26881,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -27206,14 +26930,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K32" sqref="K32:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.8">
+    <row r="1" spans="1:1" ht="19.899999999999999">
       <c r="A1" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -27230,20 +26954,18 @@
   </sheetPr>
   <dimension ref="A1:BS52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="73" width="2.44140625" style="6"/>
-    <col min="74" max="74" width="2.44140625" style="6" customWidth="1"/>
-    <col min="75" max="16384" width="2.44140625" style="6"/>
+    <col min="1" max="73" width="2.42578125" style="6"/>
+    <col min="74" max="74" width="2.42578125" style="6" customWidth="1"/>
+    <col min="75" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="18">
       <c r="A1" s="66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -27282,13 +27004,13 @@
       <c r="AG1" s="68"/>
       <c r="AH1" s="68"/>
       <c r="AI1" s="67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ1" s="67"/>
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN1" s="68"/>
       <c r="AO1" s="68"/>
@@ -27325,7 +27047,7 @@
     </row>
     <row r="2" spans="1:71" ht="18">
       <c r="A2" s="69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -27400,7 +27122,7 @@
     </row>
     <row r="3" spans="1:71" ht="18">
       <c r="A3" s="68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -27475,7 +27197,7 @@
     </row>
     <row r="4" spans="1:71" ht="18">
       <c r="A4" s="69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -29813,7 +29535,7 @@
     </row>
     <row r="36" spans="1:71" ht="18">
       <c r="A36" s="69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
@@ -29888,11 +29610,11 @@
     </row>
     <row r="37" spans="1:71" ht="18">
       <c r="A37" s="67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
@@ -29903,7 +29625,7 @@
       <c r="J37" s="67"/>
       <c r="K37" s="67"/>
       <c r="L37" s="67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
@@ -29912,37 +29634,37 @@
       <c r="Q37" s="67"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T37" s="67"/>
       <c r="U37" s="67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V37" s="67"/>
       <c r="W37" s="67"/>
       <c r="X37" s="67"/>
       <c r="Y37" s="71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z37" s="71"/>
       <c r="AA37" s="71"/>
       <c r="AB37" s="71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC37" s="71"/>
       <c r="AD37" s="71"/>
       <c r="AE37" s="67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF37" s="67"/>
       <c r="AG37" s="67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH37" s="67"/>
       <c r="AI37" s="67"/>
       <c r="AJ37" s="67"/>
       <c r="AK37" s="67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL37" s="67"/>
       <c r="AM37" s="67"/>
@@ -29981,11 +29703,11 @@
     </row>
     <row r="38" spans="1:71" ht="30" customHeight="1">
       <c r="A38" s="76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -29996,7 +29718,7 @@
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -30005,31 +29727,31 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T38" s="62"/>
       <c r="U38" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
@@ -30072,11 +29794,11 @@
     </row>
     <row r="39" spans="1:71" ht="30" customHeight="1">
       <c r="A39" s="76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -30087,7 +29809,7 @@
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
       <c r="L39" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
@@ -30096,31 +29818,31 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T39" s="62"/>
       <c r="U39" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
@@ -30163,11 +29885,11 @@
     </row>
     <row r="40" spans="1:71" ht="30" customHeight="1">
       <c r="A40" s="76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="76"/>
       <c r="C40" s="61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
@@ -30178,7 +29900,7 @@
       <c r="J40" s="61"/>
       <c r="K40" s="61"/>
       <c r="L40" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
@@ -30187,31 +29909,31 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T40" s="62"/>
       <c r="U40" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
       <c r="X40" s="65"/>
       <c r="Y40" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z40" s="58"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH40" s="60"/>
       <c r="AI40" s="60"/>
@@ -30254,11 +29976,11 @@
     </row>
     <row r="41" spans="1:71" ht="36.6" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -30269,7 +29991,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="61"/>
       <c r="L41" s="62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
@@ -30278,11 +30000,11 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="S41" s="62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T41" s="62"/>
       <c r="U41" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
@@ -30298,17 +30020,17 @@
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH41" s="60"/>
       <c r="AI41" s="60"/>
       <c r="AJ41" s="60"/>
       <c r="AK41" s="70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AL41" s="70"/>
       <c r="AM41" s="70"/>
@@ -30347,11 +30069,11 @@
     </row>
     <row r="42" spans="1:71" ht="36.6" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
@@ -30362,7 +30084,7 @@
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
       <c r="L42" s="62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M42" s="62"/>
       <c r="N42" s="62"/>
@@ -30371,11 +30093,11 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="S42" s="62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
@@ -30391,17 +30113,17 @@
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH42" s="60"/>
       <c r="AI42" s="60"/>
       <c r="AJ42" s="60"/>
       <c r="AK42" s="70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL42" s="70"/>
       <c r="AM42" s="70"/>
@@ -30440,11 +30162,11 @@
     </row>
     <row r="43" spans="1:71" ht="30" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
@@ -30455,7 +30177,7 @@
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
       <c r="L43" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M43" s="62"/>
       <c r="N43" s="62"/>
@@ -30464,31 +30186,31 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="S43" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T43" s="62"/>
       <c r="U43" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH43" s="60"/>
       <c r="AI43" s="60"/>
@@ -30531,7 +30253,7 @@
     </row>
     <row r="44" spans="1:71" ht="18">
       <c r="A44" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
@@ -30606,7 +30328,7 @@
     </row>
     <row r="45" spans="1:71" ht="43.5" customHeight="1">
       <c r="A45" s="72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
@@ -30619,7 +30341,7 @@
       <c r="J45" s="72"/>
       <c r="K45" s="72"/>
       <c r="L45" s="72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M45" s="72"/>
       <c r="N45" s="72"/>
@@ -30683,7 +30405,7 @@
     </row>
     <row r="46" spans="1:71" ht="43.5" customHeight="1">
       <c r="A46" s="72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
@@ -30696,7 +30418,7 @@
       <c r="J46" s="72"/>
       <c r="K46" s="72"/>
       <c r="L46" s="72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M46" s="72"/>
       <c r="N46" s="72"/>
@@ -30760,7 +30482,7 @@
     </row>
     <row r="47" spans="1:71" ht="43.5" customHeight="1">
       <c r="A47" s="72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="72"/>
       <c r="C47" s="72"/>
@@ -30773,7 +30495,7 @@
       <c r="J47" s="72"/>
       <c r="K47" s="72"/>
       <c r="L47" s="72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M47" s="72"/>
       <c r="N47" s="72"/>
@@ -30835,9 +30557,9 @@
       <c r="BR47" s="72"/>
       <c r="BS47" s="72"/>
     </row>
-    <row r="48" spans="1:71" ht="146.4" customHeight="1">
+    <row r="48" spans="1:71" ht="146.44999999999999" customHeight="1">
       <c r="A48" s="72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="72"/>
       <c r="C48" s="72"/>
@@ -30850,7 +30572,7 @@
       <c r="J48" s="72"/>
       <c r="K48" s="72"/>
       <c r="L48" s="72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M48" s="72"/>
       <c r="N48" s="72"/>
@@ -31038,24 +30760,22 @@
   </sheetPr>
   <dimension ref="A1:BV74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="10" width="2.44140625" style="6"/>
-    <col min="11" max="11" width="2.44140625" style="6" customWidth="1"/>
-    <col min="12" max="35" width="2.44140625" style="6"/>
-    <col min="36" max="36" width="28.6640625" style="6" customWidth="1"/>
-    <col min="37" max="76" width="2.44140625" style="6"/>
-    <col min="77" max="77" width="2.44140625" style="6" customWidth="1"/>
-    <col min="78" max="16384" width="2.44140625" style="6"/>
+    <col min="1" max="10" width="2.42578125" style="6"/>
+    <col min="11" max="11" width="2.42578125" style="6" customWidth="1"/>
+    <col min="12" max="35" width="2.42578125" style="6"/>
+    <col min="36" max="36" width="28.7109375" style="6" customWidth="1"/>
+    <col min="37" max="76" width="2.42578125" style="6"/>
+    <col min="77" max="77" width="2.42578125" style="6" customWidth="1"/>
+    <col min="78" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="18">
       <c r="A1" s="66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -31117,13 +30837,13 @@
       <c r="BD1" s="68"/>
       <c r="BE1" s="68"/>
       <c r="BF1" s="67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BG1" s="67"/>
       <c r="BH1" s="67"/>
       <c r="BI1" s="67"/>
       <c r="BJ1" s="68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BK1" s="68"/>
       <c r="BL1" s="68"/>
@@ -31140,7 +30860,7 @@
     </row>
     <row r="2" spans="1:74" ht="18">
       <c r="A2" s="69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -31218,7 +30938,7 @@
     </row>
     <row r="3" spans="1:74" ht="18">
       <c r="A3" s="68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -31296,7 +31016,7 @@
     </row>
     <row r="4" spans="1:74" ht="18">
       <c r="A4" s="69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -33274,7 +32994,7 @@
     </row>
     <row r="30" spans="1:74" ht="18">
       <c r="A30" s="69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
@@ -33352,11 +33072,11 @@
     </row>
     <row r="31" spans="1:74" ht="18">
       <c r="A31" s="67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="67"/>
@@ -33367,7 +33087,7 @@
       <c r="J31" s="67"/>
       <c r="K31" s="67"/>
       <c r="L31" s="67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M31" s="67"/>
       <c r="N31" s="67"/>
@@ -33376,37 +33096,37 @@
       <c r="Q31" s="67"/>
       <c r="R31" s="67"/>
       <c r="S31" s="67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T31" s="67"/>
       <c r="U31" s="67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V31" s="67"/>
       <c r="W31" s="67"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z31" s="71"/>
       <c r="AA31" s="71"/>
       <c r="AB31" s="110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC31" s="111"/>
       <c r="AD31" s="112"/>
       <c r="AE31" s="67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF31" s="67"/>
       <c r="AG31" s="67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH31" s="67"/>
       <c r="AI31" s="67"/>
       <c r="AJ31" s="67"/>
       <c r="AK31" s="67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL31" s="67"/>
       <c r="AM31" s="67"/>
@@ -33448,11 +33168,11 @@
     </row>
     <row r="32" spans="1:74" ht="30" customHeight="1">
       <c r="A32" s="74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" s="75"/>
       <c r="C32" s="61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
@@ -33463,7 +33183,7 @@
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
       <c r="L32" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M32" s="62"/>
       <c r="N32" s="62"/>
@@ -33472,31 +33192,31 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="S32" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T32" s="62"/>
       <c r="U32" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V32" s="64"/>
       <c r="W32" s="64"/>
       <c r="X32" s="65"/>
       <c r="Y32" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z32" s="58"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC32" s="58"/>
       <c r="AD32" s="58"/>
       <c r="AE32" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF32" s="59"/>
       <c r="AG32" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH32" s="60"/>
       <c r="AI32" s="60"/>
@@ -33542,11 +33262,11 @@
     </row>
     <row r="33" spans="1:74" ht="30" customHeight="1">
       <c r="A33" s="74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
@@ -33557,7 +33277,7 @@
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
       <c r="L33" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -33566,31 +33286,31 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T33" s="62"/>
       <c r="U33" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V33" s="64"/>
       <c r="W33" s="64"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="58"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="58"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH33" s="60"/>
       <c r="AI33" s="60"/>
@@ -33636,11 +33356,11 @@
     </row>
     <row r="34" spans="1:74" ht="30" customHeight="1">
       <c r="A34" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
@@ -33651,7 +33371,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -33660,31 +33380,31 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="S34" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T34" s="62"/>
       <c r="U34" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V34" s="64"/>
       <c r="W34" s="64"/>
       <c r="X34" s="65"/>
       <c r="Y34" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z34" s="58"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC34" s="58"/>
       <c r="AD34" s="58"/>
       <c r="AE34" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF34" s="59"/>
       <c r="AG34" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH34" s="60"/>
       <c r="AI34" s="60"/>
@@ -33730,11 +33450,11 @@
     </row>
     <row r="35" spans="1:74" ht="30" customHeight="1">
       <c r="A35" s="74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
@@ -33745,7 +33465,7 @@
       <c r="J35" s="87"/>
       <c r="K35" s="88"/>
       <c r="L35" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
@@ -33754,11 +33474,11 @@
       <c r="Q35" s="64"/>
       <c r="R35" s="65"/>
       <c r="S35" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T35" s="65"/>
       <c r="U35" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
@@ -33774,17 +33494,17 @@
       <c r="AC35" s="58"/>
       <c r="AD35" s="58"/>
       <c r="AE35" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF35" s="59"/>
       <c r="AG35" s="58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH35" s="58"/>
       <c r="AI35" s="58"/>
       <c r="AJ35" s="58"/>
       <c r="AK35" s="113" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL35" s="113"/>
       <c r="AM35" s="113"/>
@@ -33826,11 +33546,11 @@
     </row>
     <row r="36" spans="1:74" ht="36.75" customHeight="1">
       <c r="A36" s="74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
@@ -33841,7 +33561,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="88"/>
       <c r="L36" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -33850,31 +33570,31 @@
       <c r="Q36" s="64"/>
       <c r="R36" s="65"/>
       <c r="S36" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V36" s="64"/>
       <c r="W36" s="64"/>
       <c r="X36" s="65"/>
       <c r="Y36" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z36" s="58"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC36" s="58"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH36" s="60"/>
       <c r="AI36" s="60"/>
@@ -33920,11 +33640,11 @@
     </row>
     <row r="37" spans="1:74" ht="30" customHeight="1">
       <c r="A37" s="74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -33935,7 +33655,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="88"/>
       <c r="L37" s="63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
@@ -33944,11 +33664,11 @@
       <c r="Q37" s="64"/>
       <c r="R37" s="65"/>
       <c r="S37" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V37" s="64"/>
       <c r="W37" s="64"/>
@@ -33964,11 +33684,11 @@
       <c r="AC37" s="58"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
@@ -34014,11 +33734,11 @@
     </row>
     <row r="38" spans="1:74" ht="108.6" customHeight="1">
       <c r="A38" s="74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -34029,7 +33749,7 @@
       <c r="J38" s="87"/>
       <c r="K38" s="88"/>
       <c r="L38" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
@@ -34038,37 +33758,37 @@
       <c r="Q38" s="64"/>
       <c r="R38" s="65"/>
       <c r="S38" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH38" s="58"/>
       <c r="AI38" s="58"/>
       <c r="AJ38" s="58"/>
       <c r="AK38" s="108" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AL38" s="109"/>
       <c r="AM38" s="109"/>
@@ -34110,11 +33830,11 @@
     </row>
     <row r="39" spans="1:74" ht="30" customHeight="1">
       <c r="A39" s="74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="86" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -34125,7 +33845,7 @@
       <c r="J39" s="87"/>
       <c r="K39" s="88"/>
       <c r="L39" s="63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
@@ -34134,31 +33854,31 @@
       <c r="Q39" s="64"/>
       <c r="R39" s="65"/>
       <c r="S39" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T39" s="65"/>
       <c r="U39" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
@@ -34204,11 +33924,11 @@
     </row>
     <row r="40" spans="1:74" ht="30" customHeight="1">
       <c r="A40" s="74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
@@ -34219,7 +33939,7 @@
       <c r="J40" s="87"/>
       <c r="K40" s="88"/>
       <c r="L40" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
@@ -34228,31 +33948,31 @@
       <c r="Q40" s="64"/>
       <c r="R40" s="65"/>
       <c r="S40" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T40" s="65"/>
       <c r="U40" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
       <c r="X40" s="65"/>
       <c r="Y40" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z40" s="58"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH40" s="60"/>
       <c r="AI40" s="60"/>
@@ -34298,11 +34018,11 @@
     </row>
     <row r="41" spans="1:74" ht="30" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
@@ -34313,7 +34033,7 @@
       <c r="J41" s="87"/>
       <c r="K41" s="88"/>
       <c r="L41" s="63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M41" s="64"/>
       <c r="N41" s="64"/>
@@ -34322,31 +34042,31 @@
       <c r="Q41" s="64"/>
       <c r="R41" s="65"/>
       <c r="S41" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T41" s="65"/>
       <c r="U41" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
       <c r="X41" s="65"/>
       <c r="Y41" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z41" s="58"/>
       <c r="AA41" s="58"/>
       <c r="AB41" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH41" s="60"/>
       <c r="AI41" s="60"/>
@@ -34392,11 +34112,11 @@
     </row>
     <row r="42" spans="1:74" ht="30" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="86" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -34407,7 +34127,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="88"/>
       <c r="L42" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M42" s="64"/>
       <c r="N42" s="64"/>
@@ -34416,31 +34136,31 @@
       <c r="Q42" s="64"/>
       <c r="R42" s="65"/>
       <c r="S42" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T42" s="65"/>
       <c r="U42" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
       <c r="X42" s="65"/>
       <c r="Y42" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z42" s="58"/>
       <c r="AA42" s="58"/>
       <c r="AB42" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH42" s="60"/>
       <c r="AI42" s="60"/>
@@ -34486,11 +34206,11 @@
     </row>
     <row r="43" spans="1:74" ht="30" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="86" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -34501,7 +34221,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="88"/>
       <c r="L43" s="63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M43" s="64"/>
       <c r="N43" s="64"/>
@@ -34510,31 +34230,31 @@
       <c r="Q43" s="64"/>
       <c r="R43" s="65"/>
       <c r="S43" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T43" s="65"/>
       <c r="U43" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH43" s="60"/>
       <c r="AI43" s="60"/>
@@ -34580,11 +34300,11 @@
     </row>
     <row r="44" spans="1:74" ht="30" customHeight="1">
       <c r="A44" s="74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
@@ -34595,7 +34315,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="88"/>
       <c r="L44" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
@@ -34604,31 +34324,31 @@
       <c r="Q44" s="64"/>
       <c r="R44" s="65"/>
       <c r="S44" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T44" s="65"/>
       <c r="U44" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V44" s="64"/>
       <c r="W44" s="64"/>
       <c r="X44" s="65"/>
       <c r="Y44" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC44" s="58"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF44" s="59"/>
       <c r="AG44" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH44" s="60"/>
       <c r="AI44" s="60"/>
@@ -34672,13 +34392,13 @@
       <c r="BU44" s="58"/>
       <c r="BV44" s="58"/>
     </row>
-    <row r="45" spans="1:74" ht="94.2" customHeight="1">
+    <row r="45" spans="1:74" ht="94.15" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
@@ -34689,7 +34409,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="88"/>
       <c r="L45" s="63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
@@ -34698,37 +34418,37 @@
       <c r="Q45" s="64"/>
       <c r="R45" s="65"/>
       <c r="S45" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T45" s="65"/>
       <c r="U45" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V45" s="64"/>
       <c r="W45" s="64"/>
       <c r="X45" s="65"/>
       <c r="Y45" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z45" s="58"/>
       <c r="AA45" s="58"/>
       <c r="AB45" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC45" s="58"/>
       <c r="AD45" s="58"/>
       <c r="AE45" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF45" s="59"/>
       <c r="AG45" s="58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH45" s="58"/>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL45" s="109"/>
       <c r="AM45" s="109"/>
@@ -34770,11 +34490,11 @@
     </row>
     <row r="46" spans="1:74" ht="30" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -34785,7 +34505,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="88"/>
       <c r="L46" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
@@ -34794,31 +34514,31 @@
       <c r="Q46" s="64"/>
       <c r="R46" s="65"/>
       <c r="S46" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T46" s="65"/>
       <c r="U46" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V46" s="64"/>
       <c r="W46" s="64"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z46" s="58"/>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC46" s="58"/>
       <c r="AD46" s="58"/>
       <c r="AE46" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF46" s="59"/>
       <c r="AG46" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
@@ -34864,11 +34584,11 @@
     </row>
     <row r="47" spans="1:74" ht="30" customHeight="1">
       <c r="A47" s="74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="86" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -34879,7 +34599,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="88"/>
       <c r="L47" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
@@ -34888,31 +34608,31 @@
       <c r="Q47" s="64"/>
       <c r="R47" s="65"/>
       <c r="S47" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T47" s="65"/>
       <c r="U47" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
       <c r="X47" s="65"/>
       <c r="Y47" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC47" s="58"/>
       <c r="AD47" s="58"/>
       <c r="AE47" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF47" s="59"/>
       <c r="AG47" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
@@ -34958,11 +34678,11 @@
     </row>
     <row r="48" spans="1:74" ht="30" customHeight="1">
       <c r="A48" s="74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" s="75"/>
       <c r="C48" s="86" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -34973,7 +34693,7 @@
       <c r="J48" s="87"/>
       <c r="K48" s="88"/>
       <c r="L48" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
@@ -34982,31 +34702,31 @@
       <c r="Q48" s="64"/>
       <c r="R48" s="65"/>
       <c r="S48" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T48" s="65"/>
       <c r="U48" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V48" s="64"/>
       <c r="W48" s="64"/>
       <c r="X48" s="65"/>
       <c r="Y48" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z48" s="58"/>
       <c r="AA48" s="58"/>
       <c r="AB48" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC48" s="58"/>
       <c r="AD48" s="58"/>
       <c r="AE48" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH48" s="60"/>
       <c r="AI48" s="60"/>
@@ -35052,11 +34772,11 @@
     </row>
     <row r="49" spans="1:74" ht="30" customHeight="1">
       <c r="A49" s="102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B49" s="103"/>
       <c r="C49" s="86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
@@ -35067,7 +34787,7 @@
       <c r="J49" s="87"/>
       <c r="K49" s="88"/>
       <c r="L49" s="63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
@@ -35076,11 +34796,11 @@
       <c r="Q49" s="64"/>
       <c r="R49" s="65"/>
       <c r="S49" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T49" s="65"/>
       <c r="U49" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V49" s="64"/>
       <c r="W49" s="64"/>
@@ -35096,17 +34816,17 @@
       <c r="AC49" s="58"/>
       <c r="AD49" s="58"/>
       <c r="AE49" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF49" s="59"/>
       <c r="AG49" s="58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH49" s="58"/>
       <c r="AI49" s="58"/>
       <c r="AJ49" s="58"/>
       <c r="AK49" s="90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AL49" s="91"/>
       <c r="AM49" s="91"/>
@@ -35150,7 +34870,7 @@
       <c r="A50" s="104"/>
       <c r="B50" s="105"/>
       <c r="C50" s="86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
@@ -35161,7 +34881,7 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M50" s="64"/>
       <c r="N50" s="64"/>
@@ -35170,11 +34890,11 @@
       <c r="Q50" s="64"/>
       <c r="R50" s="65"/>
       <c r="S50" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T50" s="65"/>
       <c r="U50" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V50" s="64"/>
       <c r="W50" s="64"/>
@@ -35190,11 +34910,11 @@
       <c r="AC50" s="58"/>
       <c r="AD50" s="58"/>
       <c r="AE50" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH50" s="58"/>
       <c r="AI50" s="58"/>
@@ -35242,7 +34962,7 @@
       <c r="A51" s="104"/>
       <c r="B51" s="105"/>
       <c r="C51" s="86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" s="87"/>
       <c r="E51" s="87"/>
@@ -35253,7 +34973,7 @@
       <c r="J51" s="87"/>
       <c r="K51" s="88"/>
       <c r="L51" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M51" s="64"/>
       <c r="N51" s="64"/>
@@ -35262,11 +34982,11 @@
       <c r="Q51" s="64"/>
       <c r="R51" s="65"/>
       <c r="S51" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T51" s="65"/>
       <c r="U51" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V51" s="64"/>
       <c r="W51" s="64"/>
@@ -35282,11 +35002,11 @@
       <c r="AC51" s="58"/>
       <c r="AD51" s="58"/>
       <c r="AE51" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF51" s="59"/>
       <c r="AG51" s="58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AH51" s="58"/>
       <c r="AI51" s="58"/>
@@ -35334,7 +35054,7 @@
       <c r="A52" s="104"/>
       <c r="B52" s="105"/>
       <c r="C52" s="86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D52" s="87"/>
       <c r="E52" s="87"/>
@@ -35345,7 +35065,7 @@
       <c r="J52" s="87"/>
       <c r="K52" s="88"/>
       <c r="L52" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M52" s="64"/>
       <c r="N52" s="64"/>
@@ -35354,31 +35074,31 @@
       <c r="Q52" s="64"/>
       <c r="R52" s="65"/>
       <c r="S52" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T52" s="65"/>
       <c r="U52" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V52" s="64"/>
       <c r="W52" s="64"/>
       <c r="X52" s="65"/>
       <c r="Y52" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z52" s="58"/>
       <c r="AA52" s="58"/>
       <c r="AB52" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC52" s="58"/>
       <c r="AD52" s="58"/>
       <c r="AE52" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF52" s="59"/>
       <c r="AG52" s="58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH52" s="58"/>
       <c r="AI52" s="58"/>
@@ -35426,7 +35146,7 @@
       <c r="A53" s="104"/>
       <c r="B53" s="105"/>
       <c r="C53" s="86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D53" s="87"/>
       <c r="E53" s="87"/>
@@ -35437,7 +35157,7 @@
       <c r="J53" s="87"/>
       <c r="K53" s="88"/>
       <c r="L53" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M53" s="64"/>
       <c r="N53" s="64"/>
@@ -35446,31 +35166,31 @@
       <c r="Q53" s="64"/>
       <c r="R53" s="65"/>
       <c r="S53" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T53" s="65"/>
       <c r="U53" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V53" s="64"/>
       <c r="W53" s="64"/>
       <c r="X53" s="65"/>
       <c r="Y53" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z53" s="58"/>
       <c r="AA53" s="58"/>
       <c r="AB53" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC53" s="58"/>
       <c r="AD53" s="58"/>
       <c r="AE53" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF53" s="59"/>
       <c r="AG53" s="58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH53" s="58"/>
       <c r="AI53" s="58"/>
@@ -35518,7 +35238,7 @@
       <c r="A54" s="104"/>
       <c r="B54" s="105"/>
       <c r="C54" s="86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -35529,7 +35249,7 @@
       <c r="J54" s="87"/>
       <c r="K54" s="88"/>
       <c r="L54" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M54" s="64"/>
       <c r="N54" s="64"/>
@@ -35538,31 +35258,31 @@
       <c r="Q54" s="64"/>
       <c r="R54" s="65"/>
       <c r="S54" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T54" s="65"/>
       <c r="U54" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V54" s="64"/>
       <c r="W54" s="64"/>
       <c r="X54" s="65"/>
       <c r="Y54" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z54" s="58"/>
       <c r="AA54" s="58"/>
       <c r="AB54" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC54" s="58"/>
       <c r="AD54" s="58"/>
       <c r="AE54" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF54" s="59"/>
       <c r="AG54" s="58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH54" s="58"/>
       <c r="AI54" s="58"/>
@@ -35610,7 +35330,7 @@
       <c r="A55" s="104"/>
       <c r="B55" s="105"/>
       <c r="C55" s="86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D55" s="87"/>
       <c r="E55" s="87"/>
@@ -35621,7 +35341,7 @@
       <c r="J55" s="87"/>
       <c r="K55" s="88"/>
       <c r="L55" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M55" s="64"/>
       <c r="N55" s="64"/>
@@ -35630,11 +35350,11 @@
       <c r="Q55" s="64"/>
       <c r="R55" s="65"/>
       <c r="S55" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T55" s="65"/>
       <c r="U55" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V55" s="64"/>
       <c r="W55" s="64"/>
@@ -35650,11 +35370,11 @@
       <c r="AC55" s="58"/>
       <c r="AD55" s="58"/>
       <c r="AE55" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF55" s="59"/>
       <c r="AG55" s="58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AH55" s="58"/>
       <c r="AI55" s="58"/>
@@ -35702,7 +35422,7 @@
       <c r="A56" s="106"/>
       <c r="B56" s="107"/>
       <c r="C56" s="86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D56" s="87"/>
       <c r="E56" s="87"/>
@@ -35713,7 +35433,7 @@
       <c r="J56" s="87"/>
       <c r="K56" s="88"/>
       <c r="L56" s="63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M56" s="64"/>
       <c r="N56" s="64"/>
@@ -35722,31 +35442,31 @@
       <c r="Q56" s="64"/>
       <c r="R56" s="65"/>
       <c r="S56" s="63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T56" s="65"/>
       <c r="U56" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V56" s="64"/>
       <c r="W56" s="64"/>
       <c r="X56" s="65"/>
       <c r="Y56" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z56" s="58"/>
       <c r="AA56" s="58"/>
       <c r="AB56" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC56" s="58"/>
       <c r="AD56" s="58"/>
       <c r="AE56" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF56" s="59"/>
       <c r="AG56" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH56" s="60"/>
       <c r="AI56" s="60"/>
@@ -35792,11 +35512,11 @@
     </row>
     <row r="57" spans="1:74" ht="30" customHeight="1">
       <c r="A57" s="74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B57" s="75"/>
       <c r="C57" s="86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D57" s="87"/>
       <c r="E57" s="87"/>
@@ -35807,7 +35527,7 @@
       <c r="J57" s="87"/>
       <c r="K57" s="88"/>
       <c r="L57" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M57" s="64"/>
       <c r="N57" s="64"/>
@@ -35816,31 +35536,31 @@
       <c r="Q57" s="64"/>
       <c r="R57" s="65"/>
       <c r="S57" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T57" s="65"/>
       <c r="U57" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V57" s="64"/>
       <c r="W57" s="64"/>
       <c r="X57" s="65"/>
       <c r="Y57" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z57" s="58"/>
       <c r="AA57" s="58"/>
       <c r="AB57" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC57" s="58"/>
       <c r="AD57" s="58"/>
       <c r="AE57" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF57" s="59"/>
       <c r="AG57" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH57" s="60"/>
       <c r="AI57" s="60"/>
@@ -35886,11 +35606,11 @@
     </row>
     <row r="58" spans="1:74" ht="30" customHeight="1">
       <c r="A58" s="74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B58" s="75"/>
       <c r="C58" s="86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D58" s="87"/>
       <c r="E58" s="87"/>
@@ -35901,7 +35621,7 @@
       <c r="J58" s="87"/>
       <c r="K58" s="88"/>
       <c r="L58" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M58" s="64"/>
       <c r="N58" s="64"/>
@@ -35910,31 +35630,31 @@
       <c r="Q58" s="64"/>
       <c r="R58" s="65"/>
       <c r="S58" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T58" s="65"/>
       <c r="U58" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V58" s="64"/>
       <c r="W58" s="64"/>
       <c r="X58" s="65"/>
       <c r="Y58" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z58" s="58"/>
       <c r="AA58" s="58"/>
       <c r="AB58" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC58" s="58"/>
       <c r="AD58" s="58"/>
       <c r="AE58" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF58" s="59"/>
       <c r="AG58" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH58" s="60"/>
       <c r="AI58" s="60"/>
@@ -35980,11 +35700,11 @@
     </row>
     <row r="59" spans="1:74" ht="30" customHeight="1">
       <c r="A59" s="74" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B59" s="75"/>
       <c r="C59" s="86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -35995,7 +35715,7 @@
       <c r="J59" s="87"/>
       <c r="K59" s="88"/>
       <c r="L59" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M59" s="64"/>
       <c r="N59" s="64"/>
@@ -36004,31 +35724,31 @@
       <c r="Q59" s="64"/>
       <c r="R59" s="65"/>
       <c r="S59" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T59" s="65"/>
       <c r="U59" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V59" s="64"/>
       <c r="W59" s="64"/>
       <c r="X59" s="65"/>
       <c r="Y59" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z59" s="58"/>
       <c r="AA59" s="58"/>
       <c r="AB59" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC59" s="58"/>
       <c r="AD59" s="58"/>
       <c r="AE59" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF59" s="59"/>
       <c r="AG59" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH59" s="60"/>
       <c r="AI59" s="60"/>
@@ -36074,7 +35794,7 @@
     </row>
     <row r="60" spans="1:74" ht="18">
       <c r="A60" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
@@ -36152,7 +35872,7 @@
     </row>
     <row r="61" spans="1:74" ht="43.5" customHeight="1">
       <c r="A61" s="72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="72"/>
       <c r="C61" s="72"/>
@@ -36165,7 +35885,7 @@
       <c r="J61" s="72"/>
       <c r="K61" s="115"/>
       <c r="L61" s="116" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M61" s="116"/>
       <c r="N61" s="116"/>
@@ -36232,7 +35952,7 @@
     </row>
     <row r="62" spans="1:74" ht="43.5" customHeight="1">
       <c r="A62" s="72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="72"/>
       <c r="C62" s="72"/>
@@ -36245,7 +35965,7 @@
       <c r="J62" s="72"/>
       <c r="K62" s="115"/>
       <c r="L62" s="116" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M62" s="116"/>
       <c r="N62" s="116"/>
@@ -36312,7 +36032,7 @@
     </row>
     <row r="63" spans="1:74" ht="43.5" customHeight="1">
       <c r="A63" s="72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
@@ -36325,7 +36045,7 @@
       <c r="J63" s="72"/>
       <c r="K63" s="115"/>
       <c r="L63" s="116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M63" s="116"/>
       <c r="N63" s="116"/>
@@ -36392,7 +36112,7 @@
     </row>
     <row r="64" spans="1:74" ht="36.6" customHeight="1">
       <c r="A64" s="72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
@@ -36405,7 +36125,7 @@
       <c r="J64" s="72"/>
       <c r="K64" s="72"/>
       <c r="L64" s="117" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M64" s="117"/>
       <c r="N64" s="117"/>
@@ -36470,9 +36190,9 @@
       <c r="BU64" s="117"/>
       <c r="BV64" s="117"/>
     </row>
-    <row r="65" spans="1:74" ht="352.2" customHeight="1">
+    <row r="65" spans="1:74" ht="352.15" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
@@ -36485,7 +36205,7 @@
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
       <c r="L65" s="72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M65" s="72"/>
       <c r="N65" s="72"/>
@@ -36552,7 +36272,7 @@
     </row>
     <row r="66" spans="1:74" ht="213" customHeight="1">
       <c r="A66" s="72" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B66" s="72"/>
       <c r="C66" s="72"/>
@@ -36565,7 +36285,7 @@
       <c r="J66" s="72"/>
       <c r="K66" s="72"/>
       <c r="L66" s="72" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M66" s="72"/>
       <c r="N66" s="72"/>
@@ -36630,9 +36350,9 @@
       <c r="BU66" s="72"/>
       <c r="BV66" s="72"/>
     </row>
-    <row r="67" spans="1:74" ht="43.95" customHeight="1">
+    <row r="67" spans="1:74" ht="43.9" customHeight="1">
       <c r="A67" s="72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B67" s="72"/>
       <c r="C67" s="72"/>
@@ -36645,7 +36365,7 @@
       <c r="J67" s="72"/>
       <c r="K67" s="72"/>
       <c r="L67" s="72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M67" s="72"/>
       <c r="N67" s="72"/>
@@ -36710,9 +36430,9 @@
       <c r="BU67" s="72"/>
       <c r="BV67" s="72"/>
     </row>
-    <row r="68" spans="1:74" ht="61.2" customHeight="1">
+    <row r="68" spans="1:74" ht="61.15" customHeight="1">
       <c r="A68" s="72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B68" s="72"/>
       <c r="C68" s="72"/>
@@ -36725,7 +36445,7 @@
       <c r="J68" s="72"/>
       <c r="K68" s="72"/>
       <c r="L68" s="72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M68" s="72"/>
       <c r="N68" s="72"/>
@@ -36792,7 +36512,7 @@
     </row>
     <row r="69" spans="1:74" ht="45.6" customHeight="1">
       <c r="A69" s="72" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B69" s="72"/>
       <c r="C69" s="72"/>
@@ -36805,7 +36525,7 @@
       <c r="J69" s="72"/>
       <c r="K69" s="72"/>
       <c r="L69" s="72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M69" s="72"/>
       <c r="N69" s="72"/>
@@ -36872,7 +36592,7 @@
     </row>
     <row r="70" spans="1:74" ht="324.75" customHeight="1">
       <c r="A70" s="72" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" s="72"/>
       <c r="C70" s="72"/>
@@ -36885,7 +36605,7 @@
       <c r="J70" s="72"/>
       <c r="K70" s="72"/>
       <c r="L70" s="89" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M70" s="89"/>
       <c r="N70" s="89"/>
@@ -36952,7 +36672,7 @@
     </row>
     <row r="71" spans="1:74" ht="156.6" customHeight="1">
       <c r="A71" s="72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B71" s="72"/>
       <c r="C71" s="72"/>
@@ -36965,7 +36685,7 @@
       <c r="J71" s="72"/>
       <c r="K71" s="72"/>
       <c r="L71" s="72" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M71" s="72"/>
       <c r="N71" s="72"/>
@@ -37030,9 +36750,9 @@
       <c r="BU71" s="72"/>
       <c r="BV71" s="72"/>
     </row>
-    <row r="72" spans="1:74" ht="232.95" customHeight="1">
+    <row r="72" spans="1:74" ht="232.9" customHeight="1">
       <c r="A72" s="72" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B72" s="72"/>
       <c r="C72" s="72"/>
@@ -37045,7 +36765,7 @@
       <c r="J72" s="72"/>
       <c r="K72" s="72"/>
       <c r="L72" s="72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M72" s="72"/>
       <c r="N72" s="72"/>
@@ -37457,20 +37177,20 @@
   <dimension ref="A1:BQ59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A55" sqref="A55:K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="34" width="2.44140625" style="6"/>
-    <col min="35" max="35" width="31.5546875" style="6" customWidth="1"/>
-    <col min="36" max="36" width="2.44140625" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="2.44140625" style="6"/>
+    <col min="1" max="34" width="2.42578125" style="6"/>
+    <col min="35" max="35" width="31.5703125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="2.42578125" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="18">
       <c r="A1" s="66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -37510,13 +37230,13 @@
       <c r="AH1" s="119"/>
       <c r="AI1" s="120"/>
       <c r="AJ1" s="121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK1" s="122"/>
       <c r="AL1" s="122"/>
       <c r="AM1" s="123"/>
       <c r="AN1" s="118" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO1" s="119"/>
       <c r="AP1" s="119"/>
@@ -37550,7 +37270,7 @@
     </row>
     <row r="2" spans="1:69" ht="18">
       <c r="A2" s="69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -37623,7 +37343,7 @@
     </row>
     <row r="3" spans="1:69" ht="18">
       <c r="A3" s="68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -37696,7 +37416,7 @@
     </row>
     <row r="4" spans="1:69" ht="18">
       <c r="A4" s="69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -39615,7 +39335,7 @@
     </row>
     <row r="31" spans="1:69" ht="18">
       <c r="A31" s="69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
@@ -39688,11 +39408,11 @@
     </row>
     <row r="32" spans="1:69" ht="18">
       <c r="A32" s="67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
@@ -39703,7 +39423,7 @@
       <c r="J32" s="67"/>
       <c r="K32" s="67"/>
       <c r="L32" s="67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M32" s="67"/>
       <c r="N32" s="67"/>
@@ -39712,37 +39432,37 @@
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
       <c r="S32" s="67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T32" s="67"/>
       <c r="U32" s="67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V32" s="67"/>
       <c r="W32" s="67"/>
       <c r="X32" s="67"/>
       <c r="Y32" s="71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z32" s="71"/>
       <c r="AA32" s="71"/>
       <c r="AB32" s="71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC32" s="71"/>
       <c r="AD32" s="71"/>
       <c r="AE32" s="67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF32" s="67"/>
       <c r="AG32" s="67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH32" s="67"/>
       <c r="AI32" s="67"/>
       <c r="AJ32" s="67"/>
       <c r="AK32" s="67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL32" s="67"/>
       <c r="AM32" s="67"/>
@@ -39779,11 +39499,11 @@
     </row>
     <row r="33" spans="1:69" ht="30" customHeight="1">
       <c r="A33" s="74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
@@ -39794,7 +39514,7 @@
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
       <c r="L33" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M33" s="62"/>
       <c r="N33" s="62"/>
@@ -39803,31 +39523,31 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="S33" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T33" s="62"/>
       <c r="U33" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V33" s="64"/>
       <c r="W33" s="64"/>
       <c r="X33" s="65"/>
       <c r="Y33" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="58"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC33" s="58"/>
       <c r="AD33" s="58"/>
       <c r="AE33" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF33" s="59"/>
       <c r="AG33" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH33" s="60"/>
       <c r="AI33" s="60"/>
@@ -39868,11 +39588,11 @@
     </row>
     <row r="34" spans="1:69" ht="30" customHeight="1">
       <c r="A34" s="74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
@@ -39883,7 +39603,7 @@
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
       <c r="L34" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
@@ -39892,31 +39612,31 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="S34" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T34" s="62"/>
       <c r="U34" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V34" s="64"/>
       <c r="W34" s="64"/>
       <c r="X34" s="65"/>
       <c r="Y34" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z34" s="58"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC34" s="58"/>
       <c r="AD34" s="58"/>
       <c r="AE34" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF34" s="59"/>
       <c r="AG34" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH34" s="60"/>
       <c r="AI34" s="60"/>
@@ -39957,11 +39677,11 @@
     </row>
     <row r="35" spans="1:69" ht="30" customHeight="1">
       <c r="A35" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -39972,7 +39692,7 @@
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
       <c r="L35" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
@@ -39981,31 +39701,31 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="S35" s="62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T35" s="62"/>
       <c r="U35" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
       <c r="X35" s="65"/>
       <c r="Y35" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC35" s="58"/>
       <c r="AD35" s="58"/>
       <c r="AE35" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF35" s="59"/>
       <c r="AG35" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH35" s="60"/>
       <c r="AI35" s="60"/>
@@ -40046,11 +39766,11 @@
     </row>
     <row r="36" spans="1:69" ht="30" customHeight="1">
       <c r="A36" s="74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
@@ -40061,7 +39781,7 @@
       <c r="J36" s="87"/>
       <c r="K36" s="88"/>
       <c r="L36" s="63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -40070,11 +39790,11 @@
       <c r="Q36" s="64"/>
       <c r="R36" s="65"/>
       <c r="S36" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V36" s="64"/>
       <c r="W36" s="64"/>
@@ -40090,17 +39810,17 @@
       <c r="AC36" s="58"/>
       <c r="AD36" s="58"/>
       <c r="AE36" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF36" s="59"/>
       <c r="AG36" s="58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH36" s="58"/>
       <c r="AI36" s="58"/>
       <c r="AJ36" s="58"/>
       <c r="AK36" s="124" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AL36" s="125"/>
       <c r="AM36" s="125"/>
@@ -40137,11 +39857,11 @@
     </row>
     <row r="37" spans="1:69" ht="36.75" customHeight="1">
       <c r="A37" s="74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
@@ -40152,7 +39872,7 @@
       <c r="J37" s="87"/>
       <c r="K37" s="88"/>
       <c r="L37" s="63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
@@ -40161,31 +39881,31 @@
       <c r="Q37" s="64"/>
       <c r="R37" s="65"/>
       <c r="S37" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V37" s="64"/>
       <c r="W37" s="64"/>
       <c r="X37" s="65"/>
       <c r="Y37" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z37" s="58"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC37" s="58"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF37" s="59"/>
       <c r="AG37" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
@@ -40226,11 +39946,11 @@
     </row>
     <row r="38" spans="1:69" ht="30" customHeight="1">
       <c r="A38" s="74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -40241,7 +39961,7 @@
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
@@ -40250,31 +39970,31 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="S38" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V38" s="64"/>
       <c r="W38" s="64"/>
       <c r="X38" s="65"/>
       <c r="Y38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC38" s="58"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF38" s="59"/>
       <c r="AG38" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
@@ -40315,11 +40035,11 @@
     </row>
     <row r="39" spans="1:69" ht="108" customHeight="1">
       <c r="A39" s="74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -40330,7 +40050,7 @@
       <c r="J39" s="61"/>
       <c r="K39" s="61"/>
       <c r="L39" s="62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
@@ -40339,37 +40059,37 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="S39" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T39" s="65"/>
       <c r="U39" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
       <c r="X39" s="65"/>
       <c r="Y39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="58"/>
       <c r="AD39" s="58"/>
       <c r="AE39" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF39" s="59"/>
       <c r="AG39" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
       <c r="AJ39" s="60"/>
       <c r="AK39" s="70" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL39" s="70"/>
       <c r="AM39" s="70"/>
@@ -40404,13 +40124,13 @@
       <c r="BP39" s="70"/>
       <c r="BQ39" s="70"/>
     </row>
-    <row r="40" spans="1:69" ht="103.95" customHeight="1">
+    <row r="40" spans="1:69" ht="103.9" customHeight="1">
       <c r="A40" s="74" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D40" s="61"/>
       <c r="E40" s="61"/>
@@ -40421,7 +40141,7 @@
       <c r="J40" s="61"/>
       <c r="K40" s="61"/>
       <c r="L40" s="62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M40" s="62"/>
       <c r="N40" s="62"/>
@@ -40430,11 +40150,11 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T40" s="62"/>
       <c r="U40" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V40" s="64"/>
       <c r="W40" s="64"/>
@@ -40450,17 +40170,17 @@
       <c r="AC40" s="58"/>
       <c r="AD40" s="58"/>
       <c r="AE40" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF40" s="59"/>
       <c r="AG40" s="60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH40" s="58"/>
       <c r="AI40" s="58"/>
       <c r="AJ40" s="58"/>
       <c r="AK40" s="70" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL40" s="70"/>
       <c r="AM40" s="70"/>
@@ -40495,13 +40215,13 @@
       <c r="BP40" s="70"/>
       <c r="BQ40" s="70"/>
     </row>
-    <row r="41" spans="1:69" ht="97.95" customHeight="1">
+    <row r="41" spans="1:69" ht="97.9" customHeight="1">
       <c r="A41" s="102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" s="103"/>
       <c r="C41" s="61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
@@ -40512,7 +40232,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="61"/>
       <c r="L41" s="62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
@@ -40521,11 +40241,11 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="S41" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T41" s="62"/>
       <c r="U41" s="63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V41" s="64"/>
       <c r="W41" s="64"/>
@@ -40541,17 +40261,17 @@
       <c r="AC41" s="58"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF41" s="59"/>
       <c r="AG41" s="58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH41" s="58"/>
       <c r="AI41" s="58"/>
       <c r="AJ41" s="58"/>
       <c r="AK41" s="70" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL41" s="70"/>
       <c r="AM41" s="70"/>
@@ -40586,13 +40306,13 @@
       <c r="BP41" s="70"/>
       <c r="BQ41" s="70"/>
     </row>
-    <row r="42" spans="1:69" ht="181.95" customHeight="1">
+    <row r="42" spans="1:69" ht="181.9" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -40603,7 +40323,7 @@
       <c r="J42" s="87"/>
       <c r="K42" s="88"/>
       <c r="L42" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M42" s="62"/>
       <c r="N42" s="62"/>
@@ -40612,11 +40332,11 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="S42" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V42" s="64"/>
       <c r="W42" s="64"/>
@@ -40632,17 +40352,17 @@
       <c r="AC42" s="58"/>
       <c r="AD42" s="58"/>
       <c r="AE42" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF42" s="59"/>
       <c r="AG42" s="58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AH42" s="58"/>
       <c r="AI42" s="58"/>
       <c r="AJ42" s="58"/>
       <c r="AK42" s="70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL42" s="70"/>
       <c r="AM42" s="70"/>
@@ -40677,13 +40397,13 @@
       <c r="BP42" s="70"/>
       <c r="BQ42" s="70"/>
     </row>
-    <row r="43" spans="1:69" ht="106.2" customHeight="1">
+    <row r="43" spans="1:69" ht="106.15" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -40694,7 +40414,7 @@
       <c r="J43" s="87"/>
       <c r="K43" s="88"/>
       <c r="L43" s="62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M43" s="62"/>
       <c r="N43" s="62"/>
@@ -40703,37 +40423,37 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="S43" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T43" s="62"/>
       <c r="U43" s="63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
       <c r="X43" s="65"/>
       <c r="Y43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC43" s="58"/>
       <c r="AD43" s="58"/>
       <c r="AE43" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF43" s="59"/>
       <c r="AG43" s="99" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH43" s="100"/>
       <c r="AI43" s="100"/>
       <c r="AJ43" s="101"/>
       <c r="AK43" s="70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL43" s="70"/>
       <c r="AM43" s="70"/>
@@ -40768,13 +40488,13 @@
       <c r="BP43" s="70"/>
       <c r="BQ43" s="70"/>
     </row>
-    <row r="44" spans="1:69" ht="106.2" customHeight="1">
+    <row r="44" spans="1:69" ht="106.15" customHeight="1">
       <c r="A44" s="74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
@@ -40785,7 +40505,7 @@
       <c r="J44" s="87"/>
       <c r="K44" s="88"/>
       <c r="L44" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M44" s="62"/>
       <c r="N44" s="62"/>
@@ -40794,31 +40514,31 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="S44" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T44" s="65"/>
       <c r="U44" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V44" s="64"/>
       <c r="W44" s="64"/>
       <c r="X44" s="65"/>
       <c r="Y44" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC44" s="58"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF44" s="59"/>
       <c r="AG44" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH44" s="60"/>
       <c r="AI44" s="60"/>
@@ -40857,13 +40577,13 @@
       <c r="BP44" s="70"/>
       <c r="BQ44" s="70"/>
     </row>
-    <row r="45" spans="1:69" ht="164.4" customHeight="1">
+    <row r="45" spans="1:69" ht="164.45" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="86" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
@@ -40874,7 +40594,7 @@
       <c r="J45" s="87"/>
       <c r="K45" s="88"/>
       <c r="L45" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M45" s="62"/>
       <c r="N45" s="62"/>
@@ -40883,11 +40603,11 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="S45" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T45" s="62"/>
       <c r="U45" s="63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V45" s="64"/>
       <c r="W45" s="64"/>
@@ -40903,17 +40623,17 @@
       <c r="AC45" s="58"/>
       <c r="AD45" s="58"/>
       <c r="AE45" s="59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF45" s="59"/>
       <c r="AG45" s="58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AH45" s="58"/>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="70" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL45" s="70"/>
       <c r="AM45" s="70"/>
@@ -40950,11 +40670,11 @@
     </row>
     <row r="46" spans="1:69" ht="39.6" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="86" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -40965,7 +40685,7 @@
       <c r="J46" s="87"/>
       <c r="K46" s="88"/>
       <c r="L46" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M46" s="62"/>
       <c r="N46" s="62"/>
@@ -40974,31 +40694,31 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="S46" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T46" s="65"/>
       <c r="U46" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V46" s="64"/>
       <c r="W46" s="64"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z46" s="58"/>
       <c r="AA46" s="58"/>
       <c r="AB46" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC46" s="58"/>
       <c r="AD46" s="58"/>
       <c r="AE46" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF46" s="59"/>
       <c r="AG46" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
@@ -41039,11 +40759,11 @@
     </row>
     <row r="47" spans="1:69" ht="39.6" customHeight="1">
       <c r="A47" s="74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="86" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -41054,7 +40774,7 @@
       <c r="J47" s="87"/>
       <c r="K47" s="88"/>
       <c r="L47" s="62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M47" s="62"/>
       <c r="N47" s="62"/>
@@ -41063,31 +40783,31 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="S47" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T47" s="65"/>
       <c r="U47" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
       <c r="X47" s="65"/>
       <c r="Y47" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC47" s="58"/>
       <c r="AD47" s="58"/>
       <c r="AE47" s="59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF47" s="59"/>
       <c r="AG47" s="60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
@@ -41128,7 +40848,7 @@
     </row>
     <row r="48" spans="1:69" ht="18">
       <c r="A48" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
@@ -41201,7 +40921,7 @@
     </row>
     <row r="49" spans="1:69" ht="43.5" customHeight="1">
       <c r="A49" s="72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="72"/>
@@ -41214,7 +40934,7 @@
       <c r="J49" s="72"/>
       <c r="K49" s="115"/>
       <c r="L49" s="127" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M49" s="128"/>
       <c r="N49" s="128"/>
@@ -41276,7 +40996,7 @@
     </row>
     <row r="50" spans="1:69" ht="43.5" customHeight="1">
       <c r="A50" s="72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
@@ -41289,7 +41009,7 @@
       <c r="J50" s="72"/>
       <c r="K50" s="115"/>
       <c r="L50" s="127" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M50" s="128"/>
       <c r="N50" s="128"/>
@@ -41351,7 +41071,7 @@
     </row>
     <row r="51" spans="1:69" ht="43.5" customHeight="1">
       <c r="A51" s="72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
@@ -41364,7 +41084,7 @@
       <c r="J51" s="72"/>
       <c r="K51" s="115"/>
       <c r="L51" s="127" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M51" s="128"/>
       <c r="N51" s="128"/>
@@ -41424,9 +41144,9 @@
       <c r="BP51" s="128"/>
       <c r="BQ51" s="129"/>
     </row>
-    <row r="52" spans="1:69" ht="55.2" customHeight="1">
+    <row r="52" spans="1:69" ht="55.15" customHeight="1">
       <c r="A52" s="72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
@@ -41439,7 +41159,7 @@
       <c r="J52" s="72"/>
       <c r="K52" s="72"/>
       <c r="L52" s="136" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M52" s="137"/>
       <c r="N52" s="137"/>
@@ -41499,9 +41219,9 @@
       <c r="BP52" s="137"/>
       <c r="BQ52" s="138"/>
     </row>
-    <row r="53" spans="1:69" ht="46.95" customHeight="1">
+    <row r="53" spans="1:69" ht="46.9" customHeight="1">
       <c r="A53" s="72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
@@ -41514,7 +41234,7 @@
       <c r="J53" s="72"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M53" s="72"/>
       <c r="N53" s="72"/>
@@ -41576,7 +41296,7 @@
     </row>
     <row r="54" spans="1:69" ht="345" customHeight="1">
       <c r="A54" s="72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -41589,7 +41309,7 @@
       <c r="J54" s="72"/>
       <c r="K54" s="72"/>
       <c r="L54" s="72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M54" s="72"/>
       <c r="N54" s="72"/>
@@ -41649,9 +41369,9 @@
       <c r="BP54" s="72"/>
       <c r="BQ54" s="72"/>
     </row>
-    <row r="55" spans="1:69" ht="338.4" customHeight="1">
+    <row r="55" spans="1:69" ht="338.45" customHeight="1">
       <c r="A55" s="133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B55" s="134"/>
       <c r="C55" s="134"/>
@@ -41664,7 +41384,7 @@
       <c r="J55" s="134"/>
       <c r="K55" s="135"/>
       <c r="L55" s="72" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="M55" s="72"/>
       <c r="N55" s="72"/>
@@ -41724,9 +41444,9 @@
       <c r="BP55" s="72"/>
       <c r="BQ55" s="72"/>
     </row>
-    <row r="56" spans="1:69" ht="319.2" customHeight="1">
+    <row r="56" spans="1:69" ht="319.14999999999998" customHeight="1">
       <c r="A56" s="130" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B56" s="131"/>
       <c r="C56" s="131"/>
@@ -41739,7 +41459,7 @@
       <c r="J56" s="131"/>
       <c r="K56" s="132"/>
       <c r="L56" s="72" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M56" s="72"/>
       <c r="N56" s="72"/>
@@ -42019,20 +41739,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0142D4-4CA3-493B-9043-ADFFCFD27D5C}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="39"/>
-    <col min="3" max="3" width="32.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="39" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="39"/>
+    <col min="3" max="3" width="32.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16" style="40" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="39" customWidth="1"/>
     <col min="8" max="8" width="12" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="39"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
@@ -42048,125 +41768,125 @@
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="41"/>
       <c r="B2" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90">
+    <row r="3" spans="1:8" ht="76.5">
       <c r="A3" s="41"/>
       <c r="B3" s="41">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E3" s="42">
         <v>45723</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H3" s="42">
         <v>45731</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8" ht="105" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41">
         <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="42">
-        <v>45723</v>
+        <v>202</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="42">
-        <v>45731</v>
+        <v>45740</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36">
+    <row r="5" spans="1:8" ht="45.75">
       <c r="A5" s="41"/>
       <c r="B5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E5" s="42">
         <v>45723</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H5" s="42">
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="73.8" customHeight="1">
+    <row r="6" spans="1:8" ht="270.75" customHeight="1">
       <c r="A6" s="41"/>
       <c r="B6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="42">
-        <v>45732</v>
+        <v>209</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="H6" s="42">
-        <v>45733</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.25" customHeight="1">
@@ -42176,19 +41896,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E7" s="42">
         <v>45732</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H7" s="42">
         <v>45733</v>
@@ -42269,6 +41989,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -42412,52 +42141,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C89A913-7ED1-4BF6-8E4A-916015E940D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C89A913-7ED1-4BF6-8E4A-916015E940D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}"/>
 </file>